--- a/thermax_backend/templates/spg_design_basis_template.xlsx
+++ b/thermax_backend/templates/spg_design_basis_template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B22259-9068-4622-8566-20A84EBE00B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8934C2-0C70-4CC1-8F01-EEA4FFF98628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
     <sheet name="Design Basis" sheetId="2" r:id="rId2"/>
-    <sheet name="MCC" sheetId="3" r:id="rId3"/>
-    <sheet name="PCC" sheetId="6" r:id="rId4"/>
-    <sheet name="MCC CUM PLC" sheetId="5" r:id="rId5"/>
+    <sheet name="MCC VTUS88BP" sheetId="3" r:id="rId3"/>
+    <sheet name="PCC VTUS88BP" sheetId="6" r:id="rId4"/>
+    <sheet name="MCC CUM PLC VTUS88BP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1978,6 +1978,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2029,41 +2065,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2077,6 +2149,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,80 +2170,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2188,50 +2197,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2727,7 +2727,7 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
@@ -3376,50 +3376,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
@@ -3433,78 +3433,78 @@
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3768,6 +3768,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3778,12 +3784,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3809,26 +3809,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3837,8 +3837,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3847,8 +3847,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3857,8 +3857,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3867,8 +3867,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3877,8 +3877,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3887,8 +3887,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3897,8 +3897,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3907,8 +3907,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3917,8 +3917,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3927,8 +3927,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3937,8 +3937,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="130"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3947,8 +3947,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="130"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3957,8 +3957,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="130"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3967,8 +3967,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="130"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -3977,16 +3977,16 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -3995,8 +3995,8 @@
       <c r="B20" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -4005,8 +4005,8 @@
       <c r="B21" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -4015,8 +4015,8 @@
       <c r="B22" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -4025,8 +4025,8 @@
       <c r="B23" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -4035,16 +4035,16 @@
       <c r="B24" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29"/>
@@ -4270,19 +4270,19 @@
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="117"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="109"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -4291,8 +4291,8 @@
       <c r="B50" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="120"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -4301,8 +4301,8 @@
       <c r="B51" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="120"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -4311,8 +4311,8 @@
       <c r="B52" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="119"/>
-      <c r="D52" s="120"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="106"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -4321,8 +4321,8 @@
       <c r="B53" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="120"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -4331,8 +4331,8 @@
       <c r="B54" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="120"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -4341,8 +4341,8 @@
       <c r="B55" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="120"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -4351,24 +4351,24 @@
       <c r="B56" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="119"/>
-      <c r="D56" s="120"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="117"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="117"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="109"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -4377,16 +4377,16 @@
       <c r="B59" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="106"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="115" t="s">
+      <c r="B60" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="117"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="109"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4395,8 +4395,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="121"/>
-      <c r="D61" s="122"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="111"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4405,8 +4405,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="121"/>
-      <c r="D62" s="122"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="111"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4415,8 +4415,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="121"/>
-      <c r="D63" s="122"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="111"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4425,8 +4425,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="121"/>
-      <c r="D64" s="122"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="111"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4435,8 +4435,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="121"/>
-      <c r="D65" s="122"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="111"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4445,16 +4445,16 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="121"/>
-      <c r="D66" s="122"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="111"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="116"/>
-      <c r="D67" s="117"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="109"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
@@ -4463,16 +4463,16 @@
       <c r="B68" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="119"/>
-      <c r="D68" s="120"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="106"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="115" t="s">
+      <c r="B69" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="116"/>
-      <c r="D69" s="117"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="109"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -4481,8 +4481,8 @@
       <c r="B70" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="119"/>
-      <c r="D70" s="120"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="106"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -4491,8 +4491,8 @@
       <c r="B71" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="119"/>
-      <c r="D71" s="120"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="106"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -4501,8 +4501,8 @@
       <c r="B72" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="119"/>
-      <c r="D72" s="120"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="106"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
@@ -4511,8 +4511,8 @@
       <c r="B73" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="119"/>
-      <c r="D73" s="120"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="106"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -4521,16 +4521,16 @@
       <c r="B74" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="123"/>
-      <c r="D75" s="124"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="128"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -4539,8 +4539,8 @@
       <c r="B76" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="119"/>
-      <c r="D76" s="120"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -4549,8 +4549,8 @@
       <c r="B77" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="120"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="106"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -4559,8 +4559,8 @@
       <c r="B78" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="120"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="106"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -4569,8 +4569,8 @@
       <c r="B79" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="119"/>
-      <c r="D79" s="120"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="106"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -4579,16 +4579,16 @@
       <c r="B80" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="119"/>
-      <c r="D80" s="120"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="123" t="s">
+      <c r="B81" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="123"/>
-      <c r="D81" s="124"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="128"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -4597,8 +4597,8 @@
       <c r="B82" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="119"/>
-      <c r="D82" s="120"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="106"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
@@ -4607,8 +4607,8 @@
       <c r="B83" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="119"/>
-      <c r="D83" s="120"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="106"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -4617,8 +4617,8 @@
       <c r="B84" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="119"/>
-      <c r="D84" s="120"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="106"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
@@ -4627,8 +4627,8 @@
       <c r="B85" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="119"/>
-      <c r="D85" s="120"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="106"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -4637,8 +4637,8 @@
       <c r="B86" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="119"/>
-      <c r="D86" s="120"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="106"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4647,8 +4647,8 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="119"/>
-      <c r="D87" s="120"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="106"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -4657,8 +4657,8 @@
       <c r="B88" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="119"/>
-      <c r="D88" s="120"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -4667,16 +4667,16 @@
       <c r="B89" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="119"/>
-      <c r="D89" s="120"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="106"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="115" t="s">
+      <c r="B90" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="116"/>
-      <c r="D90" s="117"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="109"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -4685,8 +4685,8 @@
       <c r="B91" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="119"/>
-      <c r="D91" s="120"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="106"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -4695,8 +4695,8 @@
       <c r="B92" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="119"/>
-      <c r="D92" s="120"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="106"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
@@ -4705,8 +4705,8 @@
       <c r="B93" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="119"/>
-      <c r="D93" s="120"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="106"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -4715,16 +4715,16 @@
       <c r="B94" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="119"/>
-      <c r="D94" s="120"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="106"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="116"/>
-      <c r="D95" s="117"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="109"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -4733,8 +4733,8 @@
       <c r="B96" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="119"/>
-      <c r="D96" s="120"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="106"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
@@ -4743,8 +4743,8 @@
       <c r="B97" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="121"/>
-      <c r="D97" s="122"/>
+      <c r="C97" s="115"/>
+      <c r="D97" s="111"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4753,8 +4753,8 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="119"/>
-      <c r="D98" s="120"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="106"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
@@ -4763,8 +4763,8 @@
       <c r="B99" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="119"/>
-      <c r="D99" s="120"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="106"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -4773,16 +4773,16 @@
       <c r="B100" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="119"/>
-      <c r="D100" s="120"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="106"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="116"/>
-      <c r="D101" s="117"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="109"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -4791,8 +4791,8 @@
       <c r="B102" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="121"/>
-      <c r="D102" s="122"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="111"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
@@ -4801,8 +4801,8 @@
       <c r="B103" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="121"/>
-      <c r="D103" s="122"/>
+      <c r="C103" s="115"/>
+      <c r="D103" s="111"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -4811,8 +4811,8 @@
       <c r="B104" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="121"/>
-      <c r="D104" s="122"/>
+      <c r="C104" s="115"/>
+      <c r="D104" s="111"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -4821,16 +4821,16 @@
       <c r="B105" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="121"/>
-      <c r="D105" s="122"/>
+      <c r="C105" s="115"/>
+      <c r="D105" s="111"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="115" t="s">
+      <c r="B106" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="116"/>
-      <c r="D106" s="117"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="109"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -4839,16 +4839,16 @@
       <c r="B107" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="119"/>
-      <c r="D107" s="120"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="106"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="115" t="s">
+      <c r="B108" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="116"/>
-      <c r="D108" s="117"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="109"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
@@ -4857,8 +4857,8 @@
       <c r="B109" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="119"/>
-      <c r="D109" s="120"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="106"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -4867,8 +4867,8 @@
       <c r="B110" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="119"/>
-      <c r="D110" s="120"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="106"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -4877,8 +4877,8 @@
       <c r="B111" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="119"/>
-      <c r="D111" s="120"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="106"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -4887,8 +4887,8 @@
       <c r="B112" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="119"/>
-      <c r="D112" s="120"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="106"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
@@ -4897,8 +4897,8 @@
       <c r="B113" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="119"/>
-      <c r="D113" s="120"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="106"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -4907,8 +4907,8 @@
       <c r="B114" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="119"/>
-      <c r="D114" s="120"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="106"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
@@ -4917,8 +4917,8 @@
       <c r="B115" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="119"/>
-      <c r="D115" s="120"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="106"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -4927,8 +4927,8 @@
       <c r="B116" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="119"/>
-      <c r="D116" s="120"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="106"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -4937,8 +4937,8 @@
       <c r="B117" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="119"/>
-      <c r="D117" s="120"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="106"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -4947,8 +4947,8 @@
       <c r="B118" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="119"/>
-      <c r="D118" s="120"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="106"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
@@ -4957,8 +4957,8 @@
       <c r="B119" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="121"/>
-      <c r="D119" s="122"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="111"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -4967,8 +4967,8 @@
       <c r="B120" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="121"/>
-      <c r="D120" s="122"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="111"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
@@ -4977,8 +4977,8 @@
       <c r="B121" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="121"/>
-      <c r="D121" s="122"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="111"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -4987,8 +4987,8 @@
       <c r="B122" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="121"/>
-      <c r="D122" s="122"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="111"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -4997,8 +4997,8 @@
       <c r="B123" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="119"/>
-      <c r="D123" s="120"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="106"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -5007,8 +5007,8 @@
       <c r="B124" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="119"/>
-      <c r="D124" s="120"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="106"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -5017,12 +5017,12 @@
       <c r="B125" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="119"/>
-      <c r="D125" s="120"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="106"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="115" t="s">
+      <c r="B126" s="107" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="125"/>
@@ -5035,8 +5035,8 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="119"/>
-      <c r="D127" s="120"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="106"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
@@ -5045,8 +5045,8 @@
       <c r="B128" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="119"/>
-      <c r="D128" s="120"/>
+      <c r="C128" s="105"/>
+      <c r="D128" s="106"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5055,8 +5055,8 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="119"/>
-      <c r="D129" s="120"/>
+      <c r="C129" s="105"/>
+      <c r="D129" s="106"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
@@ -5065,16 +5065,16 @@
       <c r="B130" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="121"/>
-      <c r="D130" s="122"/>
+      <c r="C130" s="115"/>
+      <c r="D130" s="111"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="115" t="s">
+      <c r="B131" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="116"/>
-      <c r="D131" s="117"/>
+      <c r="C131" s="108"/>
+      <c r="D131" s="109"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -5083,8 +5083,8 @@
       <c r="B132" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="119"/>
-      <c r="D132" s="120"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="106"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
@@ -5093,8 +5093,8 @@
       <c r="B133" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="119"/>
-      <c r="D133" s="120"/>
+      <c r="C133" s="105"/>
+      <c r="D133" s="106"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -5103,8 +5103,8 @@
       <c r="B134" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="121"/>
-      <c r="D134" s="122"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="111"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
@@ -5113,8 +5113,8 @@
       <c r="B135" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="119"/>
-      <c r="D135" s="120"/>
+      <c r="C135" s="105"/>
+      <c r="D135" s="106"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
@@ -5123,8 +5123,8 @@
       <c r="B136" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="119"/>
-      <c r="D136" s="120"/>
+      <c r="C136" s="105"/>
+      <c r="D136" s="106"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
@@ -5133,8 +5133,8 @@
       <c r="B137" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="121"/>
-      <c r="D137" s="122"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="111"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5143,8 +5143,8 @@
       <c r="B138" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="119"/>
-      <c r="D138" s="120"/>
+      <c r="C138" s="105"/>
+      <c r="D138" s="106"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -5153,8 +5153,8 @@
       <c r="B139" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="119"/>
-      <c r="D139" s="120"/>
+      <c r="C139" s="105"/>
+      <c r="D139" s="106"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5163,8 +5163,8 @@
       <c r="B140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="121"/>
-      <c r="D140" s="122"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="111"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -5173,8 +5173,8 @@
       <c r="B141" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="121"/>
-      <c r="D141" s="122"/>
+      <c r="C141" s="115"/>
+      <c r="D141" s="111"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5183,8 +5183,8 @@
       <c r="B142" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="119"/>
-      <c r="D142" s="120"/>
+      <c r="C142" s="105"/>
+      <c r="D142" s="106"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -5193,16 +5193,16 @@
       <c r="B143" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="136"/>
-      <c r="D143" s="122"/>
+      <c r="C143" s="110"/>
+      <c r="D143" s="111"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="115" t="s">
+      <c r="B144" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="116"/>
-      <c r="D144" s="117"/>
+      <c r="C144" s="108"/>
+      <c r="D144" s="109"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5211,16 +5211,16 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="129"/>
-      <c r="D145" s="130"/>
+      <c r="C145" s="123"/>
+      <c r="D145" s="124"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="115" t="s">
+      <c r="B146" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="116"/>
-      <c r="D146" s="117"/>
+      <c r="C146" s="108"/>
+      <c r="D146" s="109"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
@@ -5229,8 +5229,8 @@
       <c r="B147" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="119"/>
-      <c r="D147" s="120"/>
+      <c r="C147" s="105"/>
+      <c r="D147" s="106"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -5239,8 +5239,8 @@
       <c r="B148" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="119"/>
-      <c r="D148" s="120"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="106"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
@@ -5249,16 +5249,16 @@
       <c r="B149" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="119"/>
-      <c r="D149" s="120"/>
+      <c r="C149" s="105"/>
+      <c r="D149" s="106"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="115" t="s">
+      <c r="B150" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="116"/>
-      <c r="D150" s="117"/>
+      <c r="C150" s="108"/>
+      <c r="D150" s="109"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
@@ -5344,11 +5344,11 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="115" t="s">
+      <c r="B159" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="116"/>
-      <c r="D159" s="117"/>
+      <c r="C159" s="108"/>
+      <c r="D159" s="109"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
@@ -5357,8 +5357,8 @@
       <c r="B160" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="127"/>
-      <c r="D160" s="128"/>
+      <c r="C160" s="116"/>
+      <c r="D160" s="117"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
@@ -5367,8 +5367,8 @@
       <c r="B161" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="127"/>
-      <c r="D161" s="128"/>
+      <c r="C161" s="116"/>
+      <c r="D161" s="117"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -5377,8 +5377,8 @@
       <c r="B162" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="127"/>
-      <c r="D162" s="128"/>
+      <c r="C162" s="116"/>
+      <c r="D162" s="117"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
@@ -5387,8 +5387,8 @@
       <c r="B163" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="127"/>
-      <c r="D163" s="128"/>
+      <c r="C163" s="116"/>
+      <c r="D163" s="117"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
@@ -5397,8 +5397,8 @@
       <c r="B164" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="127"/>
-      <c r="D164" s="128"/>
+      <c r="C164" s="116"/>
+      <c r="D164" s="117"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
@@ -5407,8 +5407,8 @@
       <c r="B165" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="127"/>
-      <c r="D165" s="128"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="117"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
@@ -5417,8 +5417,8 @@
       <c r="B166" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="127"/>
-      <c r="D166" s="128"/>
+      <c r="C166" s="116"/>
+      <c r="D166" s="117"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
@@ -5427,8 +5427,8 @@
       <c r="B167" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="127"/>
-      <c r="D167" s="128"/>
+      <c r="C167" s="116"/>
+      <c r="D167" s="117"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
@@ -5514,11 +5514,11 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="115" t="s">
+      <c r="B176" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="116"/>
-      <c r="D176" s="117"/>
+      <c r="C176" s="108"/>
+      <c r="D176" s="109"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
@@ -5527,8 +5527,8 @@
       <c r="B177" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="119"/>
-      <c r="D177" s="120"/>
+      <c r="C177" s="105"/>
+      <c r="D177" s="106"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
@@ -5537,8 +5537,8 @@
       <c r="B178" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="119"/>
-      <c r="D178" s="120"/>
+      <c r="C178" s="105"/>
+      <c r="D178" s="106"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
@@ -5547,16 +5547,16 @@
       <c r="B179" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="121"/>
-      <c r="D179" s="122"/>
+      <c r="C179" s="115"/>
+      <c r="D179" s="111"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="115" t="s">
+      <c r="B180" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="116"/>
-      <c r="D180" s="117"/>
+      <c r="C180" s="108"/>
+      <c r="D180" s="109"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
@@ -5565,8 +5565,8 @@
       <c r="B181" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="127"/>
-      <c r="D181" s="128"/>
+      <c r="C181" s="116"/>
+      <c r="D181" s="117"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
@@ -5575,16 +5575,16 @@
       <c r="B182" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="119"/>
-      <c r="D182" s="120"/>
+      <c r="C182" s="105"/>
+      <c r="D182" s="106"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="115" t="s">
+      <c r="B183" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="116"/>
-      <c r="D183" s="117"/>
+      <c r="C183" s="108"/>
+      <c r="D183" s="109"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -5593,8 +5593,8 @@
       <c r="B184" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="119"/>
-      <c r="D184" s="120"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="106"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
@@ -5603,8 +5603,8 @@
       <c r="B185" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="119"/>
-      <c r="D185" s="120"/>
+      <c r="C185" s="105"/>
+      <c r="D185" s="106"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -5613,8 +5613,8 @@
       <c r="B186" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="119"/>
-      <c r="D186" s="120"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="106"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
@@ -5623,8 +5623,8 @@
       <c r="B187" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="119"/>
-      <c r="D187" s="120"/>
+      <c r="C187" s="105"/>
+      <c r="D187" s="106"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
@@ -5633,8 +5633,8 @@
       <c r="B188" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="137"/>
-      <c r="D188" s="138"/>
+      <c r="C188" s="112"/>
+      <c r="D188" s="113"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
@@ -5643,8 +5643,8 @@
       <c r="B189" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="139"/>
-      <c r="D189" s="120"/>
+      <c r="C189" s="114"/>
+      <c r="D189" s="106"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -5653,8 +5653,8 @@
       <c r="B190" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="121"/>
-      <c r="D190" s="122"/>
+      <c r="C190" s="115"/>
+      <c r="D190" s="111"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
@@ -5663,8 +5663,8 @@
       <c r="B191" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="119"/>
-      <c r="D191" s="120"/>
+      <c r="C191" s="105"/>
+      <c r="D191" s="106"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -5673,8 +5673,8 @@
       <c r="B192" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="119"/>
-      <c r="D192" s="120"/>
+      <c r="C192" s="105"/>
+      <c r="D192" s="106"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
@@ -5683,8 +5683,8 @@
       <c r="B193" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="119"/>
-      <c r="D193" s="120"/>
+      <c r="C193" s="105"/>
+      <c r="D193" s="106"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -5693,8 +5693,8 @@
       <c r="B194" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="119"/>
-      <c r="D194" s="120"/>
+      <c r="C194" s="105"/>
+      <c r="D194" s="106"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -5703,8 +5703,8 @@
       <c r="B195" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="119"/>
-      <c r="D195" s="120"/>
+      <c r="C195" s="105"/>
+      <c r="D195" s="106"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -5713,8 +5713,8 @@
       <c r="B196" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="119"/>
-      <c r="D196" s="120"/>
+      <c r="C196" s="105"/>
+      <c r="D196" s="106"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -5723,8 +5723,8 @@
       <c r="B197" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="119"/>
-      <c r="D197" s="120"/>
+      <c r="C197" s="105"/>
+      <c r="D197" s="106"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -5733,16 +5733,16 @@
       <c r="B198" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="119"/>
-      <c r="D198" s="120"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="106"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="115" t="s">
+      <c r="B199" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="116"/>
-      <c r="D199" s="117"/>
+      <c r="C199" s="108"/>
+      <c r="D199" s="109"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -5751,8 +5751,8 @@
       <c r="B200" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="119"/>
-      <c r="D200" s="120"/>
+      <c r="C200" s="105"/>
+      <c r="D200" s="106"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -5761,8 +5761,8 @@
       <c r="B201" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="119"/>
-      <c r="D201" s="120"/>
+      <c r="C201" s="105"/>
+      <c r="D201" s="106"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
@@ -5771,8 +5771,8 @@
       <c r="B202" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="119"/>
-      <c r="D202" s="120"/>
+      <c r="C202" s="105"/>
+      <c r="D202" s="106"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -5781,8 +5781,8 @@
       <c r="B203" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="133"/>
-      <c r="D203" s="134"/>
+      <c r="C203" s="120"/>
+      <c r="D203" s="121"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
@@ -5791,16 +5791,16 @@
       <c r="B204" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="133"/>
-      <c r="D204" s="134"/>
+      <c r="C204" s="120"/>
+      <c r="D204" s="121"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="115" t="s">
+      <c r="B205" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="116"/>
-      <c r="D205" s="117"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="109"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
@@ -5809,8 +5809,8 @@
       <c r="B206" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="119"/>
-      <c r="D206" s="120"/>
+      <c r="C206" s="105"/>
+      <c r="D206" s="106"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5819,8 +5819,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="135"/>
-      <c r="D207" s="122"/>
+      <c r="C207" s="122"/>
+      <c r="D207" s="111"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5829,8 +5829,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="121"/>
-      <c r="D208" s="122"/>
+      <c r="C208" s="115"/>
+      <c r="D208" s="111"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5839,8 +5839,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="121"/>
-      <c r="D209" s="122"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="111"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5849,8 +5849,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="121"/>
-      <c r="D210" s="122"/>
+      <c r="C210" s="115"/>
+      <c r="D210" s="111"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5859,16 +5859,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="121"/>
-      <c r="D211" s="122"/>
+      <c r="C211" s="115"/>
+      <c r="D211" s="111"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="115" t="s">
+      <c r="B212" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="116"/>
-      <c r="D212" s="117"/>
+      <c r="C212" s="108"/>
+      <c r="D212" s="109"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5877,8 +5877,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="119"/>
-      <c r="D213" s="120"/>
+      <c r="C213" s="105"/>
+      <c r="D213" s="106"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5887,8 +5887,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="119"/>
-      <c r="D214" s="120"/>
+      <c r="C214" s="105"/>
+      <c r="D214" s="106"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5897,8 +5897,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="119"/>
-      <c r="D215" s="120"/>
+      <c r="C215" s="105"/>
+      <c r="D215" s="106"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="28">
@@ -5907,11 +5907,164 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="131"/>
-      <c r="D216" s="132"/>
+      <c r="C216" s="118"/>
+      <c r="D216" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="B199:D199"/>
@@ -5936,159 +6089,6 @@
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6117,30 +6117,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="128"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
@@ -6216,10 +6216,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="128"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6250,10 +6250,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="149"/>
+      <c r="C17" s="150"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6284,10 +6284,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="142"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
@@ -6480,10 +6480,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="53"/>
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="141"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52">
@@ -6550,10 +6550,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53"/>
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="147"/>
+      <c r="C51" s="141"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="52">
@@ -6566,10 +6566,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="128"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -6591,10 +6591,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="53"/>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="147"/>
+      <c r="C56" s="141"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="52">
@@ -6659,16 +6659,16 @@
     <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6698,30 +6698,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="128"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
@@ -6797,10 +6797,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="128"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6831,10 +6831,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="149"/>
+      <c r="C17" s="150"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6865,10 +6865,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="142"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
@@ -7061,10 +7061,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="53"/>
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="141"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52">
@@ -7131,10 +7131,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="124"/>
+      <c r="C51" s="128"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
@@ -7156,10 +7156,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="53"/>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="147"/>
+      <c r="C54" s="141"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="52">
@@ -7247,7 +7247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A175" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A175" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
@@ -7260,30 +7260,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="53"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="53"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="128"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
@@ -7359,10 +7359,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="52"/>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="160"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="52">
@@ -7393,10 +7393,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="128"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7427,10 +7427,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="142"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
@@ -7623,10 +7623,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="53"/>
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="141"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52">
@@ -7693,10 +7693,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53"/>
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="147"/>
+      <c r="C51" s="141"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="52">
@@ -7709,10 +7709,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="128"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -7734,17 +7734,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="58"/>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="147"/>
+      <c r="C56" s="141"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="58"/>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="140" t="s">
         <v>268</v>
       </c>
-      <c r="C57" s="147"/>
+      <c r="C57" s="141"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="58">
@@ -7775,10 +7775,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="58"/>
-      <c r="B61" s="146" t="s">
+      <c r="B61" s="140" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="147"/>
+      <c r="C61" s="141"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="59">
@@ -7863,10 +7863,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="58"/>
-      <c r="B71" s="146" t="s">
+      <c r="B71" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="147"/>
+      <c r="C71" s="141"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="59">
@@ -7906,10 +7906,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="58"/>
-      <c r="B76" s="152" t="s">
+      <c r="B76" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="153"/>
+      <c r="C76" s="156"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="59">
@@ -7976,10 +7976,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="58"/>
-      <c r="B84" s="152" t="s">
+      <c r="B84" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="153"/>
+      <c r="C84" s="156"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="59">
@@ -8001,10 +8001,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="59"/>
-      <c r="B87" s="146" t="s">
+      <c r="B87" s="140" t="s">
         <v>298</v>
       </c>
-      <c r="C87" s="147"/>
+      <c r="C87" s="141"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="59">
@@ -8053,10 +8053,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="58"/>
-      <c r="B93" s="152" t="s">
+      <c r="B93" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="C93" s="153"/>
+      <c r="C93" s="156"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="59">
@@ -8114,10 +8114,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="58"/>
-      <c r="B100" s="152" t="s">
+      <c r="B100" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="C100" s="153"/>
+      <c r="C100" s="156"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="59">
@@ -8157,10 +8157,10 @@
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="59"/>
-      <c r="B105" s="154" t="s">
+      <c r="B105" s="151" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="155"/>
+      <c r="C105" s="159"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="59">
@@ -8191,10 +8191,10 @@
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="58"/>
-      <c r="B109" s="152" t="s">
+      <c r="B109" s="155" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="153"/>
+      <c r="C109" s="156"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="59">
@@ -8252,10 +8252,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="58"/>
-      <c r="B116" s="152" t="s">
+      <c r="B116" s="155" t="s">
         <v>318</v>
       </c>
-      <c r="C116" s="153"/>
+      <c r="C116" s="156"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="59">
@@ -8313,10 +8313,10 @@
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="58"/>
-      <c r="B123" s="152" t="s">
+      <c r="B123" s="155" t="s">
         <v>320</v>
       </c>
-      <c r="C123" s="153"/>
+      <c r="C123" s="156"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="59">
@@ -8374,10 +8374,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="58"/>
-      <c r="B130" s="152" t="s">
+      <c r="B130" s="155" t="s">
         <v>321</v>
       </c>
-      <c r="C130" s="153"/>
+      <c r="C130" s="156"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="59">
@@ -8435,10 +8435,10 @@
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="58"/>
-      <c r="B137" s="152" t="s">
+      <c r="B137" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="153"/>
+      <c r="C137" s="156"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="59">
@@ -8496,10 +8496,10 @@
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="59"/>
-      <c r="B144" s="154" t="s">
+      <c r="B144" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="156"/>
+      <c r="C144" s="152"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="59">
@@ -8557,10 +8557,10 @@
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="59"/>
-      <c r="B151" s="157" t="s">
+      <c r="B151" s="153" t="s">
         <v>329</v>
       </c>
-      <c r="C151" s="158"/>
+      <c r="C151" s="154"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="59">
@@ -8618,10 +8618,10 @@
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="58"/>
-      <c r="B158" s="152" t="s">
+      <c r="B158" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="153"/>
+      <c r="C158" s="156"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="59">
@@ -8652,10 +8652,10 @@
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="58"/>
-      <c r="B162" s="152" t="s">
+      <c r="B162" s="155" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="153"/>
+      <c r="C162" s="156"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="59">
@@ -8686,10 +8686,10 @@
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="58"/>
-      <c r="B166" s="152" t="s">
+      <c r="B166" s="155" t="s">
         <v>344</v>
       </c>
-      <c r="C166" s="153"/>
+      <c r="C166" s="156"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="59">
@@ -8810,10 +8810,10 @@
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="59"/>
-      <c r="B180" s="154" t="s">
+      <c r="B180" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="C180" s="156"/>
+      <c r="C180" s="152"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="59">
@@ -8907,10 +8907,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="60"/>
-      <c r="B191" s="159" t="s">
+      <c r="B191" s="157" t="s">
         <v>369</v>
       </c>
-      <c r="C191" s="160"/>
+      <c r="C191" s="158"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="59">
@@ -8950,10 +8950,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="53"/>
-      <c r="B196" s="146" t="s">
+      <c r="B196" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="C196" s="147"/>
+      <c r="C196" s="141"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="52">
@@ -9011,14 +9011,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B76:C76"/>
@@ -9031,18 +9035,14 @@
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B191:C191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/spg_design_basis_template.xlsx
+++ b/thermax_backend/templates/spg_design_basis_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8934C2-0C70-4CC1-8F01-EEA4FFF98628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A9B6A-C3BB-4525-B85D-C257D6EA5343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -1978,6 +1978,57 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2014,56 +2065,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2071,21 +2113,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2095,79 +2170,22 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2176,36 +2194,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2215,23 +2227,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2727,8 +2727,8 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3376,50 +3376,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
@@ -3433,78 +3433,78 @@
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3768,12 +3768,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3784,6 +3778,12 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3795,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A175" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3809,26 +3809,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="137"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3837,8 +3837,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3847,8 +3847,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3857,8 +3857,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3867,8 +3867,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3877,8 +3877,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3887,8 +3887,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3897,8 +3897,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3907,8 +3907,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3917,8 +3917,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3927,8 +3927,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3937,8 +3937,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="106"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3947,8 +3947,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="106"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3957,8 +3957,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="106"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3967,8 +3967,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="130"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="106"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -3977,16 +3977,16 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -3995,8 +3995,8 @@
       <c r="B20" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -4005,8 +4005,8 @@
       <c r="B21" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="132"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -4015,8 +4015,8 @@
       <c r="B22" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -4025,8 +4025,8 @@
       <c r="B23" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -4035,16 +4035,16 @@
       <c r="B24" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29"/>
@@ -4270,19 +4270,19 @@
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="109"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="109"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -4291,8 +4291,8 @@
       <c r="B50" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="120"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -4301,8 +4301,8 @@
       <c r="B51" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="120"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -4311,8 +4311,8 @@
       <c r="B52" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="106"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="120"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -4321,8 +4321,8 @@
       <c r="B53" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="105"/>
-      <c r="D53" s="106"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="120"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -4331,8 +4331,8 @@
       <c r="B54" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="106"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="120"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -4341,8 +4341,8 @@
       <c r="B55" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="106"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="120"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -4351,24 +4351,24 @@
       <c r="B56" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="106"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="120"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="109"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="117"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="108"/>
-      <c r="D58" s="109"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="117"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -4377,16 +4377,16 @@
       <c r="B59" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="106"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="120"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="117"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4395,8 +4395,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="115"/>
-      <c r="D61" s="111"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="122"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4405,8 +4405,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="111"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="122"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4415,8 +4415,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="115"/>
-      <c r="D63" s="111"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="122"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4425,8 +4425,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="115"/>
-      <c r="D64" s="111"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="122"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4435,8 +4435,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="111"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="122"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4445,16 +4445,16 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="111"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="122"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="109"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="117"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
@@ -4463,16 +4463,16 @@
       <c r="B68" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="106"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="120"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="108"/>
-      <c r="D69" s="109"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="117"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -4481,8 +4481,8 @@
       <c r="B70" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="105"/>
-      <c r="D70" s="106"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="120"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -4491,8 +4491,8 @@
       <c r="B71" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="105"/>
-      <c r="D71" s="106"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="120"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -4501,8 +4501,8 @@
       <c r="B72" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="105"/>
-      <c r="D72" s="106"/>
+      <c r="C72" s="119"/>
+      <c r="D72" s="120"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
@@ -4511,8 +4511,8 @@
       <c r="B73" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="106"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="120"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -4521,16 +4521,16 @@
       <c r="B74" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="106"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="120"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="127"/>
-      <c r="D75" s="128"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="124"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -4539,8 +4539,8 @@
       <c r="B76" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="120"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -4549,8 +4549,8 @@
       <c r="B77" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="120"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -4559,8 +4559,8 @@
       <c r="B78" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="105"/>
-      <c r="D78" s="106"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="120"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -4569,8 +4569,8 @@
       <c r="B79" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="105"/>
-      <c r="D79" s="106"/>
+      <c r="C79" s="119"/>
+      <c r="D79" s="120"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -4579,16 +4579,16 @@
       <c r="B80" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="105"/>
-      <c r="D80" s="106"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="120"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="127" t="s">
+      <c r="B81" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="127"/>
-      <c r="D81" s="128"/>
+      <c r="C81" s="123"/>
+      <c r="D81" s="124"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -4597,8 +4597,8 @@
       <c r="B82" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="105"/>
-      <c r="D82" s="106"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="120"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
@@ -4607,8 +4607,8 @@
       <c r="B83" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="105"/>
-      <c r="D83" s="106"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="120"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -4617,8 +4617,8 @@
       <c r="B84" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="105"/>
-      <c r="D84" s="106"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="120"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
@@ -4627,8 +4627,8 @@
       <c r="B85" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="105"/>
-      <c r="D85" s="106"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="120"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -4637,8 +4637,8 @@
       <c r="B86" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="105"/>
-      <c r="D86" s="106"/>
+      <c r="C86" s="119"/>
+      <c r="D86" s="120"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4647,8 +4647,8 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="105"/>
-      <c r="D87" s="106"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="120"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -4657,8 +4657,8 @@
       <c r="B88" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="105"/>
-      <c r="D88" s="106"/>
+      <c r="C88" s="119"/>
+      <c r="D88" s="120"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -4667,16 +4667,16 @@
       <c r="B89" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="105"/>
-      <c r="D89" s="106"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="120"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="107" t="s">
+      <c r="B90" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="108"/>
-      <c r="D90" s="109"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="117"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -4685,8 +4685,8 @@
       <c r="B91" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="105"/>
-      <c r="D91" s="106"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="120"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -4695,8 +4695,8 @@
       <c r="B92" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="105"/>
-      <c r="D92" s="106"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="120"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
@@ -4705,8 +4705,8 @@
       <c r="B93" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="105"/>
-      <c r="D93" s="106"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="120"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -4715,16 +4715,16 @@
       <c r="B94" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="105"/>
-      <c r="D94" s="106"/>
+      <c r="C94" s="119"/>
+      <c r="D94" s="120"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="108"/>
-      <c r="D95" s="109"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="117"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -4733,8 +4733,8 @@
       <c r="B96" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="105"/>
-      <c r="D96" s="106"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="120"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
@@ -4743,8 +4743,8 @@
       <c r="B97" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="115"/>
-      <c r="D97" s="111"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="122"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4753,8 +4753,8 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="106"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="120"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
@@ -4763,8 +4763,8 @@
       <c r="B99" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="105"/>
-      <c r="D99" s="106"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="120"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -4773,16 +4773,16 @@
       <c r="B100" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="105"/>
-      <c r="D100" s="106"/>
+      <c r="C100" s="119"/>
+      <c r="D100" s="120"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="108"/>
-      <c r="D101" s="109"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="117"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -4791,8 +4791,8 @@
       <c r="B102" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="111"/>
+      <c r="C102" s="121"/>
+      <c r="D102" s="122"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
@@ -4801,8 +4801,8 @@
       <c r="B103" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="115"/>
-      <c r="D103" s="111"/>
+      <c r="C103" s="121"/>
+      <c r="D103" s="122"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -4811,8 +4811,8 @@
       <c r="B104" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="115"/>
-      <c r="D104" s="111"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="122"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -4821,16 +4821,16 @@
       <c r="B105" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="115"/>
-      <c r="D105" s="111"/>
+      <c r="C105" s="121"/>
+      <c r="D105" s="122"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="107" t="s">
+      <c r="B106" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="108"/>
-      <c r="D106" s="109"/>
+      <c r="C106" s="116"/>
+      <c r="D106" s="117"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -4839,16 +4839,16 @@
       <c r="B107" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="105"/>
-      <c r="D107" s="106"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="120"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="108"/>
-      <c r="D108" s="109"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="117"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
@@ -4857,8 +4857,8 @@
       <c r="B109" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="105"/>
-      <c r="D109" s="106"/>
+      <c r="C109" s="119"/>
+      <c r="D109" s="120"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -4867,8 +4867,8 @@
       <c r="B110" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="105"/>
-      <c r="D110" s="106"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="120"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -4877,8 +4877,8 @@
       <c r="B111" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="105"/>
-      <c r="D111" s="106"/>
+      <c r="C111" s="119"/>
+      <c r="D111" s="120"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -4887,8 +4887,8 @@
       <c r="B112" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="105"/>
-      <c r="D112" s="106"/>
+      <c r="C112" s="119"/>
+      <c r="D112" s="120"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
@@ -4897,8 +4897,8 @@
       <c r="B113" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="105"/>
-      <c r="D113" s="106"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="120"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -4907,8 +4907,8 @@
       <c r="B114" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="105"/>
-      <c r="D114" s="106"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="120"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
@@ -4917,8 +4917,8 @@
       <c r="B115" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="105"/>
-      <c r="D115" s="106"/>
+      <c r="C115" s="119"/>
+      <c r="D115" s="120"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -4927,8 +4927,8 @@
       <c r="B116" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="105"/>
-      <c r="D116" s="106"/>
+      <c r="C116" s="119"/>
+      <c r="D116" s="120"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -4937,8 +4937,8 @@
       <c r="B117" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="105"/>
-      <c r="D117" s="106"/>
+      <c r="C117" s="119"/>
+      <c r="D117" s="120"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -4947,8 +4947,8 @@
       <c r="B118" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="106"/>
+      <c r="C118" s="119"/>
+      <c r="D118" s="120"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
@@ -4957,8 +4957,8 @@
       <c r="B119" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="115"/>
-      <c r="D119" s="111"/>
+      <c r="C119" s="121"/>
+      <c r="D119" s="122"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -4967,8 +4967,8 @@
       <c r="B120" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="115"/>
-      <c r="D120" s="111"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="122"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
@@ -4977,8 +4977,8 @@
       <c r="B121" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="115"/>
-      <c r="D121" s="111"/>
+      <c r="C121" s="121"/>
+      <c r="D121" s="122"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -4987,8 +4987,8 @@
       <c r="B122" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="115"/>
-      <c r="D122" s="111"/>
+      <c r="C122" s="121"/>
+      <c r="D122" s="122"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -4997,8 +4997,8 @@
       <c r="B123" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="105"/>
-      <c r="D123" s="106"/>
+      <c r="C123" s="119"/>
+      <c r="D123" s="120"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -5007,8 +5007,8 @@
       <c r="B124" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="105"/>
-      <c r="D124" s="106"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="120"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -5017,12 +5017,12 @@
       <c r="B125" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="105"/>
-      <c r="D125" s="106"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="120"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="107" t="s">
+      <c r="B126" s="115" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="125"/>
@@ -5035,8 +5035,8 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="105"/>
-      <c r="D127" s="106"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="120"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
@@ -5045,8 +5045,8 @@
       <c r="B128" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="105"/>
-      <c r="D128" s="106"/>
+      <c r="C128" s="119"/>
+      <c r="D128" s="120"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5055,8 +5055,8 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="105"/>
-      <c r="D129" s="106"/>
+      <c r="C129" s="119"/>
+      <c r="D129" s="120"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
@@ -5065,16 +5065,16 @@
       <c r="B130" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="115"/>
-      <c r="D130" s="111"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="122"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="107" t="s">
+      <c r="B131" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="108"/>
-      <c r="D131" s="109"/>
+      <c r="C131" s="116"/>
+      <c r="D131" s="117"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -5083,8 +5083,8 @@
       <c r="B132" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="105"/>
-      <c r="D132" s="106"/>
+      <c r="C132" s="119"/>
+      <c r="D132" s="120"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
@@ -5093,8 +5093,8 @@
       <c r="B133" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="105"/>
-      <c r="D133" s="106"/>
+      <c r="C133" s="119"/>
+      <c r="D133" s="120"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -5103,8 +5103,8 @@
       <c r="B134" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="115"/>
-      <c r="D134" s="111"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="122"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
@@ -5113,8 +5113,8 @@
       <c r="B135" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="105"/>
-      <c r="D135" s="106"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="120"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
@@ -5123,8 +5123,8 @@
       <c r="B136" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="105"/>
-      <c r="D136" s="106"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="120"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
@@ -5133,8 +5133,8 @@
       <c r="B137" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="115"/>
-      <c r="D137" s="111"/>
+      <c r="C137" s="121"/>
+      <c r="D137" s="122"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5143,8 +5143,8 @@
       <c r="B138" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="105"/>
-      <c r="D138" s="106"/>
+      <c r="C138" s="119"/>
+      <c r="D138" s="120"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -5153,8 +5153,8 @@
       <c r="B139" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="105"/>
-      <c r="D139" s="106"/>
+      <c r="C139" s="119"/>
+      <c r="D139" s="120"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5163,8 +5163,8 @@
       <c r="B140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="115"/>
-      <c r="D140" s="111"/>
+      <c r="C140" s="121"/>
+      <c r="D140" s="122"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -5173,8 +5173,8 @@
       <c r="B141" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="115"/>
-      <c r="D141" s="111"/>
+      <c r="C141" s="121"/>
+      <c r="D141" s="122"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5183,8 +5183,8 @@
       <c r="B142" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="105"/>
-      <c r="D142" s="106"/>
+      <c r="C142" s="119"/>
+      <c r="D142" s="120"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -5193,16 +5193,16 @@
       <c r="B143" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="110"/>
-      <c r="D143" s="111"/>
+      <c r="C143" s="136"/>
+      <c r="D143" s="122"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="107" t="s">
+      <c r="B144" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="108"/>
-      <c r="D144" s="109"/>
+      <c r="C144" s="116"/>
+      <c r="D144" s="117"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5211,16 +5211,16 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="123"/>
-      <c r="D145" s="124"/>
+      <c r="C145" s="129"/>
+      <c r="D145" s="130"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="107" t="s">
+      <c r="B146" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="108"/>
-      <c r="D146" s="109"/>
+      <c r="C146" s="116"/>
+      <c r="D146" s="117"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
@@ -5229,8 +5229,8 @@
       <c r="B147" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="105"/>
-      <c r="D147" s="106"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="120"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -5239,8 +5239,8 @@
       <c r="B148" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="105"/>
-      <c r="D148" s="106"/>
+      <c r="C148" s="119"/>
+      <c r="D148" s="120"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
@@ -5249,16 +5249,16 @@
       <c r="B149" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="105"/>
-      <c r="D149" s="106"/>
+      <c r="C149" s="119"/>
+      <c r="D149" s="120"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="107" t="s">
+      <c r="B150" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="108"/>
-      <c r="D150" s="109"/>
+      <c r="C150" s="116"/>
+      <c r="D150" s="117"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
@@ -5344,11 +5344,11 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="107" t="s">
+      <c r="B159" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="108"/>
-      <c r="D159" s="109"/>
+      <c r="C159" s="116"/>
+      <c r="D159" s="117"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
@@ -5357,8 +5357,8 @@
       <c r="B160" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="116"/>
-      <c r="D160" s="117"/>
+      <c r="C160" s="127"/>
+      <c r="D160" s="128"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
@@ -5367,8 +5367,8 @@
       <c r="B161" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="116"/>
-      <c r="D161" s="117"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="128"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -5377,8 +5377,8 @@
       <c r="B162" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="116"/>
-      <c r="D162" s="117"/>
+      <c r="C162" s="127"/>
+      <c r="D162" s="128"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
@@ -5387,8 +5387,8 @@
       <c r="B163" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="116"/>
-      <c r="D163" s="117"/>
+      <c r="C163" s="127"/>
+      <c r="D163" s="128"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
@@ -5397,8 +5397,8 @@
       <c r="B164" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="116"/>
-      <c r="D164" s="117"/>
+      <c r="C164" s="127"/>
+      <c r="D164" s="128"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
@@ -5407,8 +5407,8 @@
       <c r="B165" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="116"/>
-      <c r="D165" s="117"/>
+      <c r="C165" s="127"/>
+      <c r="D165" s="128"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
@@ -5417,8 +5417,8 @@
       <c r="B166" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="116"/>
-      <c r="D166" s="117"/>
+      <c r="C166" s="127"/>
+      <c r="D166" s="128"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
@@ -5427,8 +5427,8 @@
       <c r="B167" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="116"/>
-      <c r="D167" s="117"/>
+      <c r="C167" s="127"/>
+      <c r="D167" s="128"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
@@ -5514,11 +5514,11 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="107" t="s">
+      <c r="B176" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="108"/>
-      <c r="D176" s="109"/>
+      <c r="C176" s="116"/>
+      <c r="D176" s="117"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
@@ -5527,8 +5527,8 @@
       <c r="B177" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="105"/>
-      <c r="D177" s="106"/>
+      <c r="C177" s="119"/>
+      <c r="D177" s="120"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
@@ -5537,8 +5537,8 @@
       <c r="B178" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="105"/>
-      <c r="D178" s="106"/>
+      <c r="C178" s="119"/>
+      <c r="D178" s="120"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
@@ -5547,16 +5547,16 @@
       <c r="B179" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="115"/>
-      <c r="D179" s="111"/>
+      <c r="C179" s="121"/>
+      <c r="D179" s="122"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="107" t="s">
+      <c r="B180" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="108"/>
-      <c r="D180" s="109"/>
+      <c r="C180" s="116"/>
+      <c r="D180" s="117"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
@@ -5565,8 +5565,8 @@
       <c r="B181" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="116"/>
-      <c r="D181" s="117"/>
+      <c r="C181" s="127"/>
+      <c r="D181" s="128"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
@@ -5575,16 +5575,16 @@
       <c r="B182" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="105"/>
-      <c r="D182" s="106"/>
+      <c r="C182" s="119"/>
+      <c r="D182" s="120"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="107" t="s">
+      <c r="B183" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="108"/>
-      <c r="D183" s="109"/>
+      <c r="C183" s="116"/>
+      <c r="D183" s="117"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -5593,8 +5593,8 @@
       <c r="B184" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="105"/>
-      <c r="D184" s="106"/>
+      <c r="C184" s="119"/>
+      <c r="D184" s="120"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
@@ -5603,8 +5603,8 @@
       <c r="B185" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="105"/>
-      <c r="D185" s="106"/>
+      <c r="C185" s="119"/>
+      <c r="D185" s="120"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -5613,8 +5613,8 @@
       <c r="B186" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="105"/>
-      <c r="D186" s="106"/>
+      <c r="C186" s="119"/>
+      <c r="D186" s="120"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
@@ -5623,8 +5623,8 @@
       <c r="B187" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="105"/>
-      <c r="D187" s="106"/>
+      <c r="C187" s="119"/>
+      <c r="D187" s="120"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
@@ -5633,8 +5633,8 @@
       <c r="B188" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="112"/>
-      <c r="D188" s="113"/>
+      <c r="C188" s="137"/>
+      <c r="D188" s="138"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
@@ -5643,8 +5643,8 @@
       <c r="B189" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="114"/>
-      <c r="D189" s="106"/>
+      <c r="C189" s="139"/>
+      <c r="D189" s="120"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -5653,8 +5653,8 @@
       <c r="B190" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="115"/>
-      <c r="D190" s="111"/>
+      <c r="C190" s="121"/>
+      <c r="D190" s="122"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
@@ -5663,8 +5663,8 @@
       <c r="B191" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="105"/>
-      <c r="D191" s="106"/>
+      <c r="C191" s="119"/>
+      <c r="D191" s="120"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -5673,8 +5673,8 @@
       <c r="B192" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="105"/>
-      <c r="D192" s="106"/>
+      <c r="C192" s="119"/>
+      <c r="D192" s="120"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
@@ -5683,8 +5683,8 @@
       <c r="B193" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="105"/>
-      <c r="D193" s="106"/>
+      <c r="C193" s="119"/>
+      <c r="D193" s="120"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -5693,8 +5693,8 @@
       <c r="B194" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="105"/>
-      <c r="D194" s="106"/>
+      <c r="C194" s="119"/>
+      <c r="D194" s="120"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -5703,8 +5703,8 @@
       <c r="B195" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="105"/>
-      <c r="D195" s="106"/>
+      <c r="C195" s="119"/>
+      <c r="D195" s="120"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -5713,8 +5713,8 @@
       <c r="B196" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="105"/>
-      <c r="D196" s="106"/>
+      <c r="C196" s="119"/>
+      <c r="D196" s="120"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -5723,8 +5723,8 @@
       <c r="B197" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="105"/>
-      <c r="D197" s="106"/>
+      <c r="C197" s="119"/>
+      <c r="D197" s="120"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -5733,16 +5733,16 @@
       <c r="B198" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="105"/>
-      <c r="D198" s="106"/>
+      <c r="C198" s="119"/>
+      <c r="D198" s="120"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="107" t="s">
+      <c r="B199" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="108"/>
-      <c r="D199" s="109"/>
+      <c r="C199" s="116"/>
+      <c r="D199" s="117"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -5751,8 +5751,8 @@
       <c r="B200" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="105"/>
-      <c r="D200" s="106"/>
+      <c r="C200" s="119"/>
+      <c r="D200" s="120"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -5761,8 +5761,8 @@
       <c r="B201" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="105"/>
-      <c r="D201" s="106"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="120"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
@@ -5771,8 +5771,8 @@
       <c r="B202" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="105"/>
-      <c r="D202" s="106"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="120"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -5781,8 +5781,8 @@
       <c r="B203" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="120"/>
-      <c r="D203" s="121"/>
+      <c r="C203" s="133"/>
+      <c r="D203" s="134"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
@@ -5791,16 +5791,16 @@
       <c r="B204" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="120"/>
-      <c r="D204" s="121"/>
+      <c r="C204" s="133"/>
+      <c r="D204" s="134"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="107" t="s">
+      <c r="B205" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="108"/>
-      <c r="D205" s="109"/>
+      <c r="C205" s="116"/>
+      <c r="D205" s="117"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
@@ -5809,8 +5809,8 @@
       <c r="B206" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="105"/>
-      <c r="D206" s="106"/>
+      <c r="C206" s="119"/>
+      <c r="D206" s="120"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5819,8 +5819,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="122"/>
-      <c r="D207" s="111"/>
+      <c r="C207" s="135"/>
+      <c r="D207" s="122"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5829,8 +5829,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="115"/>
-      <c r="D208" s="111"/>
+      <c r="C208" s="121"/>
+      <c r="D208" s="122"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5839,8 +5839,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="115"/>
-      <c r="D209" s="111"/>
+      <c r="C209" s="121"/>
+      <c r="D209" s="122"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5849,8 +5849,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="115"/>
-      <c r="D210" s="111"/>
+      <c r="C210" s="121"/>
+      <c r="D210" s="122"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5859,16 +5859,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="115"/>
-      <c r="D211" s="111"/>
+      <c r="C211" s="121"/>
+      <c r="D211" s="122"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="107" t="s">
+      <c r="B212" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="108"/>
-      <c r="D212" s="109"/>
+      <c r="C212" s="116"/>
+      <c r="D212" s="117"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5877,8 +5877,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="105"/>
-      <c r="D213" s="106"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="120"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5887,8 +5887,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="105"/>
-      <c r="D214" s="106"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="120"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5897,8 +5897,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="105"/>
-      <c r="D215" s="106"/>
+      <c r="C215" s="119"/>
+      <c r="D215" s="120"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="28">
@@ -5907,35 +5907,140 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="118"/>
-      <c r="D216" s="119"/>
+      <c r="C216" s="131"/>
+      <c r="D216" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5960,135 +6065,30 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6117,30 +6117,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="141"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="124"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
@@ -6216,10 +6216,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="124"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6250,10 +6250,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="150"/>
+      <c r="C17" s="149"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6284,10 +6284,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="150"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
@@ -6480,10 +6480,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="53"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="141"/>
+      <c r="C43" s="147"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52">
@@ -6550,10 +6550,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53"/>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="141"/>
+      <c r="C51" s="147"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="52">
@@ -6566,10 +6566,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="128"/>
+      <c r="C53" s="124"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -6591,10 +6591,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="53"/>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="146" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="141"/>
+      <c r="C56" s="147"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="52">
@@ -6659,16 +6659,16 @@
     <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6698,30 +6698,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="141"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="124"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
@@ -6797,10 +6797,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="124"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6831,10 +6831,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="150"/>
+      <c r="C17" s="149"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6865,10 +6865,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="150"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
@@ -7061,10 +7061,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="53"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="141"/>
+      <c r="C43" s="147"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52">
@@ -7131,10 +7131,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="127" t="s">
+      <c r="B51" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="128"/>
+      <c r="C51" s="124"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
@@ -7156,10 +7156,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="53"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="146" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="141"/>
+      <c r="C54" s="147"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="52">
@@ -7247,8 +7247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A175" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="1" sqref="H192 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7260,30 +7260,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="53"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="141"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="53"/>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="124"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
@@ -7359,10 +7359,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="52"/>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="160"/>
+      <c r="C13" s="151"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="52">
@@ -7393,10 +7393,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="124"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7427,10 +7427,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="150"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
@@ -7623,10 +7623,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="53"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="141"/>
+      <c r="C43" s="147"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52">
@@ -7693,10 +7693,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="53"/>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="141"/>
+      <c r="C51" s="147"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="52">
@@ -7709,10 +7709,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="128"/>
+      <c r="C53" s="124"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -7734,17 +7734,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="58"/>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="141"/>
+      <c r="C56" s="147"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="58"/>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="146" t="s">
         <v>268</v>
       </c>
-      <c r="C57" s="141"/>
+      <c r="C57" s="147"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="58">
@@ -7775,10 +7775,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="58"/>
-      <c r="B61" s="140" t="s">
+      <c r="B61" s="146" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="141"/>
+      <c r="C61" s="147"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="59">
@@ -7863,10 +7863,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="58"/>
-      <c r="B71" s="140" t="s">
+      <c r="B71" s="146" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="141"/>
+      <c r="C71" s="147"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="59">
@@ -7906,10 +7906,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="58"/>
-      <c r="B76" s="155" t="s">
+      <c r="B76" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="156"/>
+      <c r="C76" s="153"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="59">
@@ -7976,10 +7976,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="58"/>
-      <c r="B84" s="155" t="s">
+      <c r="B84" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="156"/>
+      <c r="C84" s="153"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="59">
@@ -8001,10 +8001,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="59"/>
-      <c r="B87" s="140" t="s">
+      <c r="B87" s="146" t="s">
         <v>298</v>
       </c>
-      <c r="C87" s="141"/>
+      <c r="C87" s="147"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="59">
@@ -8053,10 +8053,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="58"/>
-      <c r="B93" s="155" t="s">
+      <c r="B93" s="152" t="s">
         <v>304</v>
       </c>
-      <c r="C93" s="156"/>
+      <c r="C93" s="153"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="59">
@@ -8114,10 +8114,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="58"/>
-      <c r="B100" s="155" t="s">
+      <c r="B100" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="C100" s="156"/>
+      <c r="C100" s="153"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="59">
@@ -8157,10 +8157,10 @@
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="59"/>
-      <c r="B105" s="151" t="s">
+      <c r="B105" s="154" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="159"/>
+      <c r="C105" s="155"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="59">
@@ -8191,10 +8191,10 @@
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="58"/>
-      <c r="B109" s="155" t="s">
+      <c r="B109" s="152" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="156"/>
+      <c r="C109" s="153"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="59">
@@ -8252,10 +8252,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="58"/>
-      <c r="B116" s="155" t="s">
+      <c r="B116" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="C116" s="156"/>
+      <c r="C116" s="153"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="59">
@@ -8313,10 +8313,10 @@
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="58"/>
-      <c r="B123" s="155" t="s">
+      <c r="B123" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="C123" s="156"/>
+      <c r="C123" s="153"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="59">
@@ -8374,10 +8374,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="58"/>
-      <c r="B130" s="155" t="s">
+      <c r="B130" s="152" t="s">
         <v>321</v>
       </c>
-      <c r="C130" s="156"/>
+      <c r="C130" s="153"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="59">
@@ -8435,10 +8435,10 @@
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="58"/>
-      <c r="B137" s="155" t="s">
+      <c r="B137" s="152" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="156"/>
+      <c r="C137" s="153"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="59">
@@ -8496,10 +8496,10 @@
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="59"/>
-      <c r="B144" s="151" t="s">
+      <c r="B144" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="152"/>
+      <c r="C144" s="156"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="59">
@@ -8557,10 +8557,10 @@
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="59"/>
-      <c r="B151" s="153" t="s">
+      <c r="B151" s="157" t="s">
         <v>329</v>
       </c>
-      <c r="C151" s="154"/>
+      <c r="C151" s="158"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="59">
@@ -8618,10 +8618,10 @@
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="58"/>
-      <c r="B158" s="155" t="s">
+      <c r="B158" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="156"/>
+      <c r="C158" s="153"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="59">
@@ -8652,10 +8652,10 @@
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="58"/>
-      <c r="B162" s="155" t="s">
+      <c r="B162" s="152" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="156"/>
+      <c r="C162" s="153"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="59">
@@ -8686,10 +8686,10 @@
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="58"/>
-      <c r="B166" s="155" t="s">
+      <c r="B166" s="152" t="s">
         <v>344</v>
       </c>
-      <c r="C166" s="156"/>
+      <c r="C166" s="153"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="59">
@@ -8810,10 +8810,10 @@
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="59"/>
-      <c r="B180" s="151" t="s">
+      <c r="B180" s="154" t="s">
         <v>358</v>
       </c>
-      <c r="C180" s="152"/>
+      <c r="C180" s="156"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="59">
@@ -8907,10 +8907,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="60"/>
-      <c r="B191" s="157" t="s">
+      <c r="B191" s="159" t="s">
         <v>369</v>
       </c>
-      <c r="C191" s="158"/>
+      <c r="C191" s="160"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="59">
@@ -8950,10 +8950,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="53"/>
-      <c r="B196" s="140" t="s">
+      <c r="B196" s="146" t="s">
         <v>259</v>
       </c>
-      <c r="C196" s="141"/>
+      <c r="C196" s="147"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="52">
@@ -9011,6 +9011,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -9023,26 +9043,6 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B191:C191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/spg_design_basis_template.xlsx
+++ b/thermax_backend/templates/spg_design_basis_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A9B6A-C3BB-4525-B85D-C257D6EA5343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDA5272-00D9-4AD1-AB12-3E03E72F3715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -819,9 +819,6 @@
     <t>Two Year Operational spare</t>
   </si>
   <si>
-    <t>Name Plate Details for SPG</t>
-  </si>
-  <si>
     <t>Unit Name</t>
   </si>
   <si>
@@ -1167,6 +1164,9 @@
   </si>
   <si>
     <t xml:space="preserve">Project Specific Notes </t>
+  </si>
+  <si>
+    <t>Name Plate Details</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1769,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1834,9 +1834,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1923,9 +1920,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,9 +1937,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1978,6 +1969,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2029,41 +2056,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2077,6 +2140,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,80 +2161,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2188,50 +2188,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2257,13 +2251,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:colOff>1321707</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:colOff>2998107</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1343025</xdr:rowOff>
     </xdr:to>
@@ -2295,7 +2289,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3333750" y="180975"/>
+          <a:off x="3671207" y="180975"/>
           <a:ext cx="1676400" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2727,1047 +2721,1053 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="53" style="30" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="4.26953125" style="30" customWidth="1"/>
-    <col min="9" max="31" width="9.1796875" style="30" bestFit="1"/>
-    <col min="32" max="82" width="9" style="30" hidden="1" customWidth="1"/>
-    <col min="83" max="256" width="9.1796875" style="30"/>
-    <col min="257" max="257" width="4" style="30" customWidth="1"/>
-    <col min="258" max="258" width="14.453125" style="30" customWidth="1"/>
-    <col min="259" max="259" width="15.1796875" style="30" customWidth="1"/>
-    <col min="260" max="260" width="53" style="30" customWidth="1"/>
-    <col min="261" max="262" width="13.1796875" style="30" customWidth="1"/>
-    <col min="263" max="263" width="11.1796875" style="30" customWidth="1"/>
-    <col min="264" max="264" width="4.26953125" style="30" customWidth="1"/>
-    <col min="265" max="287" width="9.1796875" style="30" bestFit="1"/>
-    <col min="288" max="338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="339" max="512" width="9.1796875" style="30"/>
-    <col min="513" max="513" width="4" style="30" customWidth="1"/>
-    <col min="514" max="514" width="14.453125" style="30" customWidth="1"/>
-    <col min="515" max="515" width="15.1796875" style="30" customWidth="1"/>
-    <col min="516" max="516" width="53" style="30" customWidth="1"/>
-    <col min="517" max="518" width="13.1796875" style="30" customWidth="1"/>
-    <col min="519" max="519" width="11.1796875" style="30" customWidth="1"/>
-    <col min="520" max="520" width="4.26953125" style="30" customWidth="1"/>
-    <col min="521" max="543" width="9.1796875" style="30" bestFit="1"/>
-    <col min="544" max="594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="595" max="768" width="9.1796875" style="30"/>
-    <col min="769" max="769" width="4" style="30" customWidth="1"/>
-    <col min="770" max="770" width="14.453125" style="30" customWidth="1"/>
-    <col min="771" max="771" width="15.1796875" style="30" customWidth="1"/>
-    <col min="772" max="772" width="53" style="30" customWidth="1"/>
-    <col min="773" max="774" width="13.1796875" style="30" customWidth="1"/>
-    <col min="775" max="775" width="11.1796875" style="30" customWidth="1"/>
-    <col min="776" max="776" width="4.26953125" style="30" customWidth="1"/>
-    <col min="777" max="799" width="9.1796875" style="30" bestFit="1"/>
-    <col min="800" max="850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="851" max="1024" width="9.1796875" style="30"/>
-    <col min="1025" max="1025" width="4" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="14.453125" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="15.1796875" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="53" style="30" customWidth="1"/>
-    <col min="1029" max="1030" width="13.1796875" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="11.1796875" style="30" customWidth="1"/>
-    <col min="1032" max="1032" width="4.26953125" style="30" customWidth="1"/>
-    <col min="1033" max="1055" width="9.1796875" style="30" bestFit="1"/>
-    <col min="1056" max="1106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1107" max="1280" width="9.1796875" style="30"/>
-    <col min="1281" max="1281" width="4" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="14.453125" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="15.1796875" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="53" style="30" customWidth="1"/>
-    <col min="1285" max="1286" width="13.1796875" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="11.1796875" style="30" customWidth="1"/>
-    <col min="1288" max="1288" width="4.26953125" style="30" customWidth="1"/>
-    <col min="1289" max="1311" width="9.1796875" style="30" bestFit="1"/>
-    <col min="1312" max="1362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1363" max="1536" width="9.1796875" style="30"/>
-    <col min="1537" max="1537" width="4" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="14.453125" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="15.1796875" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="53" style="30" customWidth="1"/>
-    <col min="1541" max="1542" width="13.1796875" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="11.1796875" style="30" customWidth="1"/>
-    <col min="1544" max="1544" width="4.26953125" style="30" customWidth="1"/>
-    <col min="1545" max="1567" width="9.1796875" style="30" bestFit="1"/>
-    <col min="1568" max="1618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1619" max="1792" width="9.1796875" style="30"/>
-    <col min="1793" max="1793" width="4" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="14.453125" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="15.1796875" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="53" style="30" customWidth="1"/>
-    <col min="1797" max="1798" width="13.1796875" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="11.1796875" style="30" customWidth="1"/>
-    <col min="1800" max="1800" width="4.26953125" style="30" customWidth="1"/>
-    <col min="1801" max="1823" width="9.1796875" style="30" bestFit="1"/>
-    <col min="1824" max="1874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1875" max="2048" width="9.1796875" style="30"/>
-    <col min="2049" max="2049" width="4" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="14.453125" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="15.1796875" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="53" style="30" customWidth="1"/>
-    <col min="2053" max="2054" width="13.1796875" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="11.1796875" style="30" customWidth="1"/>
-    <col min="2056" max="2056" width="4.26953125" style="30" customWidth="1"/>
-    <col min="2057" max="2079" width="9.1796875" style="30" bestFit="1"/>
-    <col min="2080" max="2130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2131" max="2304" width="9.1796875" style="30"/>
-    <col min="2305" max="2305" width="4" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="14.453125" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="15.1796875" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="53" style="30" customWidth="1"/>
-    <col min="2309" max="2310" width="13.1796875" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="11.1796875" style="30" customWidth="1"/>
-    <col min="2312" max="2312" width="4.26953125" style="30" customWidth="1"/>
-    <col min="2313" max="2335" width="9.1796875" style="30" bestFit="1"/>
-    <col min="2336" max="2386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2387" max="2560" width="9.1796875" style="30"/>
-    <col min="2561" max="2561" width="4" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="14.453125" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="15.1796875" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="53" style="30" customWidth="1"/>
-    <col min="2565" max="2566" width="13.1796875" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="11.1796875" style="30" customWidth="1"/>
-    <col min="2568" max="2568" width="4.26953125" style="30" customWidth="1"/>
-    <col min="2569" max="2591" width="9.1796875" style="30" bestFit="1"/>
-    <col min="2592" max="2642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2643" max="2816" width="9.1796875" style="30"/>
-    <col min="2817" max="2817" width="4" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="14.453125" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="15.1796875" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="53" style="30" customWidth="1"/>
-    <col min="2821" max="2822" width="13.1796875" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="11.1796875" style="30" customWidth="1"/>
-    <col min="2824" max="2824" width="4.26953125" style="30" customWidth="1"/>
-    <col min="2825" max="2847" width="9.1796875" style="30" bestFit="1"/>
-    <col min="2848" max="2898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2899" max="3072" width="9.1796875" style="30"/>
-    <col min="3073" max="3073" width="4" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="14.453125" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="15.1796875" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="53" style="30" customWidth="1"/>
-    <col min="3077" max="3078" width="13.1796875" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="11.1796875" style="30" customWidth="1"/>
-    <col min="3080" max="3080" width="4.26953125" style="30" customWidth="1"/>
-    <col min="3081" max="3103" width="9.1796875" style="30" bestFit="1"/>
-    <col min="3104" max="3154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3155" max="3328" width="9.1796875" style="30"/>
-    <col min="3329" max="3329" width="4" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="14.453125" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="15.1796875" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="53" style="30" customWidth="1"/>
-    <col min="3333" max="3334" width="13.1796875" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="11.1796875" style="30" customWidth="1"/>
-    <col min="3336" max="3336" width="4.26953125" style="30" customWidth="1"/>
-    <col min="3337" max="3359" width="9.1796875" style="30" bestFit="1"/>
-    <col min="3360" max="3410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3411" max="3584" width="9.1796875" style="30"/>
-    <col min="3585" max="3585" width="4" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="14.453125" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="15.1796875" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="53" style="30" customWidth="1"/>
-    <col min="3589" max="3590" width="13.1796875" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="11.1796875" style="30" customWidth="1"/>
-    <col min="3592" max="3592" width="4.26953125" style="30" customWidth="1"/>
-    <col min="3593" max="3615" width="9.1796875" style="30" bestFit="1"/>
-    <col min="3616" max="3666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3667" max="3840" width="9.1796875" style="30"/>
-    <col min="3841" max="3841" width="4" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="14.453125" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="15.1796875" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="53" style="30" customWidth="1"/>
-    <col min="3845" max="3846" width="13.1796875" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="11.1796875" style="30" customWidth="1"/>
-    <col min="3848" max="3848" width="4.26953125" style="30" customWidth="1"/>
-    <col min="3849" max="3871" width="9.1796875" style="30" bestFit="1"/>
-    <col min="3872" max="3922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3923" max="4096" width="9.1796875" style="30"/>
-    <col min="4097" max="4097" width="4" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="14.453125" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="15.1796875" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="53" style="30" customWidth="1"/>
-    <col min="4101" max="4102" width="13.1796875" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="11.1796875" style="30" customWidth="1"/>
-    <col min="4104" max="4104" width="4.26953125" style="30" customWidth="1"/>
-    <col min="4105" max="4127" width="9.1796875" style="30" bestFit="1"/>
-    <col min="4128" max="4178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4179" max="4352" width="9.1796875" style="30"/>
-    <col min="4353" max="4353" width="4" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="14.453125" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="15.1796875" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="53" style="30" customWidth="1"/>
-    <col min="4357" max="4358" width="13.1796875" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="11.1796875" style="30" customWidth="1"/>
-    <col min="4360" max="4360" width="4.26953125" style="30" customWidth="1"/>
-    <col min="4361" max="4383" width="9.1796875" style="30" bestFit="1"/>
-    <col min="4384" max="4434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4435" max="4608" width="9.1796875" style="30"/>
-    <col min="4609" max="4609" width="4" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="14.453125" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="15.1796875" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="53" style="30" customWidth="1"/>
-    <col min="4613" max="4614" width="13.1796875" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="11.1796875" style="30" customWidth="1"/>
-    <col min="4616" max="4616" width="4.26953125" style="30" customWidth="1"/>
-    <col min="4617" max="4639" width="9.1796875" style="30" bestFit="1"/>
-    <col min="4640" max="4690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4691" max="4864" width="9.1796875" style="30"/>
-    <col min="4865" max="4865" width="4" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="14.453125" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="15.1796875" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="53" style="30" customWidth="1"/>
-    <col min="4869" max="4870" width="13.1796875" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="11.1796875" style="30" customWidth="1"/>
-    <col min="4872" max="4872" width="4.26953125" style="30" customWidth="1"/>
-    <col min="4873" max="4895" width="9.1796875" style="30" bestFit="1"/>
-    <col min="4896" max="4946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4947" max="5120" width="9.1796875" style="30"/>
-    <col min="5121" max="5121" width="4" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="14.453125" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="15.1796875" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="53" style="30" customWidth="1"/>
-    <col min="5125" max="5126" width="13.1796875" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="11.1796875" style="30" customWidth="1"/>
-    <col min="5128" max="5128" width="4.26953125" style="30" customWidth="1"/>
-    <col min="5129" max="5151" width="9.1796875" style="30" bestFit="1"/>
-    <col min="5152" max="5202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5203" max="5376" width="9.1796875" style="30"/>
-    <col min="5377" max="5377" width="4" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="14.453125" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="15.1796875" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="53" style="30" customWidth="1"/>
-    <col min="5381" max="5382" width="13.1796875" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="11.1796875" style="30" customWidth="1"/>
-    <col min="5384" max="5384" width="4.26953125" style="30" customWidth="1"/>
-    <col min="5385" max="5407" width="9.1796875" style="30" bestFit="1"/>
-    <col min="5408" max="5458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5459" max="5632" width="9.1796875" style="30"/>
-    <col min="5633" max="5633" width="4" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="14.453125" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="15.1796875" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="53" style="30" customWidth="1"/>
-    <col min="5637" max="5638" width="13.1796875" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="11.1796875" style="30" customWidth="1"/>
-    <col min="5640" max="5640" width="4.26953125" style="30" customWidth="1"/>
-    <col min="5641" max="5663" width="9.1796875" style="30" bestFit="1"/>
-    <col min="5664" max="5714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5715" max="5888" width="9.1796875" style="30"/>
-    <col min="5889" max="5889" width="4" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="14.453125" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="15.1796875" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="53" style="30" customWidth="1"/>
-    <col min="5893" max="5894" width="13.1796875" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="11.1796875" style="30" customWidth="1"/>
-    <col min="5896" max="5896" width="4.26953125" style="30" customWidth="1"/>
-    <col min="5897" max="5919" width="9.1796875" style="30" bestFit="1"/>
-    <col min="5920" max="5970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5971" max="6144" width="9.1796875" style="30"/>
-    <col min="6145" max="6145" width="4" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="14.453125" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="15.1796875" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="53" style="30" customWidth="1"/>
-    <col min="6149" max="6150" width="13.1796875" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="11.1796875" style="30" customWidth="1"/>
-    <col min="6152" max="6152" width="4.26953125" style="30" customWidth="1"/>
-    <col min="6153" max="6175" width="9.1796875" style="30" bestFit="1"/>
-    <col min="6176" max="6226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6227" max="6400" width="9.1796875" style="30"/>
-    <col min="6401" max="6401" width="4" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="14.453125" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="15.1796875" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="53" style="30" customWidth="1"/>
-    <col min="6405" max="6406" width="13.1796875" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="11.1796875" style="30" customWidth="1"/>
-    <col min="6408" max="6408" width="4.26953125" style="30" customWidth="1"/>
-    <col min="6409" max="6431" width="9.1796875" style="30" bestFit="1"/>
-    <col min="6432" max="6482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6483" max="6656" width="9.1796875" style="30"/>
-    <col min="6657" max="6657" width="4" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="14.453125" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="15.1796875" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="53" style="30" customWidth="1"/>
-    <col min="6661" max="6662" width="13.1796875" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="11.1796875" style="30" customWidth="1"/>
-    <col min="6664" max="6664" width="4.26953125" style="30" customWidth="1"/>
-    <col min="6665" max="6687" width="9.1796875" style="30" bestFit="1"/>
-    <col min="6688" max="6738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6739" max="6912" width="9.1796875" style="30"/>
-    <col min="6913" max="6913" width="4" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="14.453125" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="15.1796875" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="53" style="30" customWidth="1"/>
-    <col min="6917" max="6918" width="13.1796875" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="11.1796875" style="30" customWidth="1"/>
-    <col min="6920" max="6920" width="4.26953125" style="30" customWidth="1"/>
-    <col min="6921" max="6943" width="9.1796875" style="30" bestFit="1"/>
-    <col min="6944" max="6994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6995" max="7168" width="9.1796875" style="30"/>
-    <col min="7169" max="7169" width="4" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="14.453125" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="15.1796875" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="53" style="30" customWidth="1"/>
-    <col min="7173" max="7174" width="13.1796875" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="11.1796875" style="30" customWidth="1"/>
-    <col min="7176" max="7176" width="4.26953125" style="30" customWidth="1"/>
-    <col min="7177" max="7199" width="9.1796875" style="30" bestFit="1"/>
-    <col min="7200" max="7250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7251" max="7424" width="9.1796875" style="30"/>
-    <col min="7425" max="7425" width="4" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="14.453125" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="15.1796875" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="53" style="30" customWidth="1"/>
-    <col min="7429" max="7430" width="13.1796875" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="11.1796875" style="30" customWidth="1"/>
-    <col min="7432" max="7432" width="4.26953125" style="30" customWidth="1"/>
-    <col min="7433" max="7455" width="9.1796875" style="30" bestFit="1"/>
-    <col min="7456" max="7506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7507" max="7680" width="9.1796875" style="30"/>
-    <col min="7681" max="7681" width="4" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="14.453125" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="15.1796875" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="53" style="30" customWidth="1"/>
-    <col min="7685" max="7686" width="13.1796875" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="11.1796875" style="30" customWidth="1"/>
-    <col min="7688" max="7688" width="4.26953125" style="30" customWidth="1"/>
-    <col min="7689" max="7711" width="9.1796875" style="30" bestFit="1"/>
-    <col min="7712" max="7762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7763" max="7936" width="9.1796875" style="30"/>
-    <col min="7937" max="7937" width="4" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="14.453125" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="15.1796875" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="53" style="30" customWidth="1"/>
-    <col min="7941" max="7942" width="13.1796875" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="11.1796875" style="30" customWidth="1"/>
-    <col min="7944" max="7944" width="4.26953125" style="30" customWidth="1"/>
-    <col min="7945" max="7967" width="9.1796875" style="30" bestFit="1"/>
-    <col min="7968" max="8018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8019" max="8192" width="9.1796875" style="30"/>
-    <col min="8193" max="8193" width="4" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="14.453125" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="15.1796875" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="53" style="30" customWidth="1"/>
-    <col min="8197" max="8198" width="13.1796875" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="11.1796875" style="30" customWidth="1"/>
-    <col min="8200" max="8200" width="4.26953125" style="30" customWidth="1"/>
-    <col min="8201" max="8223" width="9.1796875" style="30" bestFit="1"/>
-    <col min="8224" max="8274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8275" max="8448" width="9.1796875" style="30"/>
-    <col min="8449" max="8449" width="4" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="14.453125" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="15.1796875" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="53" style="30" customWidth="1"/>
-    <col min="8453" max="8454" width="13.1796875" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="11.1796875" style="30" customWidth="1"/>
-    <col min="8456" max="8456" width="4.26953125" style="30" customWidth="1"/>
-    <col min="8457" max="8479" width="9.1796875" style="30" bestFit="1"/>
-    <col min="8480" max="8530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8531" max="8704" width="9.1796875" style="30"/>
-    <col min="8705" max="8705" width="4" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="14.453125" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="15.1796875" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="53" style="30" customWidth="1"/>
-    <col min="8709" max="8710" width="13.1796875" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="11.1796875" style="30" customWidth="1"/>
-    <col min="8712" max="8712" width="4.26953125" style="30" customWidth="1"/>
-    <col min="8713" max="8735" width="9.1796875" style="30" bestFit="1"/>
-    <col min="8736" max="8786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8787" max="8960" width="9.1796875" style="30"/>
-    <col min="8961" max="8961" width="4" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="14.453125" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="15.1796875" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="53" style="30" customWidth="1"/>
-    <col min="8965" max="8966" width="13.1796875" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="11.1796875" style="30" customWidth="1"/>
-    <col min="8968" max="8968" width="4.26953125" style="30" customWidth="1"/>
-    <col min="8969" max="8991" width="9.1796875" style="30" bestFit="1"/>
-    <col min="8992" max="9042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9043" max="9216" width="9.1796875" style="30"/>
-    <col min="9217" max="9217" width="4" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="14.453125" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="15.1796875" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="53" style="30" customWidth="1"/>
-    <col min="9221" max="9222" width="13.1796875" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="11.1796875" style="30" customWidth="1"/>
-    <col min="9224" max="9224" width="4.26953125" style="30" customWidth="1"/>
-    <col min="9225" max="9247" width="9.1796875" style="30" bestFit="1"/>
-    <col min="9248" max="9298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9299" max="9472" width="9.1796875" style="30"/>
-    <col min="9473" max="9473" width="4" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="14.453125" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="15.1796875" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="53" style="30" customWidth="1"/>
-    <col min="9477" max="9478" width="13.1796875" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="11.1796875" style="30" customWidth="1"/>
-    <col min="9480" max="9480" width="4.26953125" style="30" customWidth="1"/>
-    <col min="9481" max="9503" width="9.1796875" style="30" bestFit="1"/>
-    <col min="9504" max="9554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9555" max="9728" width="9.1796875" style="30"/>
-    <col min="9729" max="9729" width="4" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="14.453125" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="15.1796875" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="53" style="30" customWidth="1"/>
-    <col min="9733" max="9734" width="13.1796875" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="11.1796875" style="30" customWidth="1"/>
-    <col min="9736" max="9736" width="4.26953125" style="30" customWidth="1"/>
-    <col min="9737" max="9759" width="9.1796875" style="30" bestFit="1"/>
-    <col min="9760" max="9810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9811" max="9984" width="9.1796875" style="30"/>
-    <col min="9985" max="9985" width="4" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="14.453125" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="15.1796875" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="53" style="30" customWidth="1"/>
-    <col min="9989" max="9990" width="13.1796875" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="11.1796875" style="30" customWidth="1"/>
-    <col min="9992" max="9992" width="4.26953125" style="30" customWidth="1"/>
-    <col min="9993" max="10015" width="9.1796875" style="30" bestFit="1"/>
-    <col min="10016" max="10066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10067" max="10240" width="9.1796875" style="30"/>
-    <col min="10241" max="10241" width="4" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="14.453125" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="15.1796875" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="53" style="30" customWidth="1"/>
-    <col min="10245" max="10246" width="13.1796875" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="11.1796875" style="30" customWidth="1"/>
-    <col min="10248" max="10248" width="4.26953125" style="30" customWidth="1"/>
-    <col min="10249" max="10271" width="9.1796875" style="30" bestFit="1"/>
-    <col min="10272" max="10322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10323" max="10496" width="9.1796875" style="30"/>
-    <col min="10497" max="10497" width="4" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="14.453125" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="15.1796875" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="53" style="30" customWidth="1"/>
-    <col min="10501" max="10502" width="13.1796875" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="11.1796875" style="30" customWidth="1"/>
-    <col min="10504" max="10504" width="4.26953125" style="30" customWidth="1"/>
-    <col min="10505" max="10527" width="9.1796875" style="30" bestFit="1"/>
-    <col min="10528" max="10578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10579" max="10752" width="9.1796875" style="30"/>
-    <col min="10753" max="10753" width="4" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="14.453125" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="15.1796875" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="53" style="30" customWidth="1"/>
-    <col min="10757" max="10758" width="13.1796875" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="11.1796875" style="30" customWidth="1"/>
-    <col min="10760" max="10760" width="4.26953125" style="30" customWidth="1"/>
-    <col min="10761" max="10783" width="9.1796875" style="30" bestFit="1"/>
-    <col min="10784" max="10834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10835" max="11008" width="9.1796875" style="30"/>
-    <col min="11009" max="11009" width="4" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="14.453125" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="15.1796875" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="53" style="30" customWidth="1"/>
-    <col min="11013" max="11014" width="13.1796875" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="11.1796875" style="30" customWidth="1"/>
-    <col min="11016" max="11016" width="4.26953125" style="30" customWidth="1"/>
-    <col min="11017" max="11039" width="9.1796875" style="30" bestFit="1"/>
-    <col min="11040" max="11090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11091" max="11264" width="9.1796875" style="30"/>
-    <col min="11265" max="11265" width="4" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="14.453125" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="15.1796875" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="53" style="30" customWidth="1"/>
-    <col min="11269" max="11270" width="13.1796875" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="11.1796875" style="30" customWidth="1"/>
-    <col min="11272" max="11272" width="4.26953125" style="30" customWidth="1"/>
-    <col min="11273" max="11295" width="9.1796875" style="30" bestFit="1"/>
-    <col min="11296" max="11346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11347" max="11520" width="9.1796875" style="30"/>
-    <col min="11521" max="11521" width="4" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="14.453125" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="15.1796875" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="53" style="30" customWidth="1"/>
-    <col min="11525" max="11526" width="13.1796875" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="11.1796875" style="30" customWidth="1"/>
-    <col min="11528" max="11528" width="4.26953125" style="30" customWidth="1"/>
-    <col min="11529" max="11551" width="9.1796875" style="30" bestFit="1"/>
-    <col min="11552" max="11602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11603" max="11776" width="9.1796875" style="30"/>
-    <col min="11777" max="11777" width="4" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="14.453125" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="15.1796875" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="53" style="30" customWidth="1"/>
-    <col min="11781" max="11782" width="13.1796875" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="11.1796875" style="30" customWidth="1"/>
-    <col min="11784" max="11784" width="4.26953125" style="30" customWidth="1"/>
-    <col min="11785" max="11807" width="9.1796875" style="30" bestFit="1"/>
-    <col min="11808" max="11858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11859" max="12032" width="9.1796875" style="30"/>
-    <col min="12033" max="12033" width="4" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="14.453125" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="15.1796875" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="53" style="30" customWidth="1"/>
-    <col min="12037" max="12038" width="13.1796875" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="11.1796875" style="30" customWidth="1"/>
-    <col min="12040" max="12040" width="4.26953125" style="30" customWidth="1"/>
-    <col min="12041" max="12063" width="9.1796875" style="30" bestFit="1"/>
-    <col min="12064" max="12114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12115" max="12288" width="9.1796875" style="30"/>
-    <col min="12289" max="12289" width="4" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="14.453125" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="15.1796875" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="53" style="30" customWidth="1"/>
-    <col min="12293" max="12294" width="13.1796875" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="11.1796875" style="30" customWidth="1"/>
-    <col min="12296" max="12296" width="4.26953125" style="30" customWidth="1"/>
-    <col min="12297" max="12319" width="9.1796875" style="30" bestFit="1"/>
-    <col min="12320" max="12370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12371" max="12544" width="9.1796875" style="30"/>
-    <col min="12545" max="12545" width="4" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="14.453125" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="15.1796875" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="53" style="30" customWidth="1"/>
-    <col min="12549" max="12550" width="13.1796875" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="11.1796875" style="30" customWidth="1"/>
-    <col min="12552" max="12552" width="4.26953125" style="30" customWidth="1"/>
-    <col min="12553" max="12575" width="9.1796875" style="30" bestFit="1"/>
-    <col min="12576" max="12626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12627" max="12800" width="9.1796875" style="30"/>
-    <col min="12801" max="12801" width="4" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="14.453125" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="15.1796875" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="53" style="30" customWidth="1"/>
-    <col min="12805" max="12806" width="13.1796875" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="11.1796875" style="30" customWidth="1"/>
-    <col min="12808" max="12808" width="4.26953125" style="30" customWidth="1"/>
-    <col min="12809" max="12831" width="9.1796875" style="30" bestFit="1"/>
-    <col min="12832" max="12882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12883" max="13056" width="9.1796875" style="30"/>
-    <col min="13057" max="13057" width="4" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="14.453125" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="15.1796875" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="53" style="30" customWidth="1"/>
-    <col min="13061" max="13062" width="13.1796875" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="11.1796875" style="30" customWidth="1"/>
-    <col min="13064" max="13064" width="4.26953125" style="30" customWidth="1"/>
-    <col min="13065" max="13087" width="9.1796875" style="30" bestFit="1"/>
-    <col min="13088" max="13138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13139" max="13312" width="9.1796875" style="30"/>
-    <col min="13313" max="13313" width="4" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="14.453125" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="15.1796875" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="53" style="30" customWidth="1"/>
-    <col min="13317" max="13318" width="13.1796875" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="11.1796875" style="30" customWidth="1"/>
-    <col min="13320" max="13320" width="4.26953125" style="30" customWidth="1"/>
-    <col min="13321" max="13343" width="9.1796875" style="30" bestFit="1"/>
-    <col min="13344" max="13394" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13395" max="13568" width="9.1796875" style="30"/>
-    <col min="13569" max="13569" width="4" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="14.453125" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="15.1796875" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="53" style="30" customWidth="1"/>
-    <col min="13573" max="13574" width="13.1796875" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="11.1796875" style="30" customWidth="1"/>
-    <col min="13576" max="13576" width="4.26953125" style="30" customWidth="1"/>
-    <col min="13577" max="13599" width="9.1796875" style="30" bestFit="1"/>
-    <col min="13600" max="13650" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13651" max="13824" width="9.1796875" style="30"/>
-    <col min="13825" max="13825" width="4" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="14.453125" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="15.1796875" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="53" style="30" customWidth="1"/>
-    <col min="13829" max="13830" width="13.1796875" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="11.1796875" style="30" customWidth="1"/>
-    <col min="13832" max="13832" width="4.26953125" style="30" customWidth="1"/>
-    <col min="13833" max="13855" width="9.1796875" style="30" bestFit="1"/>
-    <col min="13856" max="13906" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13907" max="14080" width="9.1796875" style="30"/>
-    <col min="14081" max="14081" width="4" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="14.453125" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="15.1796875" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="53" style="30" customWidth="1"/>
-    <col min="14085" max="14086" width="13.1796875" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="11.1796875" style="30" customWidth="1"/>
-    <col min="14088" max="14088" width="4.26953125" style="30" customWidth="1"/>
-    <col min="14089" max="14111" width="9.1796875" style="30" bestFit="1"/>
-    <col min="14112" max="14162" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14163" max="14336" width="9.1796875" style="30"/>
-    <col min="14337" max="14337" width="4" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="14.453125" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="15.1796875" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="53" style="30" customWidth="1"/>
-    <col min="14341" max="14342" width="13.1796875" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="11.1796875" style="30" customWidth="1"/>
-    <col min="14344" max="14344" width="4.26953125" style="30" customWidth="1"/>
-    <col min="14345" max="14367" width="9.1796875" style="30" bestFit="1"/>
-    <col min="14368" max="14418" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14419" max="14592" width="9.1796875" style="30"/>
-    <col min="14593" max="14593" width="4" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="14.453125" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="15.1796875" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="53" style="30" customWidth="1"/>
-    <col min="14597" max="14598" width="13.1796875" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="11.1796875" style="30" customWidth="1"/>
-    <col min="14600" max="14600" width="4.26953125" style="30" customWidth="1"/>
-    <col min="14601" max="14623" width="9.1796875" style="30" bestFit="1"/>
-    <col min="14624" max="14674" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14675" max="14848" width="9.1796875" style="30"/>
-    <col min="14849" max="14849" width="4" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="14.453125" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="15.1796875" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="53" style="30" customWidth="1"/>
-    <col min="14853" max="14854" width="13.1796875" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="11.1796875" style="30" customWidth="1"/>
-    <col min="14856" max="14856" width="4.26953125" style="30" customWidth="1"/>
-    <col min="14857" max="14879" width="9.1796875" style="30" bestFit="1"/>
-    <col min="14880" max="14930" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14931" max="15104" width="9.1796875" style="30"/>
-    <col min="15105" max="15105" width="4" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="14.453125" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="15.1796875" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="53" style="30" customWidth="1"/>
-    <col min="15109" max="15110" width="13.1796875" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="11.1796875" style="30" customWidth="1"/>
-    <col min="15112" max="15112" width="4.26953125" style="30" customWidth="1"/>
-    <col min="15113" max="15135" width="9.1796875" style="30" bestFit="1"/>
-    <col min="15136" max="15186" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15187" max="15360" width="9.1796875" style="30"/>
-    <col min="15361" max="15361" width="4" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="14.453125" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="15.1796875" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="53" style="30" customWidth="1"/>
-    <col min="15365" max="15366" width="13.1796875" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="11.1796875" style="30" customWidth="1"/>
-    <col min="15368" max="15368" width="4.26953125" style="30" customWidth="1"/>
-    <col min="15369" max="15391" width="9.1796875" style="30" bestFit="1"/>
-    <col min="15392" max="15442" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15443" max="15616" width="9.1796875" style="30"/>
-    <col min="15617" max="15617" width="4" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="14.453125" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="15.1796875" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="53" style="30" customWidth="1"/>
-    <col min="15621" max="15622" width="13.1796875" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="11.1796875" style="30" customWidth="1"/>
-    <col min="15624" max="15624" width="4.26953125" style="30" customWidth="1"/>
-    <col min="15625" max="15647" width="9.1796875" style="30" bestFit="1"/>
-    <col min="15648" max="15698" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15699" max="15872" width="9.1796875" style="30"/>
-    <col min="15873" max="15873" width="4" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="14.453125" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="15.1796875" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="53" style="30" customWidth="1"/>
-    <col min="15877" max="15878" width="13.1796875" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="11.1796875" style="30" customWidth="1"/>
-    <col min="15880" max="15880" width="4.26953125" style="30" customWidth="1"/>
-    <col min="15881" max="15903" width="9.1796875" style="30" bestFit="1"/>
-    <col min="15904" max="15954" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15955" max="16128" width="9.1796875" style="30"/>
-    <col min="16129" max="16129" width="4" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="14.453125" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="15.1796875" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="53" style="30" customWidth="1"/>
-    <col min="16133" max="16134" width="13.1796875" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="11.1796875" style="30" customWidth="1"/>
-    <col min="16136" max="16136" width="4.26953125" style="30" customWidth="1"/>
-    <col min="16137" max="16159" width="9.1796875" style="30" bestFit="1"/>
-    <col min="16160" max="16210" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16211" max="16384" width="9.1796875" style="30"/>
+    <col min="1" max="1" width="4" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="53" style="29" customWidth="1"/>
+    <col min="5" max="6" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9" max="31" width="9.1796875" style="29" bestFit="1"/>
+    <col min="32" max="82" width="9" style="29" hidden="1" customWidth="1"/>
+    <col min="83" max="256" width="9.1796875" style="29"/>
+    <col min="257" max="257" width="4" style="29" customWidth="1"/>
+    <col min="258" max="258" width="14.453125" style="29" customWidth="1"/>
+    <col min="259" max="259" width="15.1796875" style="29" customWidth="1"/>
+    <col min="260" max="260" width="53" style="29" customWidth="1"/>
+    <col min="261" max="262" width="13.1796875" style="29" customWidth="1"/>
+    <col min="263" max="263" width="11.1796875" style="29" customWidth="1"/>
+    <col min="264" max="264" width="4.26953125" style="29" customWidth="1"/>
+    <col min="265" max="287" width="9.1796875" style="29" bestFit="1"/>
+    <col min="288" max="338" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="339" max="512" width="9.1796875" style="29"/>
+    <col min="513" max="513" width="4" style="29" customWidth="1"/>
+    <col min="514" max="514" width="14.453125" style="29" customWidth="1"/>
+    <col min="515" max="515" width="15.1796875" style="29" customWidth="1"/>
+    <col min="516" max="516" width="53" style="29" customWidth="1"/>
+    <col min="517" max="518" width="13.1796875" style="29" customWidth="1"/>
+    <col min="519" max="519" width="11.1796875" style="29" customWidth="1"/>
+    <col min="520" max="520" width="4.26953125" style="29" customWidth="1"/>
+    <col min="521" max="543" width="9.1796875" style="29" bestFit="1"/>
+    <col min="544" max="594" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="595" max="768" width="9.1796875" style="29"/>
+    <col min="769" max="769" width="4" style="29" customWidth="1"/>
+    <col min="770" max="770" width="14.453125" style="29" customWidth="1"/>
+    <col min="771" max="771" width="15.1796875" style="29" customWidth="1"/>
+    <col min="772" max="772" width="53" style="29" customWidth="1"/>
+    <col min="773" max="774" width="13.1796875" style="29" customWidth="1"/>
+    <col min="775" max="775" width="11.1796875" style="29" customWidth="1"/>
+    <col min="776" max="776" width="4.26953125" style="29" customWidth="1"/>
+    <col min="777" max="799" width="9.1796875" style="29" bestFit="1"/>
+    <col min="800" max="850" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="851" max="1024" width="9.1796875" style="29"/>
+    <col min="1025" max="1025" width="4" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="14.453125" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="15.1796875" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="53" style="29" customWidth="1"/>
+    <col min="1029" max="1030" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1031" max="1031" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1032" max="1032" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1033" max="1055" width="9.1796875" style="29" bestFit="1"/>
+    <col min="1056" max="1106" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="1107" max="1280" width="9.1796875" style="29"/>
+    <col min="1281" max="1281" width="4" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="14.453125" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="15.1796875" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="53" style="29" customWidth="1"/>
+    <col min="1285" max="1286" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1287" max="1287" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1288" max="1288" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1289" max="1311" width="9.1796875" style="29" bestFit="1"/>
+    <col min="1312" max="1362" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="1363" max="1536" width="9.1796875" style="29"/>
+    <col min="1537" max="1537" width="4" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="14.453125" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="15.1796875" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="53" style="29" customWidth="1"/>
+    <col min="1541" max="1542" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1543" max="1543" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1544" max="1544" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1545" max="1567" width="9.1796875" style="29" bestFit="1"/>
+    <col min="1568" max="1618" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="1619" max="1792" width="9.1796875" style="29"/>
+    <col min="1793" max="1793" width="4" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="14.453125" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="15.1796875" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="53" style="29" customWidth="1"/>
+    <col min="1797" max="1798" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1799" max="1799" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1800" max="1800" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1801" max="1823" width="9.1796875" style="29" bestFit="1"/>
+    <col min="1824" max="1874" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="1875" max="2048" width="9.1796875" style="29"/>
+    <col min="2049" max="2049" width="4" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="14.453125" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="15.1796875" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="53" style="29" customWidth="1"/>
+    <col min="2053" max="2054" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2055" max="2055" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2056" max="2056" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2057" max="2079" width="9.1796875" style="29" bestFit="1"/>
+    <col min="2080" max="2130" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="2131" max="2304" width="9.1796875" style="29"/>
+    <col min="2305" max="2305" width="4" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="14.453125" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="15.1796875" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="53" style="29" customWidth="1"/>
+    <col min="2309" max="2310" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2311" max="2311" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2312" max="2312" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2313" max="2335" width="9.1796875" style="29" bestFit="1"/>
+    <col min="2336" max="2386" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="2387" max="2560" width="9.1796875" style="29"/>
+    <col min="2561" max="2561" width="4" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="14.453125" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="15.1796875" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="53" style="29" customWidth="1"/>
+    <col min="2565" max="2566" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2567" max="2567" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2568" max="2568" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2569" max="2591" width="9.1796875" style="29" bestFit="1"/>
+    <col min="2592" max="2642" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="2643" max="2816" width="9.1796875" style="29"/>
+    <col min="2817" max="2817" width="4" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="14.453125" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="15.1796875" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="53" style="29" customWidth="1"/>
+    <col min="2821" max="2822" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2823" max="2823" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2824" max="2824" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2825" max="2847" width="9.1796875" style="29" bestFit="1"/>
+    <col min="2848" max="2898" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="2899" max="3072" width="9.1796875" style="29"/>
+    <col min="3073" max="3073" width="4" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="14.453125" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="15.1796875" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="53" style="29" customWidth="1"/>
+    <col min="3077" max="3078" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3079" max="3079" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3080" max="3080" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3081" max="3103" width="9.1796875" style="29" bestFit="1"/>
+    <col min="3104" max="3154" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="3155" max="3328" width="9.1796875" style="29"/>
+    <col min="3329" max="3329" width="4" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="14.453125" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="15.1796875" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="53" style="29" customWidth="1"/>
+    <col min="3333" max="3334" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3335" max="3335" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3336" max="3336" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3337" max="3359" width="9.1796875" style="29" bestFit="1"/>
+    <col min="3360" max="3410" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="3411" max="3584" width="9.1796875" style="29"/>
+    <col min="3585" max="3585" width="4" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="14.453125" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="15.1796875" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="53" style="29" customWidth="1"/>
+    <col min="3589" max="3590" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3591" max="3591" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3592" max="3592" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3593" max="3615" width="9.1796875" style="29" bestFit="1"/>
+    <col min="3616" max="3666" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="3667" max="3840" width="9.1796875" style="29"/>
+    <col min="3841" max="3841" width="4" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="14.453125" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="15.1796875" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="53" style="29" customWidth="1"/>
+    <col min="3845" max="3846" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3847" max="3847" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3848" max="3848" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3849" max="3871" width="9.1796875" style="29" bestFit="1"/>
+    <col min="3872" max="3922" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="3923" max="4096" width="9.1796875" style="29"/>
+    <col min="4097" max="4097" width="4" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="14.453125" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="15.1796875" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="53" style="29" customWidth="1"/>
+    <col min="4101" max="4102" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4103" max="4103" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4104" max="4104" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4105" max="4127" width="9.1796875" style="29" bestFit="1"/>
+    <col min="4128" max="4178" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="4179" max="4352" width="9.1796875" style="29"/>
+    <col min="4353" max="4353" width="4" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="14.453125" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="15.1796875" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="53" style="29" customWidth="1"/>
+    <col min="4357" max="4358" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4359" max="4359" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4360" max="4360" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4361" max="4383" width="9.1796875" style="29" bestFit="1"/>
+    <col min="4384" max="4434" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="4435" max="4608" width="9.1796875" style="29"/>
+    <col min="4609" max="4609" width="4" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="14.453125" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="15.1796875" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="53" style="29" customWidth="1"/>
+    <col min="4613" max="4614" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4615" max="4615" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4616" max="4616" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4617" max="4639" width="9.1796875" style="29" bestFit="1"/>
+    <col min="4640" max="4690" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="4691" max="4864" width="9.1796875" style="29"/>
+    <col min="4865" max="4865" width="4" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="14.453125" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="15.1796875" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="53" style="29" customWidth="1"/>
+    <col min="4869" max="4870" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4871" max="4871" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4872" max="4872" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4873" max="4895" width="9.1796875" style="29" bestFit="1"/>
+    <col min="4896" max="4946" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="4947" max="5120" width="9.1796875" style="29"/>
+    <col min="5121" max="5121" width="4" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="14.453125" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="15.1796875" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="53" style="29" customWidth="1"/>
+    <col min="5125" max="5126" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5127" max="5127" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5128" max="5128" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5129" max="5151" width="9.1796875" style="29" bestFit="1"/>
+    <col min="5152" max="5202" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="5203" max="5376" width="9.1796875" style="29"/>
+    <col min="5377" max="5377" width="4" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="14.453125" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="15.1796875" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="53" style="29" customWidth="1"/>
+    <col min="5381" max="5382" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5383" max="5383" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5384" max="5384" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5385" max="5407" width="9.1796875" style="29" bestFit="1"/>
+    <col min="5408" max="5458" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="5459" max="5632" width="9.1796875" style="29"/>
+    <col min="5633" max="5633" width="4" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="14.453125" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="15.1796875" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="53" style="29" customWidth="1"/>
+    <col min="5637" max="5638" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5639" max="5639" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5640" max="5640" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5641" max="5663" width="9.1796875" style="29" bestFit="1"/>
+    <col min="5664" max="5714" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="5715" max="5888" width="9.1796875" style="29"/>
+    <col min="5889" max="5889" width="4" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="14.453125" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="15.1796875" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="53" style="29" customWidth="1"/>
+    <col min="5893" max="5894" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5895" max="5895" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5896" max="5896" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5897" max="5919" width="9.1796875" style="29" bestFit="1"/>
+    <col min="5920" max="5970" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="5971" max="6144" width="9.1796875" style="29"/>
+    <col min="6145" max="6145" width="4" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="14.453125" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="15.1796875" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="53" style="29" customWidth="1"/>
+    <col min="6149" max="6150" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6151" max="6151" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6152" max="6152" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6153" max="6175" width="9.1796875" style="29" bestFit="1"/>
+    <col min="6176" max="6226" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="6227" max="6400" width="9.1796875" style="29"/>
+    <col min="6401" max="6401" width="4" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="14.453125" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="15.1796875" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="53" style="29" customWidth="1"/>
+    <col min="6405" max="6406" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6407" max="6407" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6408" max="6408" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6409" max="6431" width="9.1796875" style="29" bestFit="1"/>
+    <col min="6432" max="6482" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="6483" max="6656" width="9.1796875" style="29"/>
+    <col min="6657" max="6657" width="4" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="14.453125" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="15.1796875" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="53" style="29" customWidth="1"/>
+    <col min="6661" max="6662" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6663" max="6663" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6664" max="6664" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6665" max="6687" width="9.1796875" style="29" bestFit="1"/>
+    <col min="6688" max="6738" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="6739" max="6912" width="9.1796875" style="29"/>
+    <col min="6913" max="6913" width="4" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="14.453125" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="15.1796875" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="53" style="29" customWidth="1"/>
+    <col min="6917" max="6918" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6919" max="6919" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6920" max="6920" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6921" max="6943" width="9.1796875" style="29" bestFit="1"/>
+    <col min="6944" max="6994" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="6995" max="7168" width="9.1796875" style="29"/>
+    <col min="7169" max="7169" width="4" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="14.453125" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="15.1796875" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="53" style="29" customWidth="1"/>
+    <col min="7173" max="7174" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7175" max="7175" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7176" max="7176" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7177" max="7199" width="9.1796875" style="29" bestFit="1"/>
+    <col min="7200" max="7250" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="7251" max="7424" width="9.1796875" style="29"/>
+    <col min="7425" max="7425" width="4" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="14.453125" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="15.1796875" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="53" style="29" customWidth="1"/>
+    <col min="7429" max="7430" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7431" max="7431" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7432" max="7432" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7433" max="7455" width="9.1796875" style="29" bestFit="1"/>
+    <col min="7456" max="7506" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="7507" max="7680" width="9.1796875" style="29"/>
+    <col min="7681" max="7681" width="4" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="14.453125" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="15.1796875" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="53" style="29" customWidth="1"/>
+    <col min="7685" max="7686" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7687" max="7687" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7688" max="7688" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7689" max="7711" width="9.1796875" style="29" bestFit="1"/>
+    <col min="7712" max="7762" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="7763" max="7936" width="9.1796875" style="29"/>
+    <col min="7937" max="7937" width="4" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="14.453125" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="15.1796875" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="53" style="29" customWidth="1"/>
+    <col min="7941" max="7942" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7943" max="7943" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7944" max="7944" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7945" max="7967" width="9.1796875" style="29" bestFit="1"/>
+    <col min="7968" max="8018" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="8019" max="8192" width="9.1796875" style="29"/>
+    <col min="8193" max="8193" width="4" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="14.453125" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="15.1796875" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="53" style="29" customWidth="1"/>
+    <col min="8197" max="8198" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8199" max="8199" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8200" max="8200" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8201" max="8223" width="9.1796875" style="29" bestFit="1"/>
+    <col min="8224" max="8274" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="8275" max="8448" width="9.1796875" style="29"/>
+    <col min="8449" max="8449" width="4" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="14.453125" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="15.1796875" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="53" style="29" customWidth="1"/>
+    <col min="8453" max="8454" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8455" max="8455" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8456" max="8456" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8457" max="8479" width="9.1796875" style="29" bestFit="1"/>
+    <col min="8480" max="8530" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="8531" max="8704" width="9.1796875" style="29"/>
+    <col min="8705" max="8705" width="4" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="14.453125" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="15.1796875" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="53" style="29" customWidth="1"/>
+    <col min="8709" max="8710" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8711" max="8711" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8712" max="8712" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8713" max="8735" width="9.1796875" style="29" bestFit="1"/>
+    <col min="8736" max="8786" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="8787" max="8960" width="9.1796875" style="29"/>
+    <col min="8961" max="8961" width="4" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="14.453125" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="15.1796875" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="53" style="29" customWidth="1"/>
+    <col min="8965" max="8966" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8967" max="8967" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8968" max="8968" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8969" max="8991" width="9.1796875" style="29" bestFit="1"/>
+    <col min="8992" max="9042" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="9043" max="9216" width="9.1796875" style="29"/>
+    <col min="9217" max="9217" width="4" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="14.453125" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="15.1796875" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="53" style="29" customWidth="1"/>
+    <col min="9221" max="9222" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9223" max="9223" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9224" max="9224" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9225" max="9247" width="9.1796875" style="29" bestFit="1"/>
+    <col min="9248" max="9298" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="9299" max="9472" width="9.1796875" style="29"/>
+    <col min="9473" max="9473" width="4" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="14.453125" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="15.1796875" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="53" style="29" customWidth="1"/>
+    <col min="9477" max="9478" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9479" max="9479" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9480" max="9480" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9481" max="9503" width="9.1796875" style="29" bestFit="1"/>
+    <col min="9504" max="9554" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="9555" max="9728" width="9.1796875" style="29"/>
+    <col min="9729" max="9729" width="4" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="14.453125" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="15.1796875" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="53" style="29" customWidth="1"/>
+    <col min="9733" max="9734" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9735" max="9735" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9736" max="9736" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9737" max="9759" width="9.1796875" style="29" bestFit="1"/>
+    <col min="9760" max="9810" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="9811" max="9984" width="9.1796875" style="29"/>
+    <col min="9985" max="9985" width="4" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="14.453125" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="15.1796875" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="53" style="29" customWidth="1"/>
+    <col min="9989" max="9990" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9991" max="9991" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9992" max="9992" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9993" max="10015" width="9.1796875" style="29" bestFit="1"/>
+    <col min="10016" max="10066" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="10067" max="10240" width="9.1796875" style="29"/>
+    <col min="10241" max="10241" width="4" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="14.453125" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="15.1796875" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="53" style="29" customWidth="1"/>
+    <col min="10245" max="10246" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10247" max="10247" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10248" max="10248" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10249" max="10271" width="9.1796875" style="29" bestFit="1"/>
+    <col min="10272" max="10322" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="10323" max="10496" width="9.1796875" style="29"/>
+    <col min="10497" max="10497" width="4" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="14.453125" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="15.1796875" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="53" style="29" customWidth="1"/>
+    <col min="10501" max="10502" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10503" max="10503" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10504" max="10504" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10505" max="10527" width="9.1796875" style="29" bestFit="1"/>
+    <col min="10528" max="10578" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="10579" max="10752" width="9.1796875" style="29"/>
+    <col min="10753" max="10753" width="4" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="14.453125" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="15.1796875" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="53" style="29" customWidth="1"/>
+    <col min="10757" max="10758" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10759" max="10759" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10760" max="10760" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10761" max="10783" width="9.1796875" style="29" bestFit="1"/>
+    <col min="10784" max="10834" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="10835" max="11008" width="9.1796875" style="29"/>
+    <col min="11009" max="11009" width="4" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="14.453125" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="15.1796875" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="53" style="29" customWidth="1"/>
+    <col min="11013" max="11014" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11015" max="11015" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11016" max="11016" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11017" max="11039" width="9.1796875" style="29" bestFit="1"/>
+    <col min="11040" max="11090" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="11091" max="11264" width="9.1796875" style="29"/>
+    <col min="11265" max="11265" width="4" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="14.453125" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="15.1796875" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="53" style="29" customWidth="1"/>
+    <col min="11269" max="11270" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11271" max="11271" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11272" max="11272" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11273" max="11295" width="9.1796875" style="29" bestFit="1"/>
+    <col min="11296" max="11346" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="11347" max="11520" width="9.1796875" style="29"/>
+    <col min="11521" max="11521" width="4" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="14.453125" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="15.1796875" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="53" style="29" customWidth="1"/>
+    <col min="11525" max="11526" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11527" max="11527" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11528" max="11528" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11529" max="11551" width="9.1796875" style="29" bestFit="1"/>
+    <col min="11552" max="11602" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="11603" max="11776" width="9.1796875" style="29"/>
+    <col min="11777" max="11777" width="4" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="14.453125" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="15.1796875" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="53" style="29" customWidth="1"/>
+    <col min="11781" max="11782" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11783" max="11783" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11784" max="11784" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11785" max="11807" width="9.1796875" style="29" bestFit="1"/>
+    <col min="11808" max="11858" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="11859" max="12032" width="9.1796875" style="29"/>
+    <col min="12033" max="12033" width="4" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="14.453125" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="15.1796875" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="53" style="29" customWidth="1"/>
+    <col min="12037" max="12038" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12039" max="12039" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12040" max="12040" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12041" max="12063" width="9.1796875" style="29" bestFit="1"/>
+    <col min="12064" max="12114" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="12115" max="12288" width="9.1796875" style="29"/>
+    <col min="12289" max="12289" width="4" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="14.453125" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="15.1796875" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="53" style="29" customWidth="1"/>
+    <col min="12293" max="12294" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12295" max="12295" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12296" max="12296" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12297" max="12319" width="9.1796875" style="29" bestFit="1"/>
+    <col min="12320" max="12370" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="12371" max="12544" width="9.1796875" style="29"/>
+    <col min="12545" max="12545" width="4" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="14.453125" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="15.1796875" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="53" style="29" customWidth="1"/>
+    <col min="12549" max="12550" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12551" max="12551" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12552" max="12552" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12553" max="12575" width="9.1796875" style="29" bestFit="1"/>
+    <col min="12576" max="12626" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="12627" max="12800" width="9.1796875" style="29"/>
+    <col min="12801" max="12801" width="4" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="14.453125" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="15.1796875" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="53" style="29" customWidth="1"/>
+    <col min="12805" max="12806" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12807" max="12807" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12808" max="12808" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12809" max="12831" width="9.1796875" style="29" bestFit="1"/>
+    <col min="12832" max="12882" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="12883" max="13056" width="9.1796875" style="29"/>
+    <col min="13057" max="13057" width="4" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="14.453125" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="15.1796875" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="53" style="29" customWidth="1"/>
+    <col min="13061" max="13062" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13063" max="13063" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13064" max="13064" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13065" max="13087" width="9.1796875" style="29" bestFit="1"/>
+    <col min="13088" max="13138" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="13139" max="13312" width="9.1796875" style="29"/>
+    <col min="13313" max="13313" width="4" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="14.453125" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="15.1796875" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="53" style="29" customWidth="1"/>
+    <col min="13317" max="13318" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13319" max="13319" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13320" max="13320" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13321" max="13343" width="9.1796875" style="29" bestFit="1"/>
+    <col min="13344" max="13394" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="13395" max="13568" width="9.1796875" style="29"/>
+    <col min="13569" max="13569" width="4" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="14.453125" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="15.1796875" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="53" style="29" customWidth="1"/>
+    <col min="13573" max="13574" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13575" max="13575" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13576" max="13576" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13577" max="13599" width="9.1796875" style="29" bestFit="1"/>
+    <col min="13600" max="13650" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="13651" max="13824" width="9.1796875" style="29"/>
+    <col min="13825" max="13825" width="4" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="14.453125" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="15.1796875" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="53" style="29" customWidth="1"/>
+    <col min="13829" max="13830" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13831" max="13831" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13832" max="13832" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13833" max="13855" width="9.1796875" style="29" bestFit="1"/>
+    <col min="13856" max="13906" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="13907" max="14080" width="9.1796875" style="29"/>
+    <col min="14081" max="14081" width="4" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="14.453125" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="15.1796875" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="53" style="29" customWidth="1"/>
+    <col min="14085" max="14086" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14087" max="14087" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14088" max="14088" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14089" max="14111" width="9.1796875" style="29" bestFit="1"/>
+    <col min="14112" max="14162" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="14163" max="14336" width="9.1796875" style="29"/>
+    <col min="14337" max="14337" width="4" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="14.453125" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="15.1796875" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="53" style="29" customWidth="1"/>
+    <col min="14341" max="14342" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14343" max="14343" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14344" max="14344" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14345" max="14367" width="9.1796875" style="29" bestFit="1"/>
+    <col min="14368" max="14418" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="14419" max="14592" width="9.1796875" style="29"/>
+    <col min="14593" max="14593" width="4" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="14.453125" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="15.1796875" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="53" style="29" customWidth="1"/>
+    <col min="14597" max="14598" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14599" max="14599" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14600" max="14600" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14601" max="14623" width="9.1796875" style="29" bestFit="1"/>
+    <col min="14624" max="14674" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="14675" max="14848" width="9.1796875" style="29"/>
+    <col min="14849" max="14849" width="4" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="14.453125" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="15.1796875" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="53" style="29" customWidth="1"/>
+    <col min="14853" max="14854" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14855" max="14855" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14856" max="14856" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14857" max="14879" width="9.1796875" style="29" bestFit="1"/>
+    <col min="14880" max="14930" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="14931" max="15104" width="9.1796875" style="29"/>
+    <col min="15105" max="15105" width="4" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="14.453125" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="15.1796875" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="53" style="29" customWidth="1"/>
+    <col min="15109" max="15110" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15111" max="15111" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15112" max="15112" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15113" max="15135" width="9.1796875" style="29" bestFit="1"/>
+    <col min="15136" max="15186" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="15187" max="15360" width="9.1796875" style="29"/>
+    <col min="15361" max="15361" width="4" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="14.453125" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="15.1796875" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="53" style="29" customWidth="1"/>
+    <col min="15365" max="15366" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15367" max="15367" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15368" max="15368" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15369" max="15391" width="9.1796875" style="29" bestFit="1"/>
+    <col min="15392" max="15442" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="15443" max="15616" width="9.1796875" style="29"/>
+    <col min="15617" max="15617" width="4" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="14.453125" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="15.1796875" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="53" style="29" customWidth="1"/>
+    <col min="15621" max="15622" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15623" max="15623" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15624" max="15624" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15625" max="15647" width="9.1796875" style="29" bestFit="1"/>
+    <col min="15648" max="15698" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="15699" max="15872" width="9.1796875" style="29"/>
+    <col min="15873" max="15873" width="4" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="14.453125" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="15.1796875" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="53" style="29" customWidth="1"/>
+    <col min="15877" max="15878" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15879" max="15879" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15880" max="15880" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15881" max="15903" width="9.1796875" style="29" bestFit="1"/>
+    <col min="15904" max="15954" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="15955" max="16128" width="9.1796875" style="29"/>
+    <col min="16129" max="16129" width="4" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="14.453125" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="15.1796875" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="53" style="29" customWidth="1"/>
+    <col min="16133" max="16134" width="13.1796875" style="29" customWidth="1"/>
+    <col min="16135" max="16135" width="11.1796875" style="29" customWidth="1"/>
+    <col min="16136" max="16136" width="4.26953125" style="29" customWidth="1"/>
+    <col min="16137" max="16159" width="9.1796875" style="29" bestFit="1"/>
+    <col min="16160" max="16210" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="16211" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="32"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="103" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="93" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="32"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="32"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="93" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="32"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="32"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="32"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="32"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="32"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="42" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="32"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="43" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="AF34" s="30">
+      <c r="H34" s="31"/>
+      <c r="AF34" s="29">
         <v>5.5</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3778,12 +3778,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3795,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A170" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3809,26 +3803,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3837,8 +3831,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3847,8 +3841,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3857,8 +3851,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3867,8 +3861,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3877,8 +3871,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3887,8 +3881,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3897,8 +3891,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3907,8 +3901,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3917,8 +3911,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3927,8 +3921,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3937,8 +3931,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="127"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3947,8 +3941,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3957,8 +3951,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3967,8 +3961,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -3977,84 +3971,84 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
-      <c r="B26" s="70" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4062,331 +4056,331 @@
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>34</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="68"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="65"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="68"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="65"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="68"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="117"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="106"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="120"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="120"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="119"/>
-      <c r="D52" s="120"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="103"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="120"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="120"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="120"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="103"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="119"/>
-      <c r="D56" s="120"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="103"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="117"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="117"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="115" t="s">
+      <c r="B60" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="117"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4395,8 +4389,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="121"/>
-      <c r="D61" s="122"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="108"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4405,8 +4399,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="121"/>
-      <c r="D62" s="122"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="108"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4415,8 +4409,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="121"/>
-      <c r="D63" s="122"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="108"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4425,8 +4419,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="121"/>
-      <c r="D64" s="122"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="108"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4435,8 +4429,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="121"/>
-      <c r="D65" s="122"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="108"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4445,200 +4439,200 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="121"/>
-      <c r="D66" s="122"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="108"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="116"/>
-      <c r="D67" s="117"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="119"/>
-      <c r="D68" s="120"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="103"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="115" t="s">
+      <c r="B69" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="116"/>
-      <c r="D69" s="117"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="106"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="119"/>
-      <c r="D70" s="120"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="119"/>
-      <c r="D71" s="120"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="103"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="119"/>
-      <c r="D72" s="120"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="103"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="119"/>
-      <c r="D73" s="120"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="103"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="103"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="123"/>
-      <c r="D75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="125"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="119"/>
-      <c r="D76" s="120"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="103"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="120"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="103"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="120"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="103"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="119"/>
-      <c r="D79" s="120"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="119"/>
-      <c r="D80" s="120"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="123" t="s">
+      <c r="B81" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="123"/>
-      <c r="D81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="125"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="119"/>
-      <c r="D82" s="120"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="103"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="119"/>
-      <c r="D83" s="120"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="119"/>
-      <c r="D84" s="120"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="103"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="119"/>
-      <c r="D85" s="120"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="103"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="119"/>
-      <c r="D86" s="120"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="103"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4647,104 +4641,104 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="119"/>
-      <c r="D87" s="120"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="119"/>
-      <c r="D88" s="120"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="119"/>
-      <c r="D89" s="120"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="103"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="115" t="s">
+      <c r="B90" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="116"/>
-      <c r="D90" s="117"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="106"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="119"/>
-      <c r="D91" s="120"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="103"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="119"/>
-      <c r="D92" s="120"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="103"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="119"/>
-      <c r="D93" s="120"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="103"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="67" t="s">
+      <c r="B94" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="119"/>
-      <c r="D94" s="120"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="103"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="116"/>
-      <c r="D95" s="117"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="106"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
-      <c r="B96" s="67" t="s">
+      <c r="B96" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="119"/>
-      <c r="D96" s="120"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="103"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="121"/>
-      <c r="D97" s="122"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="108"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4753,280 +4747,280 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="119"/>
-      <c r="D98" s="120"/>
+      <c r="C98" s="102"/>
+      <c r="D98" s="103"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="119"/>
-      <c r="D99" s="120"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="103"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
-      <c r="B100" s="67" t="s">
+      <c r="B100" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="119"/>
-      <c r="D100" s="120"/>
+      <c r="C100" s="102"/>
+      <c r="D100" s="103"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="116"/>
-      <c r="D101" s="117"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="106"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
-      <c r="B102" s="67" t="s">
+      <c r="B102" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="121"/>
-      <c r="D102" s="122"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="108"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="121"/>
-      <c r="D103" s="122"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="108"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="121"/>
-      <c r="D104" s="122"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="108"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="121"/>
-      <c r="D105" s="122"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="108"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="115" t="s">
+      <c r="B106" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="116"/>
-      <c r="D106" s="117"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="106"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
-      <c r="B107" s="69" t="s">
+      <c r="B107" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="119"/>
-      <c r="D107" s="120"/>
+      <c r="C107" s="102"/>
+      <c r="D107" s="103"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="115" t="s">
+      <c r="B108" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="116"/>
-      <c r="D108" s="117"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="106"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
-      <c r="B109" s="67" t="s">
+      <c r="B109" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="119"/>
-      <c r="D109" s="120"/>
+      <c r="C109" s="102"/>
+      <c r="D109" s="103"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="119"/>
-      <c r="D110" s="120"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="103"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
-      <c r="B111" s="67" t="s">
+      <c r="B111" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="119"/>
-      <c r="D111" s="120"/>
+      <c r="C111" s="102"/>
+      <c r="D111" s="103"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="119"/>
-      <c r="D112" s="120"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="103"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="119"/>
-      <c r="D113" s="120"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="103"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="119"/>
-      <c r="D114" s="120"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="103"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="119"/>
-      <c r="D115" s="120"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="103"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
-      <c r="B116" s="67" t="s">
+      <c r="B116" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="119"/>
-      <c r="D116" s="120"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="103"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
-      <c r="B117" s="67" t="s">
+      <c r="B117" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="119"/>
-      <c r="D117" s="120"/>
+      <c r="C117" s="102"/>
+      <c r="D117" s="103"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
-      <c r="B118" s="67" t="s">
+      <c r="B118" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="119"/>
-      <c r="D118" s="120"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="103"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
-      <c r="B119" s="67" t="s">
+      <c r="B119" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="121"/>
-      <c r="D119" s="122"/>
+      <c r="C119" s="112"/>
+      <c r="D119" s="108"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
-      <c r="B120" s="67" t="s">
+      <c r="B120" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="121"/>
-      <c r="D120" s="122"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="108"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="121"/>
-      <c r="D121" s="122"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="108"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
-      <c r="B122" s="67" t="s">
+      <c r="B122" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="121"/>
-      <c r="D122" s="122"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="108"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B123" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="119"/>
-      <c r="D123" s="120"/>
+      <c r="C123" s="102"/>
+      <c r="D123" s="103"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="119"/>
-      <c r="D124" s="120"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="103"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
-      <c r="B125" s="67" t="s">
+      <c r="B125" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="119"/>
-      <c r="D125" s="120"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="103"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="115" t="s">
+      <c r="B126" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="125"/>
-      <c r="D126" s="126"/>
+      <c r="C126" s="122"/>
+      <c r="D126" s="123"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
@@ -5035,18 +5029,18 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="119"/>
-      <c r="D127" s="120"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="103"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
-      <c r="B128" s="67" t="s">
+      <c r="B128" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="119"/>
-      <c r="D128" s="120"/>
+      <c r="C128" s="102"/>
+      <c r="D128" s="103"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5055,154 +5049,154 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="119"/>
-      <c r="D129" s="120"/>
+      <c r="C129" s="102"/>
+      <c r="D129" s="103"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
-      <c r="B130" s="67" t="s">
+      <c r="B130" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="121"/>
-      <c r="D130" s="122"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="108"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="115" t="s">
+      <c r="B131" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="116"/>
-      <c r="D131" s="117"/>
+      <c r="C131" s="105"/>
+      <c r="D131" s="106"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>110</v>
       </c>
-      <c r="B132" s="67" t="s">
+      <c r="B132" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="119"/>
-      <c r="D132" s="120"/>
+      <c r="C132" s="102"/>
+      <c r="D132" s="103"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>111</v>
       </c>
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="119"/>
-      <c r="D133" s="120"/>
+      <c r="C133" s="102"/>
+      <c r="D133" s="103"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>112</v>
       </c>
-      <c r="B134" s="62" t="s">
+      <c r="B134" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="121"/>
-      <c r="D134" s="122"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="108"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
-      <c r="B135" s="62" t="s">
+      <c r="B135" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="119"/>
-      <c r="D135" s="120"/>
+      <c r="C135" s="102"/>
+      <c r="D135" s="103"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
-      <c r="B136" s="62" t="s">
+      <c r="B136" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="119"/>
-      <c r="D136" s="120"/>
+      <c r="C136" s="102"/>
+      <c r="D136" s="103"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="121"/>
-      <c r="D137" s="122"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="108"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
-      <c r="B138" s="62" t="s">
+      <c r="B138" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="119"/>
-      <c r="D138" s="120"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="103"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
-      <c r="B139" s="62" t="s">
+      <c r="B139" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="119"/>
-      <c r="D139" s="120"/>
+      <c r="C139" s="102"/>
+      <c r="D139" s="103"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
-      <c r="B140" s="62" t="s">
+      <c r="B140" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="121"/>
-      <c r="D140" s="122"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="108"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
-      <c r="B141" s="62" t="s">
+      <c r="B141" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="121"/>
-      <c r="D141" s="122"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="108"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
-      <c r="B142" s="62" t="s">
+      <c r="B142" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="119"/>
-      <c r="D142" s="120"/>
+      <c r="C142" s="102"/>
+      <c r="D142" s="103"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
-      <c r="B143" s="62" t="s">
+      <c r="B143" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="136"/>
-      <c r="D143" s="122"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="115" t="s">
+      <c r="B144" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="116"/>
-      <c r="D144" s="117"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="106"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5211,64 +5205,64 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="129"/>
-      <c r="D145" s="130"/>
+      <c r="C145" s="120"/>
+      <c r="D145" s="121"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="115" t="s">
+      <c r="B146" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="116"/>
-      <c r="D146" s="117"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="106"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>124</v>
       </c>
-      <c r="B147" s="67" t="s">
+      <c r="B147" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="119"/>
-      <c r="D147" s="120"/>
+      <c r="C147" s="102"/>
+      <c r="D147" s="103"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
-      <c r="B148" s="67" t="s">
+      <c r="B148" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="119"/>
-      <c r="D148" s="120"/>
+      <c r="C148" s="102"/>
+      <c r="D148" s="103"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>126</v>
       </c>
-      <c r="B149" s="67" t="s">
+      <c r="B149" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="119"/>
-      <c r="D149" s="120"/>
+      <c r="C149" s="102"/>
+      <c r="D149" s="103"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="115" t="s">
+      <c r="B150" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="116"/>
-      <c r="D150" s="117"/>
+      <c r="C150" s="105"/>
+      <c r="D150" s="106"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
-      <c r="B151" s="70" t="s">
+      <c r="B151" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C151" s="70" t="s">
+      <c r="C151" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="71" t="s">
+      <c r="D151" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5276,169 +5270,169 @@
       <c r="A152" s="1">
         <v>127</v>
       </c>
-      <c r="B152" s="67" t="s">
+      <c r="B152" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="67"/>
-      <c r="D152" s="68"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="65"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>128</v>
       </c>
-      <c r="B153" s="67" t="s">
+      <c r="B153" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="67"/>
-      <c r="D153" s="68"/>
+      <c r="C153" s="64"/>
+      <c r="D153" s="65"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>129</v>
       </c>
-      <c r="B154" s="67" t="s">
+      <c r="B154" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C154" s="67"/>
-      <c r="D154" s="68"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="65"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>130</v>
       </c>
-      <c r="B155" s="67" t="s">
+      <c r="B155" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="67"/>
-      <c r="D155" s="68"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="65"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>131</v>
       </c>
-      <c r="B156" s="67" t="s">
+      <c r="B156" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="67"/>
-      <c r="D156" s="68"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="65"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>132</v>
       </c>
-      <c r="B157" s="67" t="s">
+      <c r="B157" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C157" s="67"/>
-      <c r="D157" s="68"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="65"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>133</v>
       </c>
-      <c r="B158" s="67" t="s">
+      <c r="B158" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C158" s="67"/>
-      <c r="D158" s="68"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="65"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="115" t="s">
+      <c r="B159" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="116"/>
-      <c r="D159" s="117"/>
+      <c r="C159" s="105"/>
+      <c r="D159" s="106"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
-      <c r="B160" s="67" t="s">
+      <c r="B160" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="127"/>
-      <c r="D160" s="128"/>
+      <c r="C160" s="113"/>
+      <c r="D160" s="114"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
-      <c r="B161" s="67" t="s">
+      <c r="B161" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="127"/>
-      <c r="D161" s="128"/>
+      <c r="C161" s="113"/>
+      <c r="D161" s="114"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>136</v>
       </c>
-      <c r="B162" s="67" t="s">
+      <c r="B162" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="127"/>
-      <c r="D162" s="128"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="114"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>137</v>
       </c>
-      <c r="B163" s="67" t="s">
+      <c r="B163" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="127"/>
-      <c r="D163" s="128"/>
+      <c r="C163" s="113"/>
+      <c r="D163" s="114"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>138</v>
       </c>
-      <c r="B164" s="67" t="s">
+      <c r="B164" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="127"/>
-      <c r="D164" s="128"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="114"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>139</v>
       </c>
-      <c r="B165" s="67" t="s">
+      <c r="B165" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="127"/>
-      <c r="D165" s="128"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="114"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>140</v>
       </c>
-      <c r="B166" s="67" t="s">
+      <c r="B166" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="127"/>
-      <c r="D166" s="128"/>
+      <c r="C166" s="113"/>
+      <c r="D166" s="114"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>141</v>
       </c>
-      <c r="B167" s="67" t="s">
+      <c r="B167" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="127"/>
-      <c r="D167" s="128"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="114"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
-      <c r="B168" s="70" t="s">
+      <c r="B168" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C168" s="70" t="s">
+      <c r="C168" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D168" s="71" t="s">
+      <c r="D168" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5446,371 +5440,371 @@
       <c r="A169" s="1">
         <v>142</v>
       </c>
-      <c r="B169" s="67" t="s">
+      <c r="B169" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="67"/>
-      <c r="D169" s="68"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="65"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
-      <c r="B170" s="67" t="s">
+      <c r="B170" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="67"/>
-      <c r="D170" s="68"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="65"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>144</v>
       </c>
-      <c r="B171" s="67" t="s">
+      <c r="B171" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C171" s="67"/>
-      <c r="D171" s="68"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="65"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>145</v>
       </c>
-      <c r="B172" s="67" t="s">
+      <c r="B172" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="67"/>
-      <c r="D172" s="68"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="65"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>146</v>
       </c>
-      <c r="B173" s="67" t="s">
+      <c r="B173" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="67"/>
-      <c r="D173" s="68"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="65"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>147</v>
       </c>
-      <c r="B174" s="67" t="s">
+      <c r="B174" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C174" s="67"/>
-      <c r="D174" s="68"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="65"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>148</v>
       </c>
-      <c r="B175" s="67" t="s">
+      <c r="B175" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C175" s="67"/>
-      <c r="D175" s="68"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="115" t="s">
+      <c r="B176" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="116"/>
-      <c r="D176" s="117"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="106"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
-      <c r="B177" s="67" t="s">
+      <c r="B177" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="119"/>
-      <c r="D177" s="120"/>
+      <c r="C177" s="102"/>
+      <c r="D177" s="103"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
-      <c r="B178" s="67" t="s">
+      <c r="B178" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="119"/>
-      <c r="D178" s="120"/>
+      <c r="C178" s="102"/>
+      <c r="D178" s="103"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>151</v>
       </c>
-      <c r="B179" s="67" t="s">
+      <c r="B179" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="121"/>
-      <c r="D179" s="122"/>
+      <c r="C179" s="112"/>
+      <c r="D179" s="108"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="115" t="s">
+      <c r="B180" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="116"/>
-      <c r="D180" s="117"/>
+      <c r="C180" s="105"/>
+      <c r="D180" s="106"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
-      <c r="B181" s="67" t="s">
+      <c r="B181" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="127"/>
-      <c r="D181" s="128"/>
+      <c r="C181" s="102"/>
+      <c r="D181" s="103"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
-      <c r="B182" s="67" t="s">
+      <c r="B182" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="119"/>
-      <c r="D182" s="120"/>
+      <c r="C182" s="102"/>
+      <c r="D182" s="103"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="115" t="s">
+      <c r="B183" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="116"/>
-      <c r="D183" s="117"/>
+      <c r="C183" s="105"/>
+      <c r="D183" s="106"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
-      <c r="B184" s="67" t="s">
+      <c r="B184" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="119"/>
-      <c r="D184" s="120"/>
+      <c r="C184" s="102"/>
+      <c r="D184" s="103"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
-      <c r="B185" s="67" t="s">
+      <c r="B185" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="119"/>
-      <c r="D185" s="120"/>
+      <c r="C185" s="102"/>
+      <c r="D185" s="103"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>156</v>
       </c>
-      <c r="B186" s="67" t="s">
+      <c r="B186" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="119"/>
-      <c r="D186" s="120"/>
+      <c r="C186" s="102"/>
+      <c r="D186" s="103"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>157</v>
       </c>
-      <c r="B187" s="67" t="s">
+      <c r="B187" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="119"/>
-      <c r="D187" s="120"/>
+      <c r="C187" s="102"/>
+      <c r="D187" s="103"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>158</v>
       </c>
-      <c r="B188" s="67" t="s">
+      <c r="B188" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="137"/>
-      <c r="D188" s="138"/>
+      <c r="C188" s="109"/>
+      <c r="D188" s="110"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>159</v>
       </c>
-      <c r="B189" s="67" t="s">
+      <c r="B189" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="139"/>
-      <c r="D189" s="120"/>
+      <c r="C189" s="111"/>
+      <c r="D189" s="103"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>160</v>
       </c>
-      <c r="B190" s="67" t="s">
+      <c r="B190" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="121"/>
-      <c r="D190" s="122"/>
+      <c r="C190" s="112"/>
+      <c r="D190" s="108"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>161</v>
       </c>
-      <c r="B191" s="67" t="s">
+      <c r="B191" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="119"/>
-      <c r="D191" s="120"/>
+      <c r="C191" s="102"/>
+      <c r="D191" s="103"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>162</v>
       </c>
-      <c r="B192" s="67" t="s">
+      <c r="B192" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="119"/>
-      <c r="D192" s="120"/>
+      <c r="C192" s="102"/>
+      <c r="D192" s="103"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>163</v>
       </c>
-      <c r="B193" s="67" t="s">
+      <c r="B193" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="119"/>
-      <c r="D193" s="120"/>
+      <c r="C193" s="102"/>
+      <c r="D193" s="103"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>164</v>
       </c>
-      <c r="B194" s="67" t="s">
+      <c r="B194" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="119"/>
-      <c r="D194" s="120"/>
+      <c r="C194" s="102"/>
+      <c r="D194" s="103"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>165</v>
       </c>
-      <c r="B195" s="67" t="s">
+      <c r="B195" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="119"/>
-      <c r="D195" s="120"/>
+      <c r="C195" s="102"/>
+      <c r="D195" s="103"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>166</v>
       </c>
-      <c r="B196" s="67" t="s">
+      <c r="B196" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="119"/>
-      <c r="D196" s="120"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="103"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>167</v>
       </c>
-      <c r="B197" s="67" t="s">
+      <c r="B197" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="119"/>
-      <c r="D197" s="120"/>
+      <c r="C197" s="102"/>
+      <c r="D197" s="103"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>168</v>
       </c>
-      <c r="B198" s="67" t="s">
+      <c r="B198" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="119"/>
-      <c r="D198" s="120"/>
+      <c r="C198" s="102"/>
+      <c r="D198" s="103"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="115" t="s">
+      <c r="B199" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="116"/>
-      <c r="D199" s="117"/>
+      <c r="C199" s="105"/>
+      <c r="D199" s="106"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
-      <c r="B200" s="67" t="s">
+      <c r="B200" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="119"/>
-      <c r="D200" s="120"/>
+      <c r="C200" s="102"/>
+      <c r="D200" s="103"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>170</v>
       </c>
-      <c r="B201" s="67" t="s">
+      <c r="B201" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="119"/>
-      <c r="D201" s="120"/>
+      <c r="C201" s="102"/>
+      <c r="D201" s="103"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
-      <c r="B202" s="67" t="s">
+      <c r="B202" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="119"/>
-      <c r="D202" s="120"/>
+      <c r="C202" s="102"/>
+      <c r="D202" s="103"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>172</v>
       </c>
-      <c r="B203" s="63" t="s">
+      <c r="B203" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="133"/>
-      <c r="D203" s="134"/>
+      <c r="C203" s="117"/>
+      <c r="D203" s="118"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
-      <c r="B204" s="63" t="s">
+      <c r="B204" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="133"/>
-      <c r="D204" s="134"/>
+      <c r="C204" s="117"/>
+      <c r="D204" s="118"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="115" t="s">
+      <c r="B205" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="116"/>
-      <c r="D205" s="117"/>
+      <c r="C205" s="105"/>
+      <c r="D205" s="106"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
-      <c r="B206" s="67" t="s">
+      <c r="B206" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="119"/>
-      <c r="D206" s="120"/>
+      <c r="C206" s="102"/>
+      <c r="D206" s="103"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5819,8 +5813,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="135"/>
-      <c r="D207" s="122"/>
+      <c r="C207" s="119"/>
+      <c r="D207" s="108"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5829,8 +5823,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="121"/>
-      <c r="D208" s="122"/>
+      <c r="C208" s="112"/>
+      <c r="D208" s="108"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5839,8 +5833,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="121"/>
-      <c r="D209" s="122"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="108"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5849,8 +5843,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="121"/>
-      <c r="D210" s="122"/>
+      <c r="C210" s="112"/>
+      <c r="D210" s="108"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5859,16 +5853,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="121"/>
-      <c r="D211" s="122"/>
+      <c r="C211" s="112"/>
+      <c r="D211" s="108"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="115" t="s">
+      <c r="B212" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="116"/>
-      <c r="D212" s="117"/>
+      <c r="C212" s="105"/>
+      <c r="D212" s="106"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5877,8 +5871,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="119"/>
-      <c r="D213" s="120"/>
+      <c r="C213" s="102"/>
+      <c r="D213" s="103"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5887,8 +5881,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="119"/>
-      <c r="D214" s="120"/>
+      <c r="C214" s="102"/>
+      <c r="D214" s="103"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5897,21 +5891,174 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="119"/>
-      <c r="D215" s="120"/>
+      <c r="C215" s="102"/>
+      <c r="D215" s="103"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="28">
+      <c r="A216" s="27">
         <v>183</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="131"/>
-      <c r="D216" s="132"/>
+      <c r="C216" s="115"/>
+      <c r="D216" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="B199:D199"/>
@@ -5936,159 +6083,6 @@
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6104,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6130,20 +6124,20 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52">
+      <c r="A5" s="51">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6152,7 +6146,7 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6161,7 +6155,7 @@
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6170,7 +6164,7 @@
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6179,7 +6173,7 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6188,7 +6182,7 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52">
+      <c r="A10" s="51">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6197,7 +6191,7 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52">
+      <c r="A11" s="51">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6206,7 +6200,7 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52">
+      <c r="A12" s="51">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6215,11 +6209,11 @@
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="123" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="125"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6228,32 +6222,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="149"/>
+      <c r="C17" s="147"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6277,29 +6271,29 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="52">
+      <c r="A23" s="51">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -6317,7 +6311,7 @@
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="52">
+      <c r="A25" s="51">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -6335,7 +6329,7 @@
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52">
+      <c r="A27" s="51">
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6353,7 +6347,7 @@
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52">
+      <c r="A29" s="51">
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6371,7 +6365,7 @@
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52">
+      <c r="A31" s="51">
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -6389,7 +6383,7 @@
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="52">
+      <c r="A33" s="51">
         <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -6407,7 +6401,7 @@
       <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="52">
+      <c r="A35" s="51">
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -6425,7 +6419,7 @@
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="52">
+      <c r="A37" s="51">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -6443,7 +6437,7 @@
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="52">
+      <c r="A39" s="51">
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -6461,7 +6455,7 @@
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="52">
+      <c r="A41" s="51">
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -6479,14 +6473,14 @@
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="53"/>
-      <c r="B43" s="146" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="52">
+      <c r="A44" s="51">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -6495,7 +6489,7 @@
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="52">
+      <c r="A45" s="51">
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -6504,7 +6498,7 @@
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="52">
+      <c r="A46" s="51">
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6513,7 +6507,7 @@
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="52">
+      <c r="A47" s="51">
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6522,7 +6516,7 @@
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52">
+      <c r="A48" s="51">
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6531,7 +6525,7 @@
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="52">
+      <c r="A49" s="51">
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -6540,7 +6534,7 @@
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="52">
+      <c r="A50" s="51">
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -6549,14 +6543,14 @@
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="53"/>
-      <c r="B51" s="146" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="147"/>
+      <c r="C51" s="138"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="52">
+      <c r="A52" s="51">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6566,87 +6560,87 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="68"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="65"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="53"/>
-      <c r="B56" s="146" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="138"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="51">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="147"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="52">
-        <v>46</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="51">
+        <v>47</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="52">
-        <v>47</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="51">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="52">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="51">
+        <v>49</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="52">
-        <v>49</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="51">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="52">
-        <v>50</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="53">
+        <v>51</v>
+      </c>
+      <c r="B62" s="54" t="s">
         <v>264</v>
-      </c>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="54">
-        <v>51</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>265</v>
       </c>
       <c r="C62" s="18"/>
     </row>
@@ -6659,16 +6653,16 @@
     <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6685,8 +6679,8 @@
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A38" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6711,20 +6705,20 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="146" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="147"/>
+      <c r="B3" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52">
+      <c r="A5" s="51">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6733,7 +6727,7 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6742,7 +6736,7 @@
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6751,7 +6745,7 @@
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6760,7 +6754,7 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6769,7 +6763,7 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52">
+      <c r="A10" s="51">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6778,7 +6772,7 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52">
+      <c r="A11" s="51">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6787,7 +6781,7 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52">
+      <c r="A12" s="51">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6796,11 +6790,11 @@
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="123" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="125"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6809,32 +6803,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="149"/>
+      <c r="C17" s="147"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6858,29 +6852,29 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="52">
+      <c r="A23" s="51">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -6898,7 +6892,7 @@
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="52">
+      <c r="A25" s="51">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -6916,7 +6910,7 @@
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52">
+      <c r="A27" s="51">
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6934,7 +6928,7 @@
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52">
+      <c r="A29" s="51">
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6952,7 +6946,7 @@
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52">
+      <c r="A31" s="51">
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -6970,7 +6964,7 @@
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="52">
+      <c r="A33" s="51">
         <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -6988,7 +6982,7 @@
       <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="52">
+      <c r="A35" s="51">
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -7006,7 +7000,7 @@
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="52">
+      <c r="A37" s="51">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -7024,7 +7018,7 @@
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="52">
+      <c r="A39" s="51">
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -7042,7 +7036,7 @@
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="52">
+      <c r="A41" s="51">
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -7060,14 +7054,14 @@
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="53"/>
-      <c r="B43" s="146" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="52">
+      <c r="A44" s="51">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7076,7 +7070,7 @@
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="52">
+      <c r="A45" s="51">
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -7085,7 +7079,7 @@
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="52">
+      <c r="A46" s="51">
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7094,7 +7088,7 @@
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="52">
+      <c r="A47" s="51">
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7103,7 +7097,7 @@
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52">
+      <c r="A48" s="51">
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7112,7 +7106,7 @@
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="52">
+      <c r="A49" s="51">
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -7121,7 +7115,7 @@
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="52">
+      <c r="A50" s="51">
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -7131,87 +7125,87 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="124"/>
+      <c r="C51" s="125"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>43</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="65"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="65"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="53"/>
-      <c r="B54" s="146" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="C54" s="138"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="51">
+        <v>45</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="147"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="52">
-        <v>45</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="51">
+        <v>46</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="52">
-        <v>46</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="51">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="52">
-        <v>47</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="51">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="52">
-        <v>48</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="51">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="52">
-        <v>49</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="53">
+        <v>50</v>
+      </c>
+      <c r="B60" s="54" t="s">
         <v>264</v>
-      </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="54">
-        <v>50</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>265</v>
       </c>
       <c r="C60" s="18"/>
     </row>
@@ -7247,8 +7241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="1" sqref="H192 C11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A189" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7272,21 +7266,21 @@
       <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="53"/>
-      <c r="B3" s="146" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="53"/>
-      <c r="B4" s="123" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52">
+      <c r="A5" s="51">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7295,7 +7289,7 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -7304,7 +7298,7 @@
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -7313,7 +7307,7 @@
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7322,7 +7316,7 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7331,7 +7325,7 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52">
+      <c r="A10" s="51">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7340,7 +7334,7 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52">
+      <c r="A11" s="51">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7349,7 +7343,7 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="52">
+      <c r="A12" s="51">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -7358,14 +7352,14 @@
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="148" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="157"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="52">
+      <c r="A14" s="51">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -7374,7 +7368,7 @@
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7383,20 +7377,20 @@
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="52">
+      <c r="A16" s="51">
         <v>11</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="53"/>
-      <c r="B17" s="123" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="125"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7405,41 +7399,41 @@
       <c r="B18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="65"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="65"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
@@ -7622,14 +7616,14 @@
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="53"/>
-      <c r="B43" s="146" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="52">
+      <c r="A44" s="51">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7638,7 +7632,7 @@
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="52">
+      <c r="A45" s="51">
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -7647,7 +7641,7 @@
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="52">
+      <c r="A46" s="51">
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7656,7 +7650,7 @@
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="52">
+      <c r="A47" s="51">
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7665,7 +7659,7 @@
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="52">
+      <c r="A48" s="51">
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7674,7 +7668,7 @@
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="52">
+      <c r="A49" s="51">
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -7683,7 +7677,7 @@
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="52">
+      <c r="A50" s="51">
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -7692,14 +7686,14 @@
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="53"/>
-      <c r="B51" s="146" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="147"/>
+      <c r="C51" s="138"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="52">
+      <c r="A52" s="51">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -7709,1316 +7703,1320 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="68"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="65"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="56"/>
+      <c r="B56" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="138"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="56"/>
+      <c r="B57" s="137" t="s">
         <v>267</v>
       </c>
-      <c r="C55" s="68"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="58"/>
-      <c r="B56" s="146" t="s">
+      <c r="C57" s="138"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="56">
+        <v>46</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="56">
+        <v>47</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="56">
+        <v>44</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="56"/>
+      <c r="B61" s="137" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="138"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="57">
+        <v>45</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="17"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="57">
+        <v>46</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="17"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="57">
+        <v>47</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="57">
+        <v>48</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="57">
+        <v>49</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="57">
+        <v>50</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="57">
+        <v>51</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="17"/>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="57">
+        <v>52</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="17"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="57">
+        <v>53</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="56"/>
+      <c r="B71" s="137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" s="138"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="57">
+        <v>54</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="57">
+        <v>55</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="57">
+        <v>56</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="57">
+        <v>57</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="56"/>
+      <c r="B76" s="152" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="153"/>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="57">
+        <v>58</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="17"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="57">
+        <v>59</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="17"/>
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="57">
+        <v>60</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="57">
+        <v>61</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="17"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="57">
+        <v>62</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="17"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="57">
+        <v>63</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="17"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="57">
+        <v>64</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="17"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="56"/>
+      <c r="B84" s="152" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="153"/>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="57">
+        <v>65</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="20"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="57">
+        <v>66</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="20"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="57"/>
+      <c r="B87" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="C87" s="138"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="57">
+        <v>67</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="57">
+        <v>68</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="57">
+        <v>69</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="57">
+        <v>70</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="22"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="57">
+        <v>71</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" s="22"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="56"/>
+      <c r="B93" s="152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" s="153"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="57">
         <v>72</v>
       </c>
-      <c r="C56" s="147"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="58"/>
-      <c r="B57" s="146" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" s="147"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="58">
-        <v>46</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="58">
-        <v>47</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="58">
-        <v>44</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C60" s="57"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="58"/>
-      <c r="B61" s="146" t="s">
-        <v>272</v>
-      </c>
-      <c r="C61" s="147"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="59">
-        <v>45</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C62" s="17"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="59">
-        <v>46</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C63" s="17"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="59">
-        <v>47</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C64" s="17"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="59">
-        <v>48</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" s="17"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="59">
-        <v>49</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="59">
-        <v>50</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" s="17"/>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="59">
-        <v>51</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="17"/>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="59">
-        <v>52</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="59">
-        <v>53</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="58"/>
-      <c r="B71" s="146" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="147"/>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="59">
-        <v>54</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="59">
-        <v>55</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C73" s="16"/>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="59">
-        <v>56</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C74" s="16"/>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="59">
-        <v>57</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C75" s="16"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="58"/>
-      <c r="B76" s="152" t="s">
-        <v>287</v>
-      </c>
-      <c r="C76" s="153"/>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="59">
-        <v>58</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" s="17"/>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="59">
-        <v>59</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78" s="17"/>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="59">
-        <v>60</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" s="17"/>
-    </row>
-    <row r="80" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="59">
-        <v>61</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C80" s="17"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="59">
-        <v>62</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" s="17"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="59">
-        <v>63</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C82" s="17"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="59">
-        <v>64</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C83" s="17"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="58"/>
-      <c r="B84" s="152" t="s">
-        <v>295</v>
-      </c>
-      <c r="C84" s="153"/>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="59">
-        <v>65</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" s="20"/>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="59">
-        <v>66</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C86" s="20"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="59"/>
-      <c r="B87" s="146" t="s">
-        <v>298</v>
-      </c>
-      <c r="C87" s="147"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="59">
-        <v>67</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C88" s="16"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="59">
-        <v>68</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C89" s="16"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="59">
-        <v>69</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C90" s="16"/>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="59">
-        <v>70</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C91" s="22"/>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="59">
-        <v>71</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="C92" s="22"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="58"/>
-      <c r="B93" s="152" t="s">
+      <c r="B94" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C93" s="153"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="59">
-        <v>72</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="57">
+        <v>73</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="59">
-        <v>73</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="57">
+        <v>74</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="59">
-        <v>74</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="57">
+        <v>75</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="59">
-        <v>75</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="57">
+        <v>76</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="59">
-        <v>76</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="17"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="57">
+        <v>77</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C98" s="17"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="59">
-        <v>77</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="17"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="56"/>
+      <c r="B100" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="17"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="58"/>
-      <c r="B100" s="152" t="s">
+      <c r="C100" s="153"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="57">
+        <v>78</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="17"/>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="57">
+        <v>79</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="17"/>
+    </row>
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="57">
+        <v>80</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="17"/>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="57">
+        <v>81</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C100" s="153"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="59">
-        <v>78</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="C104" s="17"/>
+    </row>
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="57"/>
+      <c r="B105" s="148" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="156"/>
+    </row>
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="57">
+        <v>82</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="17"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="57">
+        <v>83</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="17"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="57">
+        <v>84</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="17"/>
+    </row>
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="56"/>
+      <c r="B109" s="152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" s="153"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="57">
+        <v>85</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="17"/>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="57">
+        <v>86</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C101" s="17"/>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="59">
-        <v>79</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="C111" s="17"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="57">
+        <v>87</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C102" s="17"/>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="59">
-        <v>80</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="C112" s="17"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="57">
+        <v>88</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="17"/>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="59">
-        <v>81</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="17"/>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="59"/>
-      <c r="B105" s="154" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="155"/>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="59">
-        <v>82</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C106" s="17"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="59">
-        <v>83</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="17"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="59">
-        <v>84</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C108" s="17"/>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="58"/>
-      <c r="B109" s="152" t="s">
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="57">
+        <v>89</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="57">
+        <v>90</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="153"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="59">
-        <v>85</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="56"/>
+      <c r="B116" s="152" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" s="153"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="57">
+        <v>91</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" s="17"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="57">
+        <v>92</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C110" s="17"/>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="59">
-        <v>86</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="C118" s="17"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="57">
+        <v>93</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C111" s="17"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="59">
-        <v>87</v>
-      </c>
-      <c r="B112" s="3" t="s">
+      <c r="C119" s="17"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="57">
+        <v>94</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="17"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="57">
+        <v>95</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="17"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="57">
+        <v>96</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" s="17"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="56"/>
+      <c r="B123" s="152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="153"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="57">
+        <v>97</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" s="17"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="57">
+        <v>98</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" s="17"/>
+    </row>
+    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="57">
+        <v>99</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" s="17"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="57">
+        <v>100</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C112" s="17"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="59">
-        <v>88</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C113" s="17"/>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="59">
-        <v>89</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C114" s="17"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="59">
-        <v>90</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C115" s="17"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="58"/>
-      <c r="B116" s="152" t="s">
-        <v>318</v>
-      </c>
-      <c r="C116" s="153"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="59">
-        <v>91</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="C127" s="17"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="57">
+        <v>101</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C128" s="17"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="57">
+        <v>102</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C129" s="17"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="56"/>
+      <c r="B130" s="152" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="153"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="57">
+        <v>103</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="17"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="57">
+        <v>104</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C117" s="17"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="59">
-        <v>92</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="C132" s="17"/>
+    </row>
+    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="57">
+        <v>105</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C118" s="17"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="59">
-        <v>93</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="C133" s="17"/>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="57">
+        <v>106</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C119" s="17"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="59">
-        <v>94</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C120" s="17"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="59">
-        <v>95</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C121" s="17"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="59">
-        <v>96</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C122" s="17"/>
-    </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="58"/>
-      <c r="B123" s="152" t="s">
-        <v>320</v>
-      </c>
-      <c r="C123" s="153"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="59">
-        <v>97</v>
-      </c>
-      <c r="B124" s="3" t="s">
+      <c r="C134" s="17"/>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="57">
+        <v>107</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C135" s="17"/>
+    </row>
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="57">
+        <v>108</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="17"/>
+    </row>
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="56"/>
+      <c r="B137" s="152" t="s">
+        <v>321</v>
+      </c>
+      <c r="C137" s="153"/>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="57">
+        <v>109</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" s="17"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="57">
+        <v>110</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C124" s="17"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="59">
-        <v>98</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="C139" s="17"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="57">
+        <v>111</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C125" s="17"/>
-    </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="59">
-        <v>99</v>
-      </c>
-      <c r="B126" s="3" t="s">
+      <c r="C140" s="17"/>
+    </row>
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="57">
+        <v>112</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C126" s="17"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="59">
-        <v>100</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C127" s="17"/>
-    </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="59">
-        <v>101</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C128" s="17"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="59">
-        <v>102</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C129" s="17"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="58"/>
-      <c r="B130" s="152" t="s">
-        <v>321</v>
-      </c>
-      <c r="C130" s="153"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="59">
-        <v>103</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C131" s="17"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="59">
-        <v>104</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C132" s="17"/>
-    </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="59">
-        <v>105</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" s="17"/>
-    </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="59">
-        <v>106</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" s="17"/>
-    </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="59">
-        <v>107</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C135" s="17"/>
-    </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="59">
-        <v>108</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C136" s="23"/>
-    </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="58"/>
-      <c r="B137" s="152" t="s">
+      <c r="C141" s="17"/>
+    </row>
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="57">
+        <v>113</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" s="17"/>
+    </row>
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="57">
+        <v>114</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C143" s="17"/>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="57"/>
+      <c r="B144" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="149"/>
+    </row>
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="57">
+        <v>115</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="153"/>
-    </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="59">
-        <v>109</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="17"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="59">
-        <v>110</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C139" s="17"/>
-    </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="59">
-        <v>111</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C140" s="17"/>
-    </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="59">
-        <v>112</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C141" s="17"/>
-    </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="59">
-        <v>113</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C142" s="17"/>
-    </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="59">
-        <v>114</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C143" s="17"/>
-    </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="59"/>
-      <c r="B144" s="154" t="s">
+      <c r="C145" s="17"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="57">
+        <v>116</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" s="17"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="57">
+        <v>117</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C147" s="17"/>
+    </row>
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="57">
+        <v>118</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C148" s="17"/>
+    </row>
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="57">
+        <v>119</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" s="17"/>
+    </row>
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="57">
+        <v>120</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="17"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="57"/>
+      <c r="B151" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" s="151"/>
+    </row>
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="57">
+        <v>121</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C152" s="17"/>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="57">
+        <v>122</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" s="17"/>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="57">
+        <v>123</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="17"/>
+    </row>
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="57">
+        <v>124</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" s="17"/>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="57">
+        <v>125</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="17"/>
+    </row>
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="57">
+        <v>126</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C157" s="17"/>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="56"/>
+      <c r="B158" s="152" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="153"/>
+    </row>
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="57">
+        <v>127</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C159" s="17"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="57">
+        <v>128</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C160" s="17"/>
+    </row>
+    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="57">
+        <v>129</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C161" s="17"/>
+    </row>
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="56"/>
+      <c r="B162" s="152" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="153"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="57">
+        <v>130</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C163" s="20"/>
+    </row>
+    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="57">
+        <v>131</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="20"/>
+    </row>
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="57">
+        <v>132</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165" s="20"/>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="56"/>
+      <c r="B166" s="152" t="s">
+        <v>343</v>
+      </c>
+      <c r="C166" s="153"/>
+    </row>
+    <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="57">
+        <v>133</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C167" s="17"/>
+    </row>
+    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="57">
         <v>134</v>
       </c>
-      <c r="C144" s="156"/>
-    </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="59">
-        <v>115</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C145" s="17"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="59">
-        <v>116</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C146" s="17"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="59">
-        <v>117</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C147" s="17"/>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="59">
-        <v>118</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C148" s="17"/>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="59">
-        <v>119</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C149" s="17"/>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="59">
-        <v>120</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C150" s="17"/>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="59"/>
-      <c r="B151" s="157" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="158"/>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="59">
-        <v>121</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C152" s="17"/>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="59">
-        <v>122</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C153" s="17"/>
-    </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="59">
-        <v>123</v>
-      </c>
-      <c r="B154" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C154" s="17"/>
-    </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="59">
-        <v>124</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C155" s="17"/>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="59">
-        <v>125</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C156" s="17"/>
-    </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="59">
-        <v>126</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C157" s="17"/>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="58"/>
-      <c r="B158" s="152" t="s">
-        <v>336</v>
-      </c>
-      <c r="C158" s="153"/>
-    </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="59">
-        <v>127</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C159" s="17"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="59">
-        <v>128</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C160" s="17"/>
-    </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="59">
-        <v>129</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C161" s="17"/>
-    </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="58"/>
-      <c r="B162" s="152" t="s">
-        <v>340</v>
-      </c>
-      <c r="C162" s="153"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="59">
-        <v>130</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C163" s="20"/>
-    </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="59">
-        <v>131</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C164" s="20"/>
-    </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="59">
-        <v>132</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C165" s="20"/>
-    </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="58"/>
-      <c r="B166" s="152" t="s">
-        <v>344</v>
-      </c>
-      <c r="C166" s="153"/>
-    </row>
-    <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="59">
-        <v>133</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="B168" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C167" s="17"/>
-    </row>
-    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="59">
-        <v>134</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="C168" s="17"/>
+    </row>
+    <row r="169" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="57">
+        <v>135</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C168" s="17"/>
-    </row>
-    <row r="169" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="59">
-        <v>135</v>
-      </c>
-      <c r="B169" s="3" t="s">
+      <c r="C169" s="17"/>
+    </row>
+    <row r="170" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="57">
+        <v>136</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C169" s="17"/>
-    </row>
-    <row r="170" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="59">
-        <v>136</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="C170" s="17"/>
+    </row>
+    <row r="171" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A171" s="57">
+        <v>137</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C170" s="17"/>
-    </row>
-    <row r="171" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A171" s="59">
-        <v>137</v>
-      </c>
-      <c r="B171" s="3" t="s">
+      <c r="C171" s="17"/>
+    </row>
+    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="57">
+        <v>138</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C171" s="17"/>
-    </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="59">
-        <v>138</v>
-      </c>
-      <c r="B172" s="3" t="s">
+      <c r="C172" s="17"/>
+    </row>
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="57">
+        <v>139</v>
+      </c>
+      <c r="B173" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C172" s="17"/>
-    </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="59">
-        <v>139</v>
-      </c>
-      <c r="B173" s="25" t="s">
+      <c r="C173" s="17"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="57">
+        <v>140</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C173" s="17"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="59">
-        <v>140</v>
-      </c>
-      <c r="B174" s="3" t="s">
+      <c r="C174" s="17"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="57">
+        <v>141</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C174" s="17"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="59">
-        <v>141</v>
-      </c>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="17"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="57">
+        <v>142</v>
+      </c>
+      <c r="B176" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C175" s="17"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="59">
-        <v>142</v>
-      </c>
-      <c r="B176" s="26" t="s">
+      <c r="C176" s="17"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="57">
+        <v>143</v>
+      </c>
+      <c r="B177" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C176" s="17"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="59">
-        <v>143</v>
-      </c>
-      <c r="B177" s="26" t="s">
+      <c r="C177" s="17"/>
+    </row>
+    <row r="178" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A178" s="57">
+        <v>144</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C177" s="17"/>
-    </row>
-    <row r="178" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A178" s="59">
-        <v>144</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="17"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="57">
+        <v>145</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C178" s="17"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="59">
-        <v>145</v>
-      </c>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="17"/>
+    </row>
+    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="57"/>
+      <c r="B180" s="148" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="17"/>
-    </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="59"/>
-      <c r="B180" s="154" t="s">
+      <c r="C180" s="149"/>
+    </row>
+    <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A181" s="57">
+        <v>146</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C180" s="156"/>
-    </row>
-    <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A181" s="59">
-        <v>146</v>
-      </c>
-      <c r="B181" s="3" t="s">
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="57">
+        <v>147</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C181" s="16"/>
-    </row>
-    <row r="182" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="59">
-        <v>147</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="57">
+        <v>148</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C182" s="16"/>
-    </row>
-    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="59">
-        <v>148</v>
-      </c>
-      <c r="B183" s="3" t="s">
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="57">
+        <v>149</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C183" s="16"/>
-    </row>
-    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="59">
-        <v>149</v>
-      </c>
-      <c r="B184" s="3" t="s">
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="57">
+        <v>150</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C184" s="16"/>
-    </row>
-    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="59">
-        <v>150</v>
-      </c>
-      <c r="B185" s="3" t="s">
+      <c r="C185" s="16"/>
+    </row>
+    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="57">
+        <v>151</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="16"/>
-    </row>
-    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="59">
-        <v>151</v>
-      </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="57">
+        <v>152</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C186" s="16"/>
-    </row>
-    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="59">
-        <v>152</v>
-      </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="57">
+        <v>153</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C187" s="16"/>
-    </row>
-    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="59">
-        <v>153</v>
-      </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="16"/>
+    </row>
+    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="57">
+        <v>154</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C188" s="16"/>
-    </row>
-    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="59">
-        <v>154</v>
-      </c>
-      <c r="B189" s="6" t="s">
+      <c r="C189" s="16"/>
+    </row>
+    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="57">
+        <v>155</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C189" s="16"/>
-    </row>
-    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="59">
-        <v>155</v>
-      </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="16"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="58"/>
+      <c r="B191" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="C190" s="16"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="60"/>
-      <c r="B191" s="159" t="s">
+      <c r="C191" s="155"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="57">
+        <v>156</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C191" s="160"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="59">
-        <v>156</v>
-      </c>
-      <c r="B192" s="3" t="s">
+      <c r="C192" s="17"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="57">
+        <v>157</v>
+      </c>
+      <c r="B193" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193" s="17"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="57">
+        <v>158</v>
+      </c>
+      <c r="B194" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C194" s="69"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="57">
+        <v>159</v>
+      </c>
+      <c r="B195" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="C192" s="17"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="59">
-        <v>157</v>
-      </c>
-      <c r="B193" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="C193" s="17"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="59">
-        <v>158</v>
-      </c>
-      <c r="B194" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="C194" s="72"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="59">
-        <v>159</v>
-      </c>
-      <c r="B195" s="61" t="s">
+      <c r="C195" s="69"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="52"/>
+      <c r="B196" s="137" t="s">
         <v>371</v>
       </c>
-      <c r="C195" s="72"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="53"/>
-      <c r="B196" s="146" t="s">
+      <c r="C196" s="138"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="51">
+        <v>160</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C196" s="147"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="52">
-        <v>160</v>
-      </c>
-      <c r="B197" s="3" t="s">
+      <c r="C197" s="16"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="51">
+        <v>161</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C197" s="16"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="52">
-        <v>161</v>
-      </c>
-      <c r="B198" s="3" t="s">
+      <c r="C198" s="16"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="51">
+        <v>162</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C198" s="16"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="52">
-        <v>162</v>
-      </c>
-      <c r="B199" s="3" t="s">
+      <c r="C199" s="16"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="51">
+        <v>163</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C199" s="16"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="52">
-        <v>163</v>
-      </c>
-      <c r="B200" s="3" t="s">
+      <c r="C200" s="16"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="51">
+        <v>164</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C200" s="16"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="52">
-        <v>164</v>
-      </c>
-      <c r="B201" s="3" t="s">
+      <c r="C201" s="16"/>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="53">
+        <v>165</v>
+      </c>
+      <c r="B202" s="54" t="s">
         <v>264</v>
-      </c>
-      <c r="C201" s="16"/>
-    </row>
-    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="54">
-        <v>165</v>
-      </c>
-      <c r="B202" s="55" t="s">
-        <v>265</v>
       </c>
       <c r="C202" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B76:C76"/>
@@ -9031,18 +9029,14 @@
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B191:C191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/spg_design_basis_template.xlsx
+++ b/thermax_backend/templates/spg_design_basis_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javed Sutar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246C2BB-4258-4688-A9BE-6BA366C9C9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47789410-029B-4F50-AF88-1F28FC842507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -2282,13 +2282,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1484993</xdr:colOff>
+      <xdr:colOff>1303564</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>208189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3161393</xdr:colOff>
+      <xdr:colOff>2979964</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1370239</xdr:rowOff>
     </xdr:to>
@@ -2320,7 +2320,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4043136" y="208189"/>
+          <a:off x="3653064" y="208189"/>
           <a:ext cx="1676400" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2747,660 +2747,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="29" customWidth="1"/>
     <col min="4" max="4" width="53" style="29" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9" max="31" width="9.140625" style="29" bestFit="1"/>
+    <col min="5" max="6" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9" max="31" width="9.1796875" style="29" bestFit="1"/>
     <col min="32" max="82" width="9" style="29" hidden="1" customWidth="1"/>
-    <col min="83" max="256" width="9.140625" style="29"/>
+    <col min="83" max="256" width="9.1796875" style="29"/>
     <col min="257" max="257" width="4" style="29" customWidth="1"/>
-    <col min="258" max="258" width="14.42578125" style="29" customWidth="1"/>
-    <col min="259" max="259" width="15.140625" style="29" customWidth="1"/>
+    <col min="258" max="258" width="14.453125" style="29" customWidth="1"/>
+    <col min="259" max="259" width="15.1796875" style="29" customWidth="1"/>
     <col min="260" max="260" width="53" style="29" customWidth="1"/>
-    <col min="261" max="262" width="13.140625" style="29" customWidth="1"/>
-    <col min="263" max="263" width="11.140625" style="29" customWidth="1"/>
-    <col min="264" max="264" width="4.28515625" style="29" customWidth="1"/>
-    <col min="265" max="287" width="9.140625" style="29" bestFit="1"/>
+    <col min="261" max="262" width="13.1796875" style="29" customWidth="1"/>
+    <col min="263" max="263" width="11.1796875" style="29" customWidth="1"/>
+    <col min="264" max="264" width="4.26953125" style="29" customWidth="1"/>
+    <col min="265" max="287" width="9.1796875" style="29" bestFit="1"/>
     <col min="288" max="338" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="339" max="512" width="9.140625" style="29"/>
+    <col min="339" max="512" width="9.1796875" style="29"/>
     <col min="513" max="513" width="4" style="29" customWidth="1"/>
-    <col min="514" max="514" width="14.42578125" style="29" customWidth="1"/>
-    <col min="515" max="515" width="15.140625" style="29" customWidth="1"/>
+    <col min="514" max="514" width="14.453125" style="29" customWidth="1"/>
+    <col min="515" max="515" width="15.1796875" style="29" customWidth="1"/>
     <col min="516" max="516" width="53" style="29" customWidth="1"/>
-    <col min="517" max="518" width="13.140625" style="29" customWidth="1"/>
-    <col min="519" max="519" width="11.140625" style="29" customWidth="1"/>
-    <col min="520" max="520" width="4.28515625" style="29" customWidth="1"/>
-    <col min="521" max="543" width="9.140625" style="29" bestFit="1"/>
+    <col min="517" max="518" width="13.1796875" style="29" customWidth="1"/>
+    <col min="519" max="519" width="11.1796875" style="29" customWidth="1"/>
+    <col min="520" max="520" width="4.26953125" style="29" customWidth="1"/>
+    <col min="521" max="543" width="9.1796875" style="29" bestFit="1"/>
     <col min="544" max="594" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="595" max="768" width="9.140625" style="29"/>
+    <col min="595" max="768" width="9.1796875" style="29"/>
     <col min="769" max="769" width="4" style="29" customWidth="1"/>
-    <col min="770" max="770" width="14.42578125" style="29" customWidth="1"/>
-    <col min="771" max="771" width="15.140625" style="29" customWidth="1"/>
+    <col min="770" max="770" width="14.453125" style="29" customWidth="1"/>
+    <col min="771" max="771" width="15.1796875" style="29" customWidth="1"/>
     <col min="772" max="772" width="53" style="29" customWidth="1"/>
-    <col min="773" max="774" width="13.140625" style="29" customWidth="1"/>
-    <col min="775" max="775" width="11.140625" style="29" customWidth="1"/>
-    <col min="776" max="776" width="4.28515625" style="29" customWidth="1"/>
-    <col min="777" max="799" width="9.140625" style="29" bestFit="1"/>
+    <col min="773" max="774" width="13.1796875" style="29" customWidth="1"/>
+    <col min="775" max="775" width="11.1796875" style="29" customWidth="1"/>
+    <col min="776" max="776" width="4.26953125" style="29" customWidth="1"/>
+    <col min="777" max="799" width="9.1796875" style="29" bestFit="1"/>
     <col min="800" max="850" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="851" max="1024" width="9.140625" style="29"/>
+    <col min="851" max="1024" width="9.1796875" style="29"/>
     <col min="1025" max="1025" width="4" style="29" customWidth="1"/>
-    <col min="1026" max="1026" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1027" max="1027" width="15.140625" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="14.453125" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="15.1796875" style="29" customWidth="1"/>
     <col min="1028" max="1028" width="53" style="29" customWidth="1"/>
-    <col min="1029" max="1030" width="13.140625" style="29" customWidth="1"/>
-    <col min="1031" max="1031" width="11.140625" style="29" customWidth="1"/>
-    <col min="1032" max="1032" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1033" max="1055" width="9.140625" style="29" bestFit="1"/>
+    <col min="1029" max="1030" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1031" max="1031" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1032" max="1032" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1033" max="1055" width="9.1796875" style="29" bestFit="1"/>
     <col min="1056" max="1106" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1107" max="1280" width="9.140625" style="29"/>
+    <col min="1107" max="1280" width="9.1796875" style="29"/>
     <col min="1281" max="1281" width="4" style="29" customWidth="1"/>
-    <col min="1282" max="1282" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1283" max="1283" width="15.140625" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="14.453125" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="15.1796875" style="29" customWidth="1"/>
     <col min="1284" max="1284" width="53" style="29" customWidth="1"/>
-    <col min="1285" max="1286" width="13.140625" style="29" customWidth="1"/>
-    <col min="1287" max="1287" width="11.140625" style="29" customWidth="1"/>
-    <col min="1288" max="1288" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1289" max="1311" width="9.140625" style="29" bestFit="1"/>
+    <col min="1285" max="1286" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1287" max="1287" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1288" max="1288" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1289" max="1311" width="9.1796875" style="29" bestFit="1"/>
     <col min="1312" max="1362" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1363" max="1536" width="9.140625" style="29"/>
+    <col min="1363" max="1536" width="9.1796875" style="29"/>
     <col min="1537" max="1537" width="4" style="29" customWidth="1"/>
-    <col min="1538" max="1538" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1539" max="1539" width="15.140625" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="14.453125" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="15.1796875" style="29" customWidth="1"/>
     <col min="1540" max="1540" width="53" style="29" customWidth="1"/>
-    <col min="1541" max="1542" width="13.140625" style="29" customWidth="1"/>
-    <col min="1543" max="1543" width="11.140625" style="29" customWidth="1"/>
-    <col min="1544" max="1544" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1545" max="1567" width="9.140625" style="29" bestFit="1"/>
+    <col min="1541" max="1542" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1543" max="1543" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1544" max="1544" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1545" max="1567" width="9.1796875" style="29" bestFit="1"/>
     <col min="1568" max="1618" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1619" max="1792" width="9.140625" style="29"/>
+    <col min="1619" max="1792" width="9.1796875" style="29"/>
     <col min="1793" max="1793" width="4" style="29" customWidth="1"/>
-    <col min="1794" max="1794" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1795" max="1795" width="15.140625" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="14.453125" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="15.1796875" style="29" customWidth="1"/>
     <col min="1796" max="1796" width="53" style="29" customWidth="1"/>
-    <col min="1797" max="1798" width="13.140625" style="29" customWidth="1"/>
-    <col min="1799" max="1799" width="11.140625" style="29" customWidth="1"/>
-    <col min="1800" max="1800" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1801" max="1823" width="9.140625" style="29" bestFit="1"/>
+    <col min="1797" max="1798" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1799" max="1799" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1800" max="1800" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1801" max="1823" width="9.1796875" style="29" bestFit="1"/>
     <col min="1824" max="1874" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1875" max="2048" width="9.140625" style="29"/>
+    <col min="1875" max="2048" width="9.1796875" style="29"/>
     <col min="2049" max="2049" width="4" style="29" customWidth="1"/>
-    <col min="2050" max="2050" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2051" max="2051" width="15.140625" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="14.453125" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="15.1796875" style="29" customWidth="1"/>
     <col min="2052" max="2052" width="53" style="29" customWidth="1"/>
-    <col min="2053" max="2054" width="13.140625" style="29" customWidth="1"/>
-    <col min="2055" max="2055" width="11.140625" style="29" customWidth="1"/>
-    <col min="2056" max="2056" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2057" max="2079" width="9.140625" style="29" bestFit="1"/>
+    <col min="2053" max="2054" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2055" max="2055" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2056" max="2056" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2057" max="2079" width="9.1796875" style="29" bestFit="1"/>
     <col min="2080" max="2130" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2131" max="2304" width="9.140625" style="29"/>
+    <col min="2131" max="2304" width="9.1796875" style="29"/>
     <col min="2305" max="2305" width="4" style="29" customWidth="1"/>
-    <col min="2306" max="2306" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2307" max="2307" width="15.140625" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="14.453125" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="15.1796875" style="29" customWidth="1"/>
     <col min="2308" max="2308" width="53" style="29" customWidth="1"/>
-    <col min="2309" max="2310" width="13.140625" style="29" customWidth="1"/>
-    <col min="2311" max="2311" width="11.140625" style="29" customWidth="1"/>
-    <col min="2312" max="2312" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2313" max="2335" width="9.140625" style="29" bestFit="1"/>
+    <col min="2309" max="2310" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2311" max="2311" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2312" max="2312" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2313" max="2335" width="9.1796875" style="29" bestFit="1"/>
     <col min="2336" max="2386" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2387" max="2560" width="9.140625" style="29"/>
+    <col min="2387" max="2560" width="9.1796875" style="29"/>
     <col min="2561" max="2561" width="4" style="29" customWidth="1"/>
-    <col min="2562" max="2562" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2563" max="2563" width="15.140625" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="14.453125" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="15.1796875" style="29" customWidth="1"/>
     <col min="2564" max="2564" width="53" style="29" customWidth="1"/>
-    <col min="2565" max="2566" width="13.140625" style="29" customWidth="1"/>
-    <col min="2567" max="2567" width="11.140625" style="29" customWidth="1"/>
-    <col min="2568" max="2568" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2569" max="2591" width="9.140625" style="29" bestFit="1"/>
+    <col min="2565" max="2566" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2567" max="2567" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2568" max="2568" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2569" max="2591" width="9.1796875" style="29" bestFit="1"/>
     <col min="2592" max="2642" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2643" max="2816" width="9.140625" style="29"/>
+    <col min="2643" max="2816" width="9.1796875" style="29"/>
     <col min="2817" max="2817" width="4" style="29" customWidth="1"/>
-    <col min="2818" max="2818" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2819" max="2819" width="15.140625" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="14.453125" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="15.1796875" style="29" customWidth="1"/>
     <col min="2820" max="2820" width="53" style="29" customWidth="1"/>
-    <col min="2821" max="2822" width="13.140625" style="29" customWidth="1"/>
-    <col min="2823" max="2823" width="11.140625" style="29" customWidth="1"/>
-    <col min="2824" max="2824" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2825" max="2847" width="9.140625" style="29" bestFit="1"/>
+    <col min="2821" max="2822" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2823" max="2823" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2824" max="2824" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2825" max="2847" width="9.1796875" style="29" bestFit="1"/>
     <col min="2848" max="2898" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2899" max="3072" width="9.140625" style="29"/>
+    <col min="2899" max="3072" width="9.1796875" style="29"/>
     <col min="3073" max="3073" width="4" style="29" customWidth="1"/>
-    <col min="3074" max="3074" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3075" max="3075" width="15.140625" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="14.453125" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="15.1796875" style="29" customWidth="1"/>
     <col min="3076" max="3076" width="53" style="29" customWidth="1"/>
-    <col min="3077" max="3078" width="13.140625" style="29" customWidth="1"/>
-    <col min="3079" max="3079" width="11.140625" style="29" customWidth="1"/>
-    <col min="3080" max="3080" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3081" max="3103" width="9.140625" style="29" bestFit="1"/>
+    <col min="3077" max="3078" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3079" max="3079" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3080" max="3080" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3081" max="3103" width="9.1796875" style="29" bestFit="1"/>
     <col min="3104" max="3154" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3155" max="3328" width="9.140625" style="29"/>
+    <col min="3155" max="3328" width="9.1796875" style="29"/>
     <col min="3329" max="3329" width="4" style="29" customWidth="1"/>
-    <col min="3330" max="3330" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3331" max="3331" width="15.140625" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="14.453125" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="15.1796875" style="29" customWidth="1"/>
     <col min="3332" max="3332" width="53" style="29" customWidth="1"/>
-    <col min="3333" max="3334" width="13.140625" style="29" customWidth="1"/>
-    <col min="3335" max="3335" width="11.140625" style="29" customWidth="1"/>
-    <col min="3336" max="3336" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3337" max="3359" width="9.140625" style="29" bestFit="1"/>
+    <col min="3333" max="3334" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3335" max="3335" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3336" max="3336" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3337" max="3359" width="9.1796875" style="29" bestFit="1"/>
     <col min="3360" max="3410" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3411" max="3584" width="9.140625" style="29"/>
+    <col min="3411" max="3584" width="9.1796875" style="29"/>
     <col min="3585" max="3585" width="4" style="29" customWidth="1"/>
-    <col min="3586" max="3586" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3587" max="3587" width="15.140625" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="14.453125" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="15.1796875" style="29" customWidth="1"/>
     <col min="3588" max="3588" width="53" style="29" customWidth="1"/>
-    <col min="3589" max="3590" width="13.140625" style="29" customWidth="1"/>
-    <col min="3591" max="3591" width="11.140625" style="29" customWidth="1"/>
-    <col min="3592" max="3592" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3593" max="3615" width="9.140625" style="29" bestFit="1"/>
+    <col min="3589" max="3590" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3591" max="3591" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3592" max="3592" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3593" max="3615" width="9.1796875" style="29" bestFit="1"/>
     <col min="3616" max="3666" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3667" max="3840" width="9.140625" style="29"/>
+    <col min="3667" max="3840" width="9.1796875" style="29"/>
     <col min="3841" max="3841" width="4" style="29" customWidth="1"/>
-    <col min="3842" max="3842" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3843" max="3843" width="15.140625" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="14.453125" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="15.1796875" style="29" customWidth="1"/>
     <col min="3844" max="3844" width="53" style="29" customWidth="1"/>
-    <col min="3845" max="3846" width="13.140625" style="29" customWidth="1"/>
-    <col min="3847" max="3847" width="11.140625" style="29" customWidth="1"/>
-    <col min="3848" max="3848" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3849" max="3871" width="9.140625" style="29" bestFit="1"/>
+    <col min="3845" max="3846" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3847" max="3847" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3848" max="3848" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3849" max="3871" width="9.1796875" style="29" bestFit="1"/>
     <col min="3872" max="3922" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3923" max="4096" width="9.140625" style="29"/>
+    <col min="3923" max="4096" width="9.1796875" style="29"/>
     <col min="4097" max="4097" width="4" style="29" customWidth="1"/>
-    <col min="4098" max="4098" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4099" max="4099" width="15.140625" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="14.453125" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="15.1796875" style="29" customWidth="1"/>
     <col min="4100" max="4100" width="53" style="29" customWidth="1"/>
-    <col min="4101" max="4102" width="13.140625" style="29" customWidth="1"/>
-    <col min="4103" max="4103" width="11.140625" style="29" customWidth="1"/>
-    <col min="4104" max="4104" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4105" max="4127" width="9.140625" style="29" bestFit="1"/>
+    <col min="4101" max="4102" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4103" max="4103" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4104" max="4104" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4105" max="4127" width="9.1796875" style="29" bestFit="1"/>
     <col min="4128" max="4178" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4179" max="4352" width="9.140625" style="29"/>
+    <col min="4179" max="4352" width="9.1796875" style="29"/>
     <col min="4353" max="4353" width="4" style="29" customWidth="1"/>
-    <col min="4354" max="4354" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4355" max="4355" width="15.140625" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="14.453125" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="15.1796875" style="29" customWidth="1"/>
     <col min="4356" max="4356" width="53" style="29" customWidth="1"/>
-    <col min="4357" max="4358" width="13.140625" style="29" customWidth="1"/>
-    <col min="4359" max="4359" width="11.140625" style="29" customWidth="1"/>
-    <col min="4360" max="4360" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4361" max="4383" width="9.140625" style="29" bestFit="1"/>
+    <col min="4357" max="4358" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4359" max="4359" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4360" max="4360" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4361" max="4383" width="9.1796875" style="29" bestFit="1"/>
     <col min="4384" max="4434" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4435" max="4608" width="9.140625" style="29"/>
+    <col min="4435" max="4608" width="9.1796875" style="29"/>
     <col min="4609" max="4609" width="4" style="29" customWidth="1"/>
-    <col min="4610" max="4610" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4611" max="4611" width="15.140625" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="14.453125" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="15.1796875" style="29" customWidth="1"/>
     <col min="4612" max="4612" width="53" style="29" customWidth="1"/>
-    <col min="4613" max="4614" width="13.140625" style="29" customWidth="1"/>
-    <col min="4615" max="4615" width="11.140625" style="29" customWidth="1"/>
-    <col min="4616" max="4616" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4617" max="4639" width="9.140625" style="29" bestFit="1"/>
+    <col min="4613" max="4614" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4615" max="4615" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4616" max="4616" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4617" max="4639" width="9.1796875" style="29" bestFit="1"/>
     <col min="4640" max="4690" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4691" max="4864" width="9.140625" style="29"/>
+    <col min="4691" max="4864" width="9.1796875" style="29"/>
     <col min="4865" max="4865" width="4" style="29" customWidth="1"/>
-    <col min="4866" max="4866" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4867" max="4867" width="15.140625" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="14.453125" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="15.1796875" style="29" customWidth="1"/>
     <col min="4868" max="4868" width="53" style="29" customWidth="1"/>
-    <col min="4869" max="4870" width="13.140625" style="29" customWidth="1"/>
-    <col min="4871" max="4871" width="11.140625" style="29" customWidth="1"/>
-    <col min="4872" max="4872" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4873" max="4895" width="9.140625" style="29" bestFit="1"/>
+    <col min="4869" max="4870" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4871" max="4871" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4872" max="4872" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4873" max="4895" width="9.1796875" style="29" bestFit="1"/>
     <col min="4896" max="4946" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4947" max="5120" width="9.140625" style="29"/>
+    <col min="4947" max="5120" width="9.1796875" style="29"/>
     <col min="5121" max="5121" width="4" style="29" customWidth="1"/>
-    <col min="5122" max="5122" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5123" max="5123" width="15.140625" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="14.453125" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="15.1796875" style="29" customWidth="1"/>
     <col min="5124" max="5124" width="53" style="29" customWidth="1"/>
-    <col min="5125" max="5126" width="13.140625" style="29" customWidth="1"/>
-    <col min="5127" max="5127" width="11.140625" style="29" customWidth="1"/>
-    <col min="5128" max="5128" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5129" max="5151" width="9.140625" style="29" bestFit="1"/>
+    <col min="5125" max="5126" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5127" max="5127" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5128" max="5128" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5129" max="5151" width="9.1796875" style="29" bestFit="1"/>
     <col min="5152" max="5202" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5203" max="5376" width="9.140625" style="29"/>
+    <col min="5203" max="5376" width="9.1796875" style="29"/>
     <col min="5377" max="5377" width="4" style="29" customWidth="1"/>
-    <col min="5378" max="5378" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5379" max="5379" width="15.140625" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="14.453125" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="15.1796875" style="29" customWidth="1"/>
     <col min="5380" max="5380" width="53" style="29" customWidth="1"/>
-    <col min="5381" max="5382" width="13.140625" style="29" customWidth="1"/>
-    <col min="5383" max="5383" width="11.140625" style="29" customWidth="1"/>
-    <col min="5384" max="5384" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5385" max="5407" width="9.140625" style="29" bestFit="1"/>
+    <col min="5381" max="5382" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5383" max="5383" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5384" max="5384" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5385" max="5407" width="9.1796875" style="29" bestFit="1"/>
     <col min="5408" max="5458" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5459" max="5632" width="9.140625" style="29"/>
+    <col min="5459" max="5632" width="9.1796875" style="29"/>
     <col min="5633" max="5633" width="4" style="29" customWidth="1"/>
-    <col min="5634" max="5634" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5635" max="5635" width="15.140625" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="14.453125" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="15.1796875" style="29" customWidth="1"/>
     <col min="5636" max="5636" width="53" style="29" customWidth="1"/>
-    <col min="5637" max="5638" width="13.140625" style="29" customWidth="1"/>
-    <col min="5639" max="5639" width="11.140625" style="29" customWidth="1"/>
-    <col min="5640" max="5640" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5641" max="5663" width="9.140625" style="29" bestFit="1"/>
+    <col min="5637" max="5638" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5639" max="5639" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5640" max="5640" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5641" max="5663" width="9.1796875" style="29" bestFit="1"/>
     <col min="5664" max="5714" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5715" max="5888" width="9.140625" style="29"/>
+    <col min="5715" max="5888" width="9.1796875" style="29"/>
     <col min="5889" max="5889" width="4" style="29" customWidth="1"/>
-    <col min="5890" max="5890" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5891" max="5891" width="15.140625" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="14.453125" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="15.1796875" style="29" customWidth="1"/>
     <col min="5892" max="5892" width="53" style="29" customWidth="1"/>
-    <col min="5893" max="5894" width="13.140625" style="29" customWidth="1"/>
-    <col min="5895" max="5895" width="11.140625" style="29" customWidth="1"/>
-    <col min="5896" max="5896" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5897" max="5919" width="9.140625" style="29" bestFit="1"/>
+    <col min="5893" max="5894" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5895" max="5895" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5896" max="5896" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5897" max="5919" width="9.1796875" style="29" bestFit="1"/>
     <col min="5920" max="5970" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5971" max="6144" width="9.140625" style="29"/>
+    <col min="5971" max="6144" width="9.1796875" style="29"/>
     <col min="6145" max="6145" width="4" style="29" customWidth="1"/>
-    <col min="6146" max="6146" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6147" max="6147" width="15.140625" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="14.453125" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="15.1796875" style="29" customWidth="1"/>
     <col min="6148" max="6148" width="53" style="29" customWidth="1"/>
-    <col min="6149" max="6150" width="13.140625" style="29" customWidth="1"/>
-    <col min="6151" max="6151" width="11.140625" style="29" customWidth="1"/>
-    <col min="6152" max="6152" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6153" max="6175" width="9.140625" style="29" bestFit="1"/>
+    <col min="6149" max="6150" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6151" max="6151" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6152" max="6152" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6153" max="6175" width="9.1796875" style="29" bestFit="1"/>
     <col min="6176" max="6226" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6227" max="6400" width="9.140625" style="29"/>
+    <col min="6227" max="6400" width="9.1796875" style="29"/>
     <col min="6401" max="6401" width="4" style="29" customWidth="1"/>
-    <col min="6402" max="6402" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6403" max="6403" width="15.140625" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="14.453125" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="15.1796875" style="29" customWidth="1"/>
     <col min="6404" max="6404" width="53" style="29" customWidth="1"/>
-    <col min="6405" max="6406" width="13.140625" style="29" customWidth="1"/>
-    <col min="6407" max="6407" width="11.140625" style="29" customWidth="1"/>
-    <col min="6408" max="6408" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6409" max="6431" width="9.140625" style="29" bestFit="1"/>
+    <col min="6405" max="6406" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6407" max="6407" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6408" max="6408" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6409" max="6431" width="9.1796875" style="29" bestFit="1"/>
     <col min="6432" max="6482" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6483" max="6656" width="9.140625" style="29"/>
+    <col min="6483" max="6656" width="9.1796875" style="29"/>
     <col min="6657" max="6657" width="4" style="29" customWidth="1"/>
-    <col min="6658" max="6658" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6659" max="6659" width="15.140625" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="14.453125" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="15.1796875" style="29" customWidth="1"/>
     <col min="6660" max="6660" width="53" style="29" customWidth="1"/>
-    <col min="6661" max="6662" width="13.140625" style="29" customWidth="1"/>
-    <col min="6663" max="6663" width="11.140625" style="29" customWidth="1"/>
-    <col min="6664" max="6664" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6665" max="6687" width="9.140625" style="29" bestFit="1"/>
+    <col min="6661" max="6662" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6663" max="6663" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6664" max="6664" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6665" max="6687" width="9.1796875" style="29" bestFit="1"/>
     <col min="6688" max="6738" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6739" max="6912" width="9.140625" style="29"/>
+    <col min="6739" max="6912" width="9.1796875" style="29"/>
     <col min="6913" max="6913" width="4" style="29" customWidth="1"/>
-    <col min="6914" max="6914" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6915" max="6915" width="15.140625" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="14.453125" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="15.1796875" style="29" customWidth="1"/>
     <col min="6916" max="6916" width="53" style="29" customWidth="1"/>
-    <col min="6917" max="6918" width="13.140625" style="29" customWidth="1"/>
-    <col min="6919" max="6919" width="11.140625" style="29" customWidth="1"/>
-    <col min="6920" max="6920" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6921" max="6943" width="9.140625" style="29" bestFit="1"/>
+    <col min="6917" max="6918" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6919" max="6919" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6920" max="6920" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6921" max="6943" width="9.1796875" style="29" bestFit="1"/>
     <col min="6944" max="6994" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6995" max="7168" width="9.140625" style="29"/>
+    <col min="6995" max="7168" width="9.1796875" style="29"/>
     <col min="7169" max="7169" width="4" style="29" customWidth="1"/>
-    <col min="7170" max="7170" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7171" max="7171" width="15.140625" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="14.453125" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="15.1796875" style="29" customWidth="1"/>
     <col min="7172" max="7172" width="53" style="29" customWidth="1"/>
-    <col min="7173" max="7174" width="13.140625" style="29" customWidth="1"/>
-    <col min="7175" max="7175" width="11.140625" style="29" customWidth="1"/>
-    <col min="7176" max="7176" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7177" max="7199" width="9.140625" style="29" bestFit="1"/>
+    <col min="7173" max="7174" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7175" max="7175" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7176" max="7176" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7177" max="7199" width="9.1796875" style="29" bestFit="1"/>
     <col min="7200" max="7250" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="7251" max="7424" width="9.140625" style="29"/>
+    <col min="7251" max="7424" width="9.1796875" style="29"/>
     <col min="7425" max="7425" width="4" style="29" customWidth="1"/>
-    <col min="7426" max="7426" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7427" max="7427" width="15.140625" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="14.453125" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="15.1796875" style="29" customWidth="1"/>
     <col min="7428" max="7428" width="53" style="29" customWidth="1"/>
-    <col min="7429" max="7430" width="13.140625" style="29" customWidth="1"/>
-    <col min="7431" max="7431" width="11.140625" style="29" customWidth="1"/>
-    <col min="7432" max="7432" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7433" max="7455" width="9.140625" style="29" bestFit="1"/>
+    <col min="7429" max="7430" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7431" max="7431" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7432" max="7432" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7433" max="7455" width="9.1796875" style="29" bestFit="1"/>
     <col min="7456" max="7506" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="7507" max="7680" width="9.140625" style="29"/>
+    <col min="7507" max="7680" width="9.1796875" style="29"/>
     <col min="7681" max="7681" width="4" style="29" customWidth="1"/>
-    <col min="7682" max="7682" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7683" max="7683" width="15.140625" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="14.453125" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="15.1796875" style="29" customWidth="1"/>
     <col min="7684" max="7684" width="53" style="29" customWidth="1"/>
-    <col min="7685" max="7686" width="13.140625" style="29" customWidth="1"/>
-    <col min="7687" max="7687" width="11.140625" style="29" customWidth="1"/>
-    <col min="7688" max="7688" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7689" max="7711" width="9.140625" style="29" bestFit="1"/>
+    <col min="7685" max="7686" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7687" max="7687" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7688" max="7688" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7689" max="7711" width="9.1796875" style="29" bestFit="1"/>
     <col min="7712" max="7762" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="7763" max="7936" width="9.140625" style="29"/>
+    <col min="7763" max="7936" width="9.1796875" style="29"/>
     <col min="7937" max="7937" width="4" style="29" customWidth="1"/>
-    <col min="7938" max="7938" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7939" max="7939" width="15.140625" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="14.453125" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="15.1796875" style="29" customWidth="1"/>
     <col min="7940" max="7940" width="53" style="29" customWidth="1"/>
-    <col min="7941" max="7942" width="13.140625" style="29" customWidth="1"/>
-    <col min="7943" max="7943" width="11.140625" style="29" customWidth="1"/>
-    <col min="7944" max="7944" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7945" max="7967" width="9.140625" style="29" bestFit="1"/>
+    <col min="7941" max="7942" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7943" max="7943" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7944" max="7944" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7945" max="7967" width="9.1796875" style="29" bestFit="1"/>
     <col min="7968" max="8018" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8019" max="8192" width="9.140625" style="29"/>
+    <col min="8019" max="8192" width="9.1796875" style="29"/>
     <col min="8193" max="8193" width="4" style="29" customWidth="1"/>
-    <col min="8194" max="8194" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8195" max="8195" width="15.140625" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="14.453125" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="15.1796875" style="29" customWidth="1"/>
     <col min="8196" max="8196" width="53" style="29" customWidth="1"/>
-    <col min="8197" max="8198" width="13.140625" style="29" customWidth="1"/>
-    <col min="8199" max="8199" width="11.140625" style="29" customWidth="1"/>
-    <col min="8200" max="8200" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8201" max="8223" width="9.140625" style="29" bestFit="1"/>
+    <col min="8197" max="8198" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8199" max="8199" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8200" max="8200" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8201" max="8223" width="9.1796875" style="29" bestFit="1"/>
     <col min="8224" max="8274" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8275" max="8448" width="9.140625" style="29"/>
+    <col min="8275" max="8448" width="9.1796875" style="29"/>
     <col min="8449" max="8449" width="4" style="29" customWidth="1"/>
-    <col min="8450" max="8450" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8451" max="8451" width="15.140625" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="14.453125" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="15.1796875" style="29" customWidth="1"/>
     <col min="8452" max="8452" width="53" style="29" customWidth="1"/>
-    <col min="8453" max="8454" width="13.140625" style="29" customWidth="1"/>
-    <col min="8455" max="8455" width="11.140625" style="29" customWidth="1"/>
-    <col min="8456" max="8456" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8457" max="8479" width="9.140625" style="29" bestFit="1"/>
+    <col min="8453" max="8454" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8455" max="8455" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8456" max="8456" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8457" max="8479" width="9.1796875" style="29" bestFit="1"/>
     <col min="8480" max="8530" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8531" max="8704" width="9.140625" style="29"/>
+    <col min="8531" max="8704" width="9.1796875" style="29"/>
     <col min="8705" max="8705" width="4" style="29" customWidth="1"/>
-    <col min="8706" max="8706" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8707" max="8707" width="15.140625" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="14.453125" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="15.1796875" style="29" customWidth="1"/>
     <col min="8708" max="8708" width="53" style="29" customWidth="1"/>
-    <col min="8709" max="8710" width="13.140625" style="29" customWidth="1"/>
-    <col min="8711" max="8711" width="11.140625" style="29" customWidth="1"/>
-    <col min="8712" max="8712" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8713" max="8735" width="9.140625" style="29" bestFit="1"/>
+    <col min="8709" max="8710" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8711" max="8711" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8712" max="8712" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8713" max="8735" width="9.1796875" style="29" bestFit="1"/>
     <col min="8736" max="8786" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8787" max="8960" width="9.140625" style="29"/>
+    <col min="8787" max="8960" width="9.1796875" style="29"/>
     <col min="8961" max="8961" width="4" style="29" customWidth="1"/>
-    <col min="8962" max="8962" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8963" max="8963" width="15.140625" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="14.453125" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="15.1796875" style="29" customWidth="1"/>
     <col min="8964" max="8964" width="53" style="29" customWidth="1"/>
-    <col min="8965" max="8966" width="13.140625" style="29" customWidth="1"/>
-    <col min="8967" max="8967" width="11.140625" style="29" customWidth="1"/>
-    <col min="8968" max="8968" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8969" max="8991" width="9.140625" style="29" bestFit="1"/>
+    <col min="8965" max="8966" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8967" max="8967" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8968" max="8968" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8969" max="8991" width="9.1796875" style="29" bestFit="1"/>
     <col min="8992" max="9042" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9043" max="9216" width="9.140625" style="29"/>
+    <col min="9043" max="9216" width="9.1796875" style="29"/>
     <col min="9217" max="9217" width="4" style="29" customWidth="1"/>
-    <col min="9218" max="9218" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9219" max="9219" width="15.140625" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="14.453125" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="15.1796875" style="29" customWidth="1"/>
     <col min="9220" max="9220" width="53" style="29" customWidth="1"/>
-    <col min="9221" max="9222" width="13.140625" style="29" customWidth="1"/>
-    <col min="9223" max="9223" width="11.140625" style="29" customWidth="1"/>
-    <col min="9224" max="9224" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9225" max="9247" width="9.140625" style="29" bestFit="1"/>
+    <col min="9221" max="9222" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9223" max="9223" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9224" max="9224" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9225" max="9247" width="9.1796875" style="29" bestFit="1"/>
     <col min="9248" max="9298" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9299" max="9472" width="9.140625" style="29"/>
+    <col min="9299" max="9472" width="9.1796875" style="29"/>
     <col min="9473" max="9473" width="4" style="29" customWidth="1"/>
-    <col min="9474" max="9474" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9475" max="9475" width="15.140625" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="14.453125" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="15.1796875" style="29" customWidth="1"/>
     <col min="9476" max="9476" width="53" style="29" customWidth="1"/>
-    <col min="9477" max="9478" width="13.140625" style="29" customWidth="1"/>
-    <col min="9479" max="9479" width="11.140625" style="29" customWidth="1"/>
-    <col min="9480" max="9480" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9481" max="9503" width="9.140625" style="29" bestFit="1"/>
+    <col min="9477" max="9478" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9479" max="9479" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9480" max="9480" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9481" max="9503" width="9.1796875" style="29" bestFit="1"/>
     <col min="9504" max="9554" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9555" max="9728" width="9.140625" style="29"/>
+    <col min="9555" max="9728" width="9.1796875" style="29"/>
     <col min="9729" max="9729" width="4" style="29" customWidth="1"/>
-    <col min="9730" max="9730" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9731" max="9731" width="15.140625" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="14.453125" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="15.1796875" style="29" customWidth="1"/>
     <col min="9732" max="9732" width="53" style="29" customWidth="1"/>
-    <col min="9733" max="9734" width="13.140625" style="29" customWidth="1"/>
-    <col min="9735" max="9735" width="11.140625" style="29" customWidth="1"/>
-    <col min="9736" max="9736" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9737" max="9759" width="9.140625" style="29" bestFit="1"/>
+    <col min="9733" max="9734" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9735" max="9735" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9736" max="9736" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9737" max="9759" width="9.1796875" style="29" bestFit="1"/>
     <col min="9760" max="9810" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9811" max="9984" width="9.140625" style="29"/>
+    <col min="9811" max="9984" width="9.1796875" style="29"/>
     <col min="9985" max="9985" width="4" style="29" customWidth="1"/>
-    <col min="9986" max="9986" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9987" max="9987" width="15.140625" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="14.453125" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="15.1796875" style="29" customWidth="1"/>
     <col min="9988" max="9988" width="53" style="29" customWidth="1"/>
-    <col min="9989" max="9990" width="13.140625" style="29" customWidth="1"/>
-    <col min="9991" max="9991" width="11.140625" style="29" customWidth="1"/>
-    <col min="9992" max="9992" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9993" max="10015" width="9.140625" style="29" bestFit="1"/>
+    <col min="9989" max="9990" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9991" max="9991" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9992" max="9992" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9993" max="10015" width="9.1796875" style="29" bestFit="1"/>
     <col min="10016" max="10066" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10067" max="10240" width="9.140625" style="29"/>
+    <col min="10067" max="10240" width="9.1796875" style="29"/>
     <col min="10241" max="10241" width="4" style="29" customWidth="1"/>
-    <col min="10242" max="10242" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10243" max="10243" width="15.140625" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="14.453125" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="15.1796875" style="29" customWidth="1"/>
     <col min="10244" max="10244" width="53" style="29" customWidth="1"/>
-    <col min="10245" max="10246" width="13.140625" style="29" customWidth="1"/>
-    <col min="10247" max="10247" width="11.140625" style="29" customWidth="1"/>
-    <col min="10248" max="10248" width="4.28515625" style="29" customWidth="1"/>
-    <col min="10249" max="10271" width="9.140625" style="29" bestFit="1"/>
+    <col min="10245" max="10246" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10247" max="10247" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10248" max="10248" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10249" max="10271" width="9.1796875" style="29" bestFit="1"/>
     <col min="10272" max="10322" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10323" max="10496" width="9.140625" style="29"/>
+    <col min="10323" max="10496" width="9.1796875" style="29"/>
     <col min="10497" max="10497" width="4" style="29" customWidth="1"/>
-    <col min="10498" max="10498" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10499" max="10499" width="15.140625" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="14.453125" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="15.1796875" style="29" customWidth="1"/>
     <col min="10500" max="10500" width="53" style="29" customWidth="1"/>
-    <col min="10501" max="10502" width="13.140625" style="29" customWidth="1"/>
-    <col min="10503" max="10503" width="11.140625" style="29" customWidth="1"/>
-    <col min="10504" max="10504" width="4.28515625" style="29" customWidth="1"/>
-    <col min="10505" max="10527" width="9.140625" style="29" bestFit="1"/>
+    <col min="10501" max="10502" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10503" max="10503" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10504" max="10504" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10505" max="10527" width="9.1796875" style="29" bestFit="1"/>
     <col min="10528" max="10578" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10579" max="10752" width="9.140625" style="29"/>
+    <col min="10579" max="10752" width="9.1796875" style="29"/>
     <col min="10753" max="10753" width="4" style="29" customWidth="1"/>
-    <col min="10754" max="10754" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10755" max="10755" width="15.140625" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="14.453125" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="15.1796875" style="29" customWidth="1"/>
     <col min="10756" max="10756" width="53" style="29" customWidth="1"/>
-    <col min="10757" max="10758" width="13.140625" style="29" customWidth="1"/>
-    <col min="10759" max="10759" width="11.140625" style="29" customWidth="1"/>
-    <col min="10760" max="10760" width="4.28515625" style="29" customWidth="1"/>
-    <col min="10761" max="10783" width="9.140625" style="29" bestFit="1"/>
+    <col min="10757" max="10758" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10759" max="10759" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10760" max="10760" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10761" max="10783" width="9.1796875" style="29" bestFit="1"/>
     <col min="10784" max="10834" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10835" max="11008" width="9.140625" style="29"/>
+    <col min="10835" max="11008" width="9.1796875" style="29"/>
     <col min="11009" max="11009" width="4" style="29" customWidth="1"/>
-    <col min="11010" max="11010" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11011" max="11011" width="15.140625" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="14.453125" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="15.1796875" style="29" customWidth="1"/>
     <col min="11012" max="11012" width="53" style="29" customWidth="1"/>
-    <col min="11013" max="11014" width="13.140625" style="29" customWidth="1"/>
-    <col min="11015" max="11015" width="11.140625" style="29" customWidth="1"/>
-    <col min="11016" max="11016" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11017" max="11039" width="9.140625" style="29" bestFit="1"/>
+    <col min="11013" max="11014" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11015" max="11015" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11016" max="11016" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11017" max="11039" width="9.1796875" style="29" bestFit="1"/>
     <col min="11040" max="11090" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11091" max="11264" width="9.140625" style="29"/>
+    <col min="11091" max="11264" width="9.1796875" style="29"/>
     <col min="11265" max="11265" width="4" style="29" customWidth="1"/>
-    <col min="11266" max="11266" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11267" max="11267" width="15.140625" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="14.453125" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="15.1796875" style="29" customWidth="1"/>
     <col min="11268" max="11268" width="53" style="29" customWidth="1"/>
-    <col min="11269" max="11270" width="13.140625" style="29" customWidth="1"/>
-    <col min="11271" max="11271" width="11.140625" style="29" customWidth="1"/>
-    <col min="11272" max="11272" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11273" max="11295" width="9.140625" style="29" bestFit="1"/>
+    <col min="11269" max="11270" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11271" max="11271" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11272" max="11272" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11273" max="11295" width="9.1796875" style="29" bestFit="1"/>
     <col min="11296" max="11346" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11347" max="11520" width="9.140625" style="29"/>
+    <col min="11347" max="11520" width="9.1796875" style="29"/>
     <col min="11521" max="11521" width="4" style="29" customWidth="1"/>
-    <col min="11522" max="11522" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11523" max="11523" width="15.140625" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="14.453125" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="15.1796875" style="29" customWidth="1"/>
     <col min="11524" max="11524" width="53" style="29" customWidth="1"/>
-    <col min="11525" max="11526" width="13.140625" style="29" customWidth="1"/>
-    <col min="11527" max="11527" width="11.140625" style="29" customWidth="1"/>
-    <col min="11528" max="11528" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11529" max="11551" width="9.140625" style="29" bestFit="1"/>
+    <col min="11525" max="11526" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11527" max="11527" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11528" max="11528" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11529" max="11551" width="9.1796875" style="29" bestFit="1"/>
     <col min="11552" max="11602" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11603" max="11776" width="9.140625" style="29"/>
+    <col min="11603" max="11776" width="9.1796875" style="29"/>
     <col min="11777" max="11777" width="4" style="29" customWidth="1"/>
-    <col min="11778" max="11778" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11779" max="11779" width="15.140625" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="14.453125" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="15.1796875" style="29" customWidth="1"/>
     <col min="11780" max="11780" width="53" style="29" customWidth="1"/>
-    <col min="11781" max="11782" width="13.140625" style="29" customWidth="1"/>
-    <col min="11783" max="11783" width="11.140625" style="29" customWidth="1"/>
-    <col min="11784" max="11784" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11785" max="11807" width="9.140625" style="29" bestFit="1"/>
+    <col min="11781" max="11782" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11783" max="11783" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11784" max="11784" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11785" max="11807" width="9.1796875" style="29" bestFit="1"/>
     <col min="11808" max="11858" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11859" max="12032" width="9.140625" style="29"/>
+    <col min="11859" max="12032" width="9.1796875" style="29"/>
     <col min="12033" max="12033" width="4" style="29" customWidth="1"/>
-    <col min="12034" max="12034" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12035" max="12035" width="15.140625" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="14.453125" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="15.1796875" style="29" customWidth="1"/>
     <col min="12036" max="12036" width="53" style="29" customWidth="1"/>
-    <col min="12037" max="12038" width="13.140625" style="29" customWidth="1"/>
-    <col min="12039" max="12039" width="11.140625" style="29" customWidth="1"/>
-    <col min="12040" max="12040" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12041" max="12063" width="9.140625" style="29" bestFit="1"/>
+    <col min="12037" max="12038" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12039" max="12039" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12040" max="12040" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12041" max="12063" width="9.1796875" style="29" bestFit="1"/>
     <col min="12064" max="12114" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12115" max="12288" width="9.140625" style="29"/>
+    <col min="12115" max="12288" width="9.1796875" style="29"/>
     <col min="12289" max="12289" width="4" style="29" customWidth="1"/>
-    <col min="12290" max="12290" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12291" max="12291" width="15.140625" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="14.453125" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="15.1796875" style="29" customWidth="1"/>
     <col min="12292" max="12292" width="53" style="29" customWidth="1"/>
-    <col min="12293" max="12294" width="13.140625" style="29" customWidth="1"/>
-    <col min="12295" max="12295" width="11.140625" style="29" customWidth="1"/>
-    <col min="12296" max="12296" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12297" max="12319" width="9.140625" style="29" bestFit="1"/>
+    <col min="12293" max="12294" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12295" max="12295" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12296" max="12296" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12297" max="12319" width="9.1796875" style="29" bestFit="1"/>
     <col min="12320" max="12370" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12371" max="12544" width="9.140625" style="29"/>
+    <col min="12371" max="12544" width="9.1796875" style="29"/>
     <col min="12545" max="12545" width="4" style="29" customWidth="1"/>
-    <col min="12546" max="12546" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12547" max="12547" width="15.140625" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="14.453125" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="15.1796875" style="29" customWidth="1"/>
     <col min="12548" max="12548" width="53" style="29" customWidth="1"/>
-    <col min="12549" max="12550" width="13.140625" style="29" customWidth="1"/>
-    <col min="12551" max="12551" width="11.140625" style="29" customWidth="1"/>
-    <col min="12552" max="12552" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12553" max="12575" width="9.140625" style="29" bestFit="1"/>
+    <col min="12549" max="12550" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12551" max="12551" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12552" max="12552" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12553" max="12575" width="9.1796875" style="29" bestFit="1"/>
     <col min="12576" max="12626" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12627" max="12800" width="9.140625" style="29"/>
+    <col min="12627" max="12800" width="9.1796875" style="29"/>
     <col min="12801" max="12801" width="4" style="29" customWidth="1"/>
-    <col min="12802" max="12802" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12803" max="12803" width="15.140625" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="14.453125" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="15.1796875" style="29" customWidth="1"/>
     <col min="12804" max="12804" width="53" style="29" customWidth="1"/>
-    <col min="12805" max="12806" width="13.140625" style="29" customWidth="1"/>
-    <col min="12807" max="12807" width="11.140625" style="29" customWidth="1"/>
-    <col min="12808" max="12808" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12809" max="12831" width="9.140625" style="29" bestFit="1"/>
+    <col min="12805" max="12806" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12807" max="12807" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12808" max="12808" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12809" max="12831" width="9.1796875" style="29" bestFit="1"/>
     <col min="12832" max="12882" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12883" max="13056" width="9.140625" style="29"/>
+    <col min="12883" max="13056" width="9.1796875" style="29"/>
     <col min="13057" max="13057" width="4" style="29" customWidth="1"/>
-    <col min="13058" max="13058" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13059" max="13059" width="15.140625" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="14.453125" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="15.1796875" style="29" customWidth="1"/>
     <col min="13060" max="13060" width="53" style="29" customWidth="1"/>
-    <col min="13061" max="13062" width="13.140625" style="29" customWidth="1"/>
-    <col min="13063" max="13063" width="11.140625" style="29" customWidth="1"/>
-    <col min="13064" max="13064" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13065" max="13087" width="9.140625" style="29" bestFit="1"/>
+    <col min="13061" max="13062" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13063" max="13063" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13064" max="13064" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13065" max="13087" width="9.1796875" style="29" bestFit="1"/>
     <col min="13088" max="13138" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13139" max="13312" width="9.140625" style="29"/>
+    <col min="13139" max="13312" width="9.1796875" style="29"/>
     <col min="13313" max="13313" width="4" style="29" customWidth="1"/>
-    <col min="13314" max="13314" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13315" max="13315" width="15.140625" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="14.453125" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="15.1796875" style="29" customWidth="1"/>
     <col min="13316" max="13316" width="53" style="29" customWidth="1"/>
-    <col min="13317" max="13318" width="13.140625" style="29" customWidth="1"/>
-    <col min="13319" max="13319" width="11.140625" style="29" customWidth="1"/>
-    <col min="13320" max="13320" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13321" max="13343" width="9.140625" style="29" bestFit="1"/>
+    <col min="13317" max="13318" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13319" max="13319" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13320" max="13320" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13321" max="13343" width="9.1796875" style="29" bestFit="1"/>
     <col min="13344" max="13394" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13395" max="13568" width="9.140625" style="29"/>
+    <col min="13395" max="13568" width="9.1796875" style="29"/>
     <col min="13569" max="13569" width="4" style="29" customWidth="1"/>
-    <col min="13570" max="13570" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13571" max="13571" width="15.140625" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="14.453125" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="15.1796875" style="29" customWidth="1"/>
     <col min="13572" max="13572" width="53" style="29" customWidth="1"/>
-    <col min="13573" max="13574" width="13.140625" style="29" customWidth="1"/>
-    <col min="13575" max="13575" width="11.140625" style="29" customWidth="1"/>
-    <col min="13576" max="13576" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13577" max="13599" width="9.140625" style="29" bestFit="1"/>
+    <col min="13573" max="13574" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13575" max="13575" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13576" max="13576" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13577" max="13599" width="9.1796875" style="29" bestFit="1"/>
     <col min="13600" max="13650" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13651" max="13824" width="9.140625" style="29"/>
+    <col min="13651" max="13824" width="9.1796875" style="29"/>
     <col min="13825" max="13825" width="4" style="29" customWidth="1"/>
-    <col min="13826" max="13826" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13827" max="13827" width="15.140625" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="14.453125" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="15.1796875" style="29" customWidth="1"/>
     <col min="13828" max="13828" width="53" style="29" customWidth="1"/>
-    <col min="13829" max="13830" width="13.140625" style="29" customWidth="1"/>
-    <col min="13831" max="13831" width="11.140625" style="29" customWidth="1"/>
-    <col min="13832" max="13832" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13833" max="13855" width="9.140625" style="29" bestFit="1"/>
+    <col min="13829" max="13830" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13831" max="13831" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13832" max="13832" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13833" max="13855" width="9.1796875" style="29" bestFit="1"/>
     <col min="13856" max="13906" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13907" max="14080" width="9.140625" style="29"/>
+    <col min="13907" max="14080" width="9.1796875" style="29"/>
     <col min="14081" max="14081" width="4" style="29" customWidth="1"/>
-    <col min="14082" max="14082" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14083" max="14083" width="15.140625" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="14.453125" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="15.1796875" style="29" customWidth="1"/>
     <col min="14084" max="14084" width="53" style="29" customWidth="1"/>
-    <col min="14085" max="14086" width="13.140625" style="29" customWidth="1"/>
-    <col min="14087" max="14087" width="11.140625" style="29" customWidth="1"/>
-    <col min="14088" max="14088" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14089" max="14111" width="9.140625" style="29" bestFit="1"/>
+    <col min="14085" max="14086" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14087" max="14087" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14088" max="14088" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14089" max="14111" width="9.1796875" style="29" bestFit="1"/>
     <col min="14112" max="14162" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14163" max="14336" width="9.140625" style="29"/>
+    <col min="14163" max="14336" width="9.1796875" style="29"/>
     <col min="14337" max="14337" width="4" style="29" customWidth="1"/>
-    <col min="14338" max="14338" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14339" max="14339" width="15.140625" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="14.453125" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="15.1796875" style="29" customWidth="1"/>
     <col min="14340" max="14340" width="53" style="29" customWidth="1"/>
-    <col min="14341" max="14342" width="13.140625" style="29" customWidth="1"/>
-    <col min="14343" max="14343" width="11.140625" style="29" customWidth="1"/>
-    <col min="14344" max="14344" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14345" max="14367" width="9.140625" style="29" bestFit="1"/>
+    <col min="14341" max="14342" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14343" max="14343" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14344" max="14344" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14345" max="14367" width="9.1796875" style="29" bestFit="1"/>
     <col min="14368" max="14418" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14419" max="14592" width="9.140625" style="29"/>
+    <col min="14419" max="14592" width="9.1796875" style="29"/>
     <col min="14593" max="14593" width="4" style="29" customWidth="1"/>
-    <col min="14594" max="14594" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14595" max="14595" width="15.140625" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="14.453125" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="15.1796875" style="29" customWidth="1"/>
     <col min="14596" max="14596" width="53" style="29" customWidth="1"/>
-    <col min="14597" max="14598" width="13.140625" style="29" customWidth="1"/>
-    <col min="14599" max="14599" width="11.140625" style="29" customWidth="1"/>
-    <col min="14600" max="14600" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14601" max="14623" width="9.140625" style="29" bestFit="1"/>
+    <col min="14597" max="14598" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14599" max="14599" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14600" max="14600" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14601" max="14623" width="9.1796875" style="29" bestFit="1"/>
     <col min="14624" max="14674" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14675" max="14848" width="9.140625" style="29"/>
+    <col min="14675" max="14848" width="9.1796875" style="29"/>
     <col min="14849" max="14849" width="4" style="29" customWidth="1"/>
-    <col min="14850" max="14850" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14851" max="14851" width="15.140625" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="14.453125" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="15.1796875" style="29" customWidth="1"/>
     <col min="14852" max="14852" width="53" style="29" customWidth="1"/>
-    <col min="14853" max="14854" width="13.140625" style="29" customWidth="1"/>
-    <col min="14855" max="14855" width="11.140625" style="29" customWidth="1"/>
-    <col min="14856" max="14856" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14857" max="14879" width="9.140625" style="29" bestFit="1"/>
+    <col min="14853" max="14854" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14855" max="14855" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14856" max="14856" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14857" max="14879" width="9.1796875" style="29" bestFit="1"/>
     <col min="14880" max="14930" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14931" max="15104" width="9.140625" style="29"/>
+    <col min="14931" max="15104" width="9.1796875" style="29"/>
     <col min="15105" max="15105" width="4" style="29" customWidth="1"/>
-    <col min="15106" max="15106" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15107" max="15107" width="15.140625" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="14.453125" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="15.1796875" style="29" customWidth="1"/>
     <col min="15108" max="15108" width="53" style="29" customWidth="1"/>
-    <col min="15109" max="15110" width="13.140625" style="29" customWidth="1"/>
-    <col min="15111" max="15111" width="11.140625" style="29" customWidth="1"/>
-    <col min="15112" max="15112" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15113" max="15135" width="9.140625" style="29" bestFit="1"/>
+    <col min="15109" max="15110" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15111" max="15111" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15112" max="15112" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15113" max="15135" width="9.1796875" style="29" bestFit="1"/>
     <col min="15136" max="15186" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15187" max="15360" width="9.140625" style="29"/>
+    <col min="15187" max="15360" width="9.1796875" style="29"/>
     <col min="15361" max="15361" width="4" style="29" customWidth="1"/>
-    <col min="15362" max="15362" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15363" max="15363" width="15.140625" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="14.453125" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="15.1796875" style="29" customWidth="1"/>
     <col min="15364" max="15364" width="53" style="29" customWidth="1"/>
-    <col min="15365" max="15366" width="13.140625" style="29" customWidth="1"/>
-    <col min="15367" max="15367" width="11.140625" style="29" customWidth="1"/>
-    <col min="15368" max="15368" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15369" max="15391" width="9.140625" style="29" bestFit="1"/>
+    <col min="15365" max="15366" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15367" max="15367" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15368" max="15368" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15369" max="15391" width="9.1796875" style="29" bestFit="1"/>
     <col min="15392" max="15442" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15443" max="15616" width="9.140625" style="29"/>
+    <col min="15443" max="15616" width="9.1796875" style="29"/>
     <col min="15617" max="15617" width="4" style="29" customWidth="1"/>
-    <col min="15618" max="15618" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15619" max="15619" width="15.140625" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="14.453125" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="15.1796875" style="29" customWidth="1"/>
     <col min="15620" max="15620" width="53" style="29" customWidth="1"/>
-    <col min="15621" max="15622" width="13.140625" style="29" customWidth="1"/>
-    <col min="15623" max="15623" width="11.140625" style="29" customWidth="1"/>
-    <col min="15624" max="15624" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15625" max="15647" width="9.140625" style="29" bestFit="1"/>
+    <col min="15621" max="15622" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15623" max="15623" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15624" max="15624" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15625" max="15647" width="9.1796875" style="29" bestFit="1"/>
     <col min="15648" max="15698" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15699" max="15872" width="9.140625" style="29"/>
+    <col min="15699" max="15872" width="9.1796875" style="29"/>
     <col min="15873" max="15873" width="4" style="29" customWidth="1"/>
-    <col min="15874" max="15874" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15875" max="15875" width="15.140625" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="14.453125" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="15.1796875" style="29" customWidth="1"/>
     <col min="15876" max="15876" width="53" style="29" customWidth="1"/>
-    <col min="15877" max="15878" width="13.140625" style="29" customWidth="1"/>
-    <col min="15879" max="15879" width="11.140625" style="29" customWidth="1"/>
-    <col min="15880" max="15880" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15881" max="15903" width="9.140625" style="29" bestFit="1"/>
+    <col min="15877" max="15878" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15879" max="15879" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15880" max="15880" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15881" max="15903" width="9.1796875" style="29" bestFit="1"/>
     <col min="15904" max="15954" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15955" max="16128" width="9.140625" style="29"/>
+    <col min="15955" max="16128" width="9.1796875" style="29"/>
     <col min="16129" max="16129" width="4" style="29" customWidth="1"/>
-    <col min="16130" max="16130" width="14.42578125" style="29" customWidth="1"/>
-    <col min="16131" max="16131" width="15.140625" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="14.453125" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="15.1796875" style="29" customWidth="1"/>
     <col min="16132" max="16132" width="53" style="29" customWidth="1"/>
-    <col min="16133" max="16134" width="13.140625" style="29" customWidth="1"/>
-    <col min="16135" max="16135" width="11.140625" style="29" customWidth="1"/>
-    <col min="16136" max="16136" width="4.28515625" style="29" customWidth="1"/>
-    <col min="16137" max="16159" width="9.140625" style="29" bestFit="1"/>
+    <col min="16133" max="16134" width="13.1796875" style="29" customWidth="1"/>
+    <col min="16135" max="16135" width="11.1796875" style="29" customWidth="1"/>
+    <col min="16136" max="16136" width="4.26953125" style="29" customWidth="1"/>
+    <col min="16137" max="16159" width="9.1796875" style="29" bestFit="1"/>
     <col min="16160" max="16210" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="16211" max="16384" width="9.140625" style="29"/>
+    <col min="16211" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="88"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -3410,7 +3407,7 @@
       <c r="G1" s="89"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3419,7 @@
       <c r="G2" s="92"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
       <c r="A3" s="94" t="s">
         <v>1</v>
       </c>
@@ -3434,7 +3431,7 @@
       <c r="G3" s="95"/>
       <c r="H3" s="96"/>
     </row>
-    <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +3443,7 @@
       <c r="G4" s="98"/>
       <c r="H4" s="99"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -3456,7 +3453,7 @@
       <c r="G5" s="71"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="100" t="s">
         <v>3</v>
@@ -3470,7 +3467,7 @@
       <c r="G6" s="104"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="86" t="s">
         <v>5</v>
@@ -3482,7 +3479,7 @@
       <c r="G7" s="80"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="76" t="s">
         <v>6</v>
@@ -3494,7 +3491,7 @@
       <c r="G8" s="80"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="76" t="s">
         <v>7</v>
@@ -3506,7 +3503,7 @@
       <c r="G9" s="80"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="76" t="s">
         <v>8</v>
@@ -3518,7 +3515,7 @@
       <c r="G10" s="80"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="81" t="s">
         <v>9</v>
@@ -3532,7 +3529,7 @@
       <c r="G11" s="85"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -3542,7 +3539,7 @@
       <c r="G12" s="73"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -3552,7 +3549,7 @@
       <c r="G13" s="73"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -3562,7 +3559,7 @@
       <c r="G14" s="73"/>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -3572,7 +3569,7 @@
       <c r="G15" s="73"/>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -3582,7 +3579,7 @@
       <c r="G16" s="73"/>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -3592,7 +3589,7 @@
       <c r="G17" s="73"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -3602,7 +3599,7 @@
       <c r="G18" s="73"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -3612,7 +3609,7 @@
       <c r="G19" s="73"/>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -3622,7 +3619,7 @@
       <c r="G20" s="73"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -3632,7 +3629,7 @@
       <c r="G21" s="73"/>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -3642,7 +3639,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="36"/>
       <c r="C23" s="37"/>
@@ -3652,7 +3649,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37"/>
@@ -3662,7 +3659,7 @@
       <c r="G24" s="39"/>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -3672,7 +3669,7 @@
       <c r="G25" s="39"/>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -3682,7 +3679,7 @@
       <c r="G26" s="39"/>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
@@ -3692,7 +3689,7 @@
       <c r="G27" s="39"/>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="36"/>
       <c r="C28" s="37"/>
@@ -3702,7 +3699,7 @@
       <c r="G28" s="39"/>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
@@ -3712,7 +3709,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
@@ -3722,7 +3719,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -3732,7 +3729,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="40"/>
       <c r="C32" s="37"/>
@@ -3742,7 +3739,7 @@
       <c r="G32" s="39"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="40" t="s">
         <v>11</v>
@@ -3756,7 +3753,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
       <c r="B34" s="42" t="s">
         <v>13</v>
@@ -3781,7 +3778,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -3810,8 +3807,8 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.19685039370078741" top="0.74803149606299213" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="100" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3820,20 +3817,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A211" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="136" t="s">
         <v>19</v>
       </c>
@@ -3841,13 +3838,13 @@
       <c r="C1" s="137"/>
       <c r="D1" s="138"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="139"/>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
       <c r="D2" s="141"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="111" t="s">
         <v>20</v>
@@ -3855,7 +3852,7 @@
       <c r="C3" s="112"/>
       <c r="D3" s="113"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3865,7 +3862,7 @@
       <c r="C4" s="133"/>
       <c r="D4" s="134"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3875,7 +3872,7 @@
       <c r="C5" s="133"/>
       <c r="D5" s="134"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3885,7 +3882,7 @@
       <c r="C6" s="133"/>
       <c r="D6" s="134"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3895,7 +3892,7 @@
       <c r="C7" s="133"/>
       <c r="D7" s="134"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3905,7 +3902,7 @@
       <c r="C8" s="131"/>
       <c r="D8" s="132"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -3915,7 +3912,7 @@
       <c r="C9" s="133"/>
       <c r="D9" s="134"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -3925,7 +3922,7 @@
       <c r="C10" s="131"/>
       <c r="D10" s="132"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -3935,7 +3932,7 @@
       <c r="C11" s="131"/>
       <c r="D11" s="132"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3945,7 +3942,7 @@
       <c r="C12" s="131"/>
       <c r="D12" s="132"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3955,7 +3952,7 @@
       <c r="C13" s="131"/>
       <c r="D13" s="132"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3965,7 +3962,7 @@
       <c r="C14" s="135"/>
       <c r="D14" s="132"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3975,7 +3972,7 @@
       <c r="C15" s="135"/>
       <c r="D15" s="132"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3985,7 +3982,7 @@
       <c r="C16" s="135"/>
       <c r="D16" s="132"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3995,7 +3992,7 @@
       <c r="C17" s="135"/>
       <c r="D17" s="132"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4005,7 +4002,7 @@
       <c r="C18" s="131"/>
       <c r="D18" s="132"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="111" t="s">
         <v>36</v>
@@ -4013,7 +4010,7 @@
       <c r="C19" s="112"/>
       <c r="D19" s="113"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4023,7 +4020,7 @@
       <c r="C20" s="131"/>
       <c r="D20" s="132"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4033,7 +4030,7 @@
       <c r="C21" s="133"/>
       <c r="D21" s="134"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4043,7 +4040,7 @@
       <c r="C22" s="131"/>
       <c r="D22" s="132"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4053,7 +4050,7 @@
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4063,7 +4060,7 @@
       <c r="C24" s="133"/>
       <c r="D24" s="134"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="111" t="s">
         <v>42</v>
@@ -4071,7 +4068,7 @@
       <c r="C25" s="112"/>
       <c r="D25" s="113"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
       <c r="B26" s="66" t="s">
         <v>43</v>
@@ -4083,7 +4080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4093,7 +4090,7 @@
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -4103,7 +4100,7 @@
       <c r="C28" s="63"/>
       <c r="D28" s="64"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -4113,7 +4110,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -4123,7 +4120,7 @@
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -4133,7 +4130,7 @@
       <c r="C31" s="63"/>
       <c r="D31" s="64"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -4143,7 +4140,7 @@
       <c r="C32" s="63"/>
       <c r="D32" s="64"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -4153,7 +4150,7 @@
       <c r="C33" s="63"/>
       <c r="D33" s="64"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -4163,7 +4160,7 @@
       <c r="C34" s="63"/>
       <c r="D34" s="64"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -4173,7 +4170,7 @@
       <c r="C35" s="63"/>
       <c r="D35" s="64"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -4183,7 +4180,7 @@
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -4193,7 +4190,7 @@
       <c r="C37" s="63"/>
       <c r="D37" s="64"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -4203,7 +4200,7 @@
       <c r="C38" s="63"/>
       <c r="D38" s="64"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -4213,7 +4210,7 @@
       <c r="C39" s="63"/>
       <c r="D39" s="64"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>34</v>
       </c>
@@ -4223,7 +4220,7 @@
       <c r="C40" s="48"/>
       <c r="D40" s="49"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -4233,7 +4230,7 @@
       <c r="C41" s="63"/>
       <c r="D41" s="64"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -4243,7 +4240,7 @@
       <c r="C42" s="63"/>
       <c r="D42" s="64"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -4253,7 +4250,7 @@
       <c r="C43" s="74"/>
       <c r="D43" s="64"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -4263,7 +4260,7 @@
       <c r="C44" s="50"/>
       <c r="D44" s="64"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -4273,7 +4270,7 @@
       <c r="C45" s="63"/>
       <c r="D45" s="64"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -4283,7 +4280,7 @@
       <c r="C46" s="63"/>
       <c r="D46" s="64"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -4293,7 +4290,7 @@
       <c r="C47" s="63"/>
       <c r="D47" s="64"/>
     </row>
-    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="111" t="s">
         <v>64</v>
@@ -4301,7 +4298,7 @@
       <c r="C48" s="112"/>
       <c r="D48" s="113"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="111" t="s">
         <v>65</v>
@@ -4309,7 +4306,7 @@
       <c r="C49" s="112"/>
       <c r="D49" s="113"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
@@ -4319,7 +4316,7 @@
       <c r="C50" s="105"/>
       <c r="D50" s="106"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
@@ -4329,7 +4326,7 @@
       <c r="C51" s="105"/>
       <c r="D51" s="106"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
@@ -4339,7 +4336,7 @@
       <c r="C52" s="105"/>
       <c r="D52" s="106"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
@@ -4349,7 +4346,7 @@
       <c r="C53" s="105"/>
       <c r="D53" s="106"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
@@ -4359,7 +4356,7 @@
       <c r="C54" s="105"/>
       <c r="D54" s="106"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
@@ -4369,7 +4366,7 @@
       <c r="C55" s="105"/>
       <c r="D55" s="106"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
@@ -4379,7 +4376,7 @@
       <c r="C56" s="105"/>
       <c r="D56" s="106"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="111" t="s">
         <v>73</v>
@@ -4387,7 +4384,7 @@
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="111" t="s">
         <v>74</v>
@@ -4395,7 +4392,7 @@
       <c r="C58" s="112"/>
       <c r="D58" s="113"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
@@ -4405,7 +4402,7 @@
       <c r="C59" s="105"/>
       <c r="D59" s="106"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="111" t="s">
         <v>76</v>
@@ -4413,7 +4410,7 @@
       <c r="C60" s="112"/>
       <c r="D60" s="113"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>50</v>
       </c>
@@ -4423,7 +4420,7 @@
       <c r="C61" s="109"/>
       <c r="D61" s="110"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>51</v>
       </c>
@@ -4433,7 +4430,7 @@
       <c r="C62" s="109"/>
       <c r="D62" s="110"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>52</v>
       </c>
@@ -4443,7 +4440,7 @@
       <c r="C63" s="109"/>
       <c r="D63" s="110"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>53</v>
       </c>
@@ -4453,7 +4450,7 @@
       <c r="C64" s="109"/>
       <c r="D64" s="110"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>54</v>
       </c>
@@ -4463,7 +4460,7 @@
       <c r="C65" s="109"/>
       <c r="D65" s="110"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>55</v>
       </c>
@@ -4473,7 +4470,7 @@
       <c r="C66" s="109"/>
       <c r="D66" s="110"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="111" t="s">
         <v>83</v>
@@ -4481,7 +4478,7 @@
       <c r="C67" s="112"/>
       <c r="D67" s="113"/>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
@@ -4491,7 +4488,7 @@
       <c r="C68" s="105"/>
       <c r="D68" s="106"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="111" t="s">
         <v>85</v>
@@ -4499,7 +4496,7 @@
       <c r="C69" s="112"/>
       <c r="D69" s="113"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
@@ -4509,7 +4506,7 @@
       <c r="C70" s="105"/>
       <c r="D70" s="106"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
@@ -4519,7 +4516,7 @@
       <c r="C71" s="105"/>
       <c r="D71" s="106"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
@@ -4529,7 +4526,7 @@
       <c r="C72" s="105"/>
       <c r="D72" s="106"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
@@ -4539,7 +4536,7 @@
       <c r="C73" s="105"/>
       <c r="D73" s="106"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
@@ -4549,7 +4546,7 @@
       <c r="C74" s="105"/>
       <c r="D74" s="106"/>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="129" t="s">
         <v>91</v>
@@ -4557,7 +4554,7 @@
       <c r="C75" s="129"/>
       <c r="D75" s="130"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
@@ -4567,7 +4564,7 @@
       <c r="C76" s="105"/>
       <c r="D76" s="106"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
@@ -4577,7 +4574,7 @@
       <c r="C77" s="105"/>
       <c r="D77" s="106"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
@@ -4587,7 +4584,7 @@
       <c r="C78" s="105"/>
       <c r="D78" s="106"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
@@ -4597,7 +4594,7 @@
       <c r="C79" s="105"/>
       <c r="D79" s="106"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
@@ -4607,7 +4604,7 @@
       <c r="C80" s="105"/>
       <c r="D80" s="106"/>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="129" t="s">
         <v>93</v>
@@ -4615,7 +4612,7 @@
       <c r="C81" s="129"/>
       <c r="D81" s="130"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
@@ -4625,7 +4622,7 @@
       <c r="C82" s="105"/>
       <c r="D82" s="106"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
@@ -4635,7 +4632,7 @@
       <c r="C83" s="105"/>
       <c r="D83" s="106"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
@@ -4645,7 +4642,7 @@
       <c r="C84" s="105"/>
       <c r="D84" s="106"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
@@ -4655,7 +4652,7 @@
       <c r="C85" s="105"/>
       <c r="D85" s="106"/>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
@@ -4665,7 +4662,7 @@
       <c r="C86" s="105"/>
       <c r="D86" s="106"/>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>72</v>
       </c>
@@ -4675,7 +4672,7 @@
       <c r="C87" s="105"/>
       <c r="D87" s="106"/>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
@@ -4685,7 +4682,7 @@
       <c r="C88" s="105"/>
       <c r="D88" s="106"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
@@ -4695,7 +4692,7 @@
       <c r="C89" s="105"/>
       <c r="D89" s="106"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="111" t="s">
         <v>356</v>
@@ -4703,7 +4700,7 @@
       <c r="C90" s="112"/>
       <c r="D90" s="113"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
@@ -4713,7 +4710,7 @@
       <c r="C91" s="105"/>
       <c r="D91" s="106"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
@@ -4723,7 +4720,7 @@
       <c r="C92" s="105"/>
       <c r="D92" s="106"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
@@ -4733,7 +4730,7 @@
       <c r="C93" s="105"/>
       <c r="D93" s="106"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
@@ -4743,7 +4740,7 @@
       <c r="C94" s="105"/>
       <c r="D94" s="106"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="111" t="s">
         <v>357</v>
@@ -4751,7 +4748,7 @@
       <c r="C95" s="112"/>
       <c r="D95" s="113"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
@@ -4761,7 +4758,7 @@
       <c r="C96" s="105"/>
       <c r="D96" s="106"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
@@ -4771,7 +4768,7 @@
       <c r="C97" s="109"/>
       <c r="D97" s="110"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>81</v>
       </c>
@@ -4781,7 +4778,7 @@
       <c r="C98" s="105"/>
       <c r="D98" s="106"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
@@ -4791,7 +4788,7 @@
       <c r="C99" s="105"/>
       <c r="D99" s="106"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
@@ -4801,7 +4798,7 @@
       <c r="C100" s="105"/>
       <c r="D100" s="106"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="111" t="s">
         <v>358</v>
@@ -4809,7 +4806,7 @@
       <c r="C101" s="112"/>
       <c r="D101" s="113"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
@@ -4819,7 +4816,7 @@
       <c r="C102" s="109"/>
       <c r="D102" s="110"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
@@ -4829,7 +4826,7 @@
       <c r="C103" s="109"/>
       <c r="D103" s="110"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
@@ -4839,7 +4836,7 @@
       <c r="C104" s="109"/>
       <c r="D104" s="110"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
@@ -4849,7 +4846,7 @@
       <c r="C105" s="109"/>
       <c r="D105" s="110"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="111" t="s">
         <v>359</v>
@@ -4857,7 +4854,7 @@
       <c r="C106" s="112"/>
       <c r="D106" s="113"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
@@ -4867,7 +4864,7 @@
       <c r="C107" s="105"/>
       <c r="D107" s="106"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="111" t="s">
         <v>360</v>
@@ -4875,7 +4872,7 @@
       <c r="C108" s="112"/>
       <c r="D108" s="113"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
@@ -4885,7 +4882,7 @@
       <c r="C109" s="105"/>
       <c r="D109" s="106"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
@@ -4895,7 +4892,7 @@
       <c r="C110" s="105"/>
       <c r="D110" s="106"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
@@ -4905,7 +4902,7 @@
       <c r="C111" s="105"/>
       <c r="D111" s="106"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
@@ -4915,7 +4912,7 @@
       <c r="C112" s="105"/>
       <c r="D112" s="106"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
@@ -4925,7 +4922,7 @@
       <c r="C113" s="105"/>
       <c r="D113" s="106"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
@@ -4935,7 +4932,7 @@
       <c r="C114" s="105"/>
       <c r="D114" s="106"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
@@ -4945,7 +4942,7 @@
       <c r="C115" s="105"/>
       <c r="D115" s="106"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
@@ -4955,7 +4952,7 @@
       <c r="C116" s="105"/>
       <c r="D116" s="106"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
@@ -4965,7 +4962,7 @@
       <c r="C117" s="105"/>
       <c r="D117" s="106"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
@@ -4975,7 +4972,7 @@
       <c r="C118" s="105"/>
       <c r="D118" s="106"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
@@ -4985,7 +4982,7 @@
       <c r="C119" s="109"/>
       <c r="D119" s="110"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
@@ -4995,7 +4992,7 @@
       <c r="C120" s="109"/>
       <c r="D120" s="110"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
@@ -5005,7 +5002,7 @@
       <c r="C121" s="109"/>
       <c r="D121" s="110"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
@@ -5015,7 +5012,7 @@
       <c r="C122" s="109"/>
       <c r="D122" s="110"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
@@ -5025,7 +5022,7 @@
       <c r="C123" s="105"/>
       <c r="D123" s="106"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
@@ -5035,7 +5032,7 @@
       <c r="C124" s="109"/>
       <c r="D124" s="110"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
@@ -5045,7 +5042,7 @@
       <c r="C125" s="105"/>
       <c r="D125" s="106"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>106</v>
       </c>
@@ -5055,7 +5052,7 @@
       <c r="C126" s="105"/>
       <c r="D126" s="106"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="111" t="s">
         <v>363</v>
@@ -5063,7 +5060,7 @@
       <c r="C127" s="127"/>
       <c r="D127" s="128"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
@@ -5073,7 +5070,7 @@
       <c r="C128" s="105"/>
       <c r="D128" s="106"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
         <v>108</v>
       </c>
@@ -5083,7 +5080,7 @@
       <c r="C129" s="109"/>
       <c r="D129" s="110"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
@@ -5093,7 +5090,7 @@
       <c r="C130" s="105"/>
       <c r="D130" s="106"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
         <v>110</v>
       </c>
@@ -5103,7 +5100,7 @@
       <c r="C131" s="105"/>
       <c r="D131" s="106"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
         <v>111</v>
       </c>
@@ -5113,7 +5110,7 @@
       <c r="C132" s="109"/>
       <c r="D132" s="110"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
         <v>112</v>
       </c>
@@ -5123,7 +5120,7 @@
       <c r="C133" s="109"/>
       <c r="D133" s="110"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="111" t="s">
         <v>131</v>
@@ -5131,7 +5128,7 @@
       <c r="C134" s="112"/>
       <c r="D134" s="113"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
@@ -5141,7 +5138,7 @@
       <c r="C135" s="105"/>
       <c r="D135" s="106"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
@@ -5151,7 +5148,7 @@
       <c r="C136" s="105"/>
       <c r="D136" s="106"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
@@ -5161,7 +5158,7 @@
       <c r="C137" s="109"/>
       <c r="D137" s="110"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -5171,7 +5168,7 @@
       <c r="C138" s="105"/>
       <c r="D138" s="106"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
@@ -5181,7 +5178,7 @@
       <c r="C139" s="105"/>
       <c r="D139" s="106"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
@@ -5191,7 +5188,7 @@
       <c r="C140" s="109"/>
       <c r="D140" s="110"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
@@ -5201,7 +5198,7 @@
       <c r="C141" s="105"/>
       <c r="D141" s="106"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
@@ -5211,7 +5208,7 @@
       <c r="C142" s="105"/>
       <c r="D142" s="106"/>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
@@ -5221,7 +5218,7 @@
       <c r="C143" s="109"/>
       <c r="D143" s="110"/>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>122</v>
       </c>
@@ -5231,7 +5228,7 @@
       <c r="C144" s="109"/>
       <c r="D144" s="110"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>123</v>
       </c>
@@ -5241,7 +5238,7 @@
       <c r="C145" s="105"/>
       <c r="D145" s="106"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>124</v>
       </c>
@@ -5251,7 +5248,7 @@
       <c r="C146" s="124"/>
       <c r="D146" s="110"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="111" t="s">
         <v>378</v>
@@ -5259,7 +5256,7 @@
       <c r="C147" s="112"/>
       <c r="D147" s="113"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
@@ -5269,7 +5266,7 @@
       <c r="C148" s="125"/>
       <c r="D148" s="126"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="111" t="s">
         <v>145</v>
@@ -5277,7 +5274,7 @@
       <c r="C149" s="112"/>
       <c r="D149" s="113"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>126</v>
       </c>
@@ -5287,7 +5284,7 @@
       <c r="C150" s="105"/>
       <c r="D150" s="106"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>127</v>
       </c>
@@ -5297,7 +5294,7 @@
       <c r="C151" s="105"/>
       <c r="D151" s="106"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>128</v>
       </c>
@@ -5307,7 +5304,7 @@
       <c r="C152" s="105"/>
       <c r="D152" s="106"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="111" t="s">
         <v>149</v>
@@ -5315,7 +5312,7 @@
       <c r="C153" s="112"/>
       <c r="D153" s="113"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="66" t="s">
         <v>150</v>
@@ -5327,7 +5324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>129</v>
       </c>
@@ -5337,7 +5334,7 @@
       <c r="C155" s="63"/>
       <c r="D155" s="64"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>130</v>
       </c>
@@ -5347,7 +5344,7 @@
       <c r="C156" s="63"/>
       <c r="D156" s="64"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>131</v>
       </c>
@@ -5357,7 +5354,7 @@
       <c r="C157" s="63"/>
       <c r="D157" s="64"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>132</v>
       </c>
@@ -5367,7 +5364,7 @@
       <c r="C158" s="63"/>
       <c r="D158" s="64"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>133</v>
       </c>
@@ -5377,7 +5374,7 @@
       <c r="C159" s="63"/>
       <c r="D159" s="64"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
@@ -5387,7 +5384,7 @@
       <c r="C160" s="63"/>
       <c r="D160" s="64"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
@@ -5397,7 +5394,7 @@
       <c r="C161" s="63"/>
       <c r="D161" s="64"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="111" t="s">
         <v>158</v>
@@ -5405,7 +5402,7 @@
       <c r="C162" s="112"/>
       <c r="D162" s="113"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>136</v>
       </c>
@@ -5415,7 +5412,7 @@
       <c r="C163" s="122"/>
       <c r="D163" s="123"/>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>137</v>
       </c>
@@ -5425,7 +5422,7 @@
       <c r="C164" s="122"/>
       <c r="D164" s="123"/>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>138</v>
       </c>
@@ -5435,7 +5432,7 @@
       <c r="C165" s="122"/>
       <c r="D165" s="123"/>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>139</v>
       </c>
@@ -5445,7 +5442,7 @@
       <c r="C166" s="122"/>
       <c r="D166" s="123"/>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>140</v>
       </c>
@@ -5455,7 +5452,7 @@
       <c r="C167" s="122"/>
       <c r="D167" s="123"/>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>141</v>
       </c>
@@ -5465,7 +5462,7 @@
       <c r="C168" s="122"/>
       <c r="D168" s="123"/>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>142</v>
       </c>
@@ -5475,7 +5472,7 @@
       <c r="C169" s="122"/>
       <c r="D169" s="123"/>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
@@ -5485,7 +5482,7 @@
       <c r="C170" s="122"/>
       <c r="D170" s="123"/>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="66" t="s">
         <v>150</v>
@@ -5497,7 +5494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>144</v>
       </c>
@@ -5507,7 +5504,7 @@
       <c r="C172" s="63"/>
       <c r="D172" s="64"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>145</v>
       </c>
@@ -5517,7 +5514,7 @@
       <c r="C173" s="63"/>
       <c r="D173" s="64"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>146</v>
       </c>
@@ -5527,7 +5524,7 @@
       <c r="C174" s="63"/>
       <c r="D174" s="64"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>147</v>
       </c>
@@ -5537,7 +5534,7 @@
       <c r="C175" s="63"/>
       <c r="D175" s="64"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>148</v>
       </c>
@@ -5547,7 +5544,7 @@
       <c r="C176" s="63"/>
       <c r="D176" s="64"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
@@ -5557,7 +5554,7 @@
       <c r="C177" s="63"/>
       <c r="D177" s="64"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
@@ -5567,7 +5564,7 @@
       <c r="C178" s="63"/>
       <c r="D178" s="64"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="111" t="s">
         <v>368</v>
@@ -5575,7 +5572,7 @@
       <c r="C179" s="112"/>
       <c r="D179" s="113"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>151</v>
       </c>
@@ -5585,7 +5582,7 @@
       <c r="C180" s="105"/>
       <c r="D180" s="106"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
@@ -5595,7 +5592,7 @@
       <c r="C181" s="105"/>
       <c r="D181" s="106"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
@@ -5605,7 +5602,7 @@
       <c r="C182" s="109"/>
       <c r="D182" s="110"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="111" t="s">
         <v>369</v>
@@ -5613,7 +5610,7 @@
       <c r="C183" s="112"/>
       <c r="D183" s="113"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
@@ -5623,7 +5620,7 @@
       <c r="C184" s="105"/>
       <c r="D184" s="106"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
@@ -5633,7 +5630,7 @@
       <c r="C185" s="105"/>
       <c r="D185" s="106"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12"/>
       <c r="B186" s="111" t="s">
         <v>168</v>
@@ -5641,7 +5638,7 @@
       <c r="C186" s="112"/>
       <c r="D186" s="113"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>156</v>
       </c>
@@ -5651,7 +5648,7 @@
       <c r="C187" s="120"/>
       <c r="D187" s="121"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>157</v>
       </c>
@@ -5661,7 +5658,7 @@
       <c r="C188" s="105"/>
       <c r="D188" s="106"/>
     </row>
-    <row r="189" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>158</v>
       </c>
@@ -5671,7 +5668,7 @@
       <c r="C189" s="105"/>
       <c r="D189" s="106"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>159</v>
       </c>
@@ -5681,7 +5678,7 @@
       <c r="C190" s="105"/>
       <c r="D190" s="106"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>160</v>
       </c>
@@ -5691,7 +5688,7 @@
       <c r="C191" s="105"/>
       <c r="D191" s="106"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>161</v>
       </c>
@@ -5701,7 +5698,7 @@
       <c r="C192" s="109"/>
       <c r="D192" s="110"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>162</v>
       </c>
@@ -5711,7 +5708,7 @@
       <c r="C193" s="109"/>
       <c r="D193" s="110"/>
     </row>
-    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>163</v>
       </c>
@@ -5721,7 +5718,7 @@
       <c r="C194" s="117"/>
       <c r="D194" s="118"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>164</v>
       </c>
@@ -5731,7 +5728,7 @@
       <c r="C195" s="119"/>
       <c r="D195" s="106"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>165</v>
       </c>
@@ -5741,7 +5738,7 @@
       <c r="C196" s="109"/>
       <c r="D196" s="110"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>166</v>
       </c>
@@ -5751,7 +5748,7 @@
       <c r="C197" s="105"/>
       <c r="D197" s="106"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>167</v>
       </c>
@@ -5761,7 +5758,7 @@
       <c r="C198" s="105"/>
       <c r="D198" s="106"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>168</v>
       </c>
@@ -5771,7 +5768,7 @@
       <c r="C199" s="105"/>
       <c r="D199" s="106"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
@@ -5781,7 +5778,7 @@
       <c r="C200" s="105"/>
       <c r="D200" s="106"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>170</v>
       </c>
@@ -5791,7 +5788,7 @@
       <c r="C201" s="105"/>
       <c r="D201" s="106"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
@@ -5801,7 +5798,7 @@
       <c r="C202" s="105"/>
       <c r="D202" s="106"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>172</v>
       </c>
@@ -5811,7 +5808,7 @@
       <c r="C203" s="105"/>
       <c r="D203" s="106"/>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
@@ -5821,7 +5818,7 @@
       <c r="C204" s="105"/>
       <c r="D204" s="106"/>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="111" t="s">
         <v>181</v>
@@ -5829,7 +5826,7 @@
       <c r="C205" s="112"/>
       <c r="D205" s="113"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
@@ -5839,7 +5836,7 @@
       <c r="C206" s="105"/>
       <c r="D206" s="106"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>175</v>
       </c>
@@ -5849,7 +5846,7 @@
       <c r="C207" s="105"/>
       <c r="D207" s="106"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>176</v>
       </c>
@@ -5859,7 +5856,7 @@
       <c r="C208" s="105"/>
       <c r="D208" s="106"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>177</v>
       </c>
@@ -5869,7 +5866,7 @@
       <c r="C209" s="114"/>
       <c r="D209" s="115"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>178</v>
       </c>
@@ -5879,7 +5876,7 @@
       <c r="C210" s="114"/>
       <c r="D210" s="115"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="111" t="s">
         <v>187</v>
@@ -5887,7 +5884,7 @@
       <c r="C211" s="112"/>
       <c r="D211" s="113"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>179</v>
       </c>
@@ -5897,7 +5894,7 @@
       <c r="C212" s="105"/>
       <c r="D212" s="106"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>180</v>
       </c>
@@ -5907,7 +5904,7 @@
       <c r="C213" s="116"/>
       <c r="D213" s="110"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>181</v>
       </c>
@@ -5917,7 +5914,7 @@
       <c r="C214" s="109"/>
       <c r="D214" s="110"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>182</v>
       </c>
@@ -5927,7 +5924,7 @@
       <c r="C215" s="109"/>
       <c r="D215" s="110"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>183</v>
       </c>
@@ -5937,7 +5934,7 @@
       <c r="C216" s="109"/>
       <c r="D216" s="110"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>184</v>
       </c>
@@ -5947,7 +5944,7 @@
       <c r="C217" s="109"/>
       <c r="D217" s="110"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="111" t="s">
         <v>194</v>
@@ -5955,7 +5952,7 @@
       <c r="C218" s="112"/>
       <c r="D218" s="113"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>185</v>
       </c>
@@ -5965,7 +5962,7 @@
       <c r="C219" s="105"/>
       <c r="D219" s="106"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>186</v>
       </c>
@@ -5975,7 +5972,7 @@
       <c r="C220" s="105"/>
       <c r="D220" s="106"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>187</v>
       </c>
@@ -5985,7 +5982,7 @@
       <c r="C221" s="105"/>
       <c r="D221" s="106"/>
     </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="27">
         <v>188</v>
       </c>
@@ -6182,7 +6179,7 @@
     <mergeCell ref="C219:D219"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="100" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="66" max="16383" man="1"/>
     <brk id="133" max="16383" man="1"/>
@@ -6195,45 +6192,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="147"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="148"/>
       <c r="B2" s="149"/>
       <c r="C2" s="150"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="142" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="143"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="129" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="130"/>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51">
         <v>1</v>
       </c>
@@ -6242,7 +6239,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -6251,7 +6248,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51">
         <v>3</v>
       </c>
@@ -6260,7 +6257,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51">
         <v>4</v>
       </c>
@@ -6269,7 +6266,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -6278,7 +6275,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51">
         <v>6</v>
       </c>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51">
         <v>7</v>
       </c>
@@ -6296,7 +6293,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51">
         <v>8</v>
       </c>
@@ -6305,7 +6302,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51">
         <v>9</v>
       </c>
@@ -6314,14 +6311,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="52"/>
       <c r="B14" s="129" t="s">
         <v>208</v>
       </c>
       <c r="C14" s="130"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -6330,7 +6327,7 @@
       </c>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -6339,7 +6336,7 @@
       </c>
       <c r="C16" s="64"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -6348,14 +6345,14 @@
       </c>
       <c r="C17" s="64"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="151" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="152"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -6364,7 +6361,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -6373,7 +6370,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -6382,14 +6379,14 @@
       </c>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C22" s="144"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -6398,7 +6395,7 @@
       </c>
       <c r="C23" s="64"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="51">
         <v>17</v>
       </c>
@@ -6407,7 +6404,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -6416,7 +6413,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="51">
         <v>19</v>
       </c>
@@ -6425,7 +6422,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -6434,7 +6431,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51">
         <v>21</v>
       </c>
@@ -6443,7 +6440,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -6452,7 +6449,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51">
         <v>23</v>
       </c>
@@ -6461,7 +6458,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -6470,7 +6467,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51">
         <v>25</v>
       </c>
@@ -6479,7 +6476,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -6488,7 +6485,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51">
         <v>27</v>
       </c>
@@ -6497,7 +6494,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -6506,7 +6503,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51">
         <v>29</v>
       </c>
@@ -6515,7 +6512,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -6524,7 +6521,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="51">
         <v>31</v>
       </c>
@@ -6533,7 +6530,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -6542,7 +6539,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51">
         <v>33</v>
       </c>
@@ -6551,7 +6548,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -6560,7 +6557,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51">
         <v>35</v>
       </c>
@@ -6569,7 +6566,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -6578,14 +6575,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="52"/>
       <c r="B44" s="142" t="s">
         <v>231</v>
       </c>
       <c r="C44" s="143"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51">
         <v>37</v>
       </c>
@@ -6594,7 +6591,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51">
         <v>38</v>
       </c>
@@ -6603,7 +6600,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51">
         <v>39</v>
       </c>
@@ -6612,7 +6609,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="51">
         <v>40</v>
       </c>
@@ -6621,7 +6618,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51">
         <v>41</v>
       </c>
@@ -6630,7 +6627,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="51">
         <v>42</v>
       </c>
@@ -6639,7 +6636,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51">
         <v>43</v>
       </c>
@@ -6648,14 +6645,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="52"/>
       <c r="B52" s="142" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="143"/>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="51">
         <v>44</v>
       </c>
@@ -6664,14 +6661,14 @@
       </c>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="129" t="s">
         <v>240</v>
       </c>
       <c r="C54" s="130"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
@@ -6680,7 +6677,7 @@
       </c>
       <c r="C55" s="64"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>46</v>
       </c>
@@ -6689,14 +6686,14 @@
       </c>
       <c r="C56" s="64"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="52"/>
       <c r="B57" s="142" t="s">
         <v>355</v>
       </c>
       <c r="C57" s="143"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="51">
         <v>47</v>
       </c>
@@ -6705,7 +6702,7 @@
       </c>
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="51">
         <v>48</v>
       </c>
@@ -6714,7 +6711,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="51">
         <v>49</v>
       </c>
@@ -6723,7 +6720,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="51">
         <v>50</v>
       </c>
@@ -6732,7 +6729,7 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="51">
         <v>51</v>
       </c>
@@ -6741,7 +6738,7 @@
       </c>
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="53">
         <v>52</v>
       </c>
@@ -6750,13 +6747,13 @@
       </c>
       <c r="C63" s="18"/>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:C2"/>
@@ -6771,7 +6768,7 @@
     <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="100" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="51" max="16383" man="1"/>
   </rowBreaks>
@@ -6782,45 +6779,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="147"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="148"/>
       <c r="B2" s="149"/>
       <c r="C2" s="150"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="142" t="s">
         <v>249</v>
       </c>
       <c r="C3" s="143"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="129" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="130"/>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51">
         <v>1</v>
       </c>
@@ -6829,7 +6826,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -6838,7 +6835,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51">
         <v>3</v>
       </c>
@@ -6847,7 +6844,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51">
         <v>4</v>
       </c>
@@ -6856,7 +6853,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -6865,7 +6862,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51">
         <v>6</v>
       </c>
@@ -6874,7 +6871,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51">
         <v>7</v>
       </c>
@@ -6883,7 +6880,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51">
         <v>8</v>
       </c>
@@ -6892,7 +6889,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51">
         <v>9</v>
       </c>
@@ -6901,14 +6898,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="52"/>
       <c r="B14" s="129" t="s">
         <v>208</v>
       </c>
       <c r="C14" s="130"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -6917,7 +6914,7 @@
       </c>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -6926,7 +6923,7 @@
       </c>
       <c r="C16" s="64"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -6935,14 +6932,14 @@
       </c>
       <c r="C17" s="64"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="151" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="152"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -6951,7 +6948,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -6960,7 +6957,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -6969,14 +6966,14 @@
       </c>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C22" s="144"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -6985,7 +6982,7 @@
       </c>
       <c r="C23" s="64"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="51">
         <v>17</v>
       </c>
@@ -6994,7 +6991,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -7003,7 +7000,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="51">
         <v>19</v>
       </c>
@@ -7012,7 +7009,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -7021,7 +7018,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51">
         <v>21</v>
       </c>
@@ -7030,7 +7027,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -7039,7 +7036,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51">
         <v>23</v>
       </c>
@@ -7048,7 +7045,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -7057,7 +7054,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51">
         <v>25</v>
       </c>
@@ -7066,7 +7063,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -7075,7 +7072,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51">
         <v>27</v>
       </c>
@@ -7084,7 +7081,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -7093,7 +7090,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51">
         <v>29</v>
       </c>
@@ -7102,7 +7099,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -7111,7 +7108,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="51">
         <v>31</v>
       </c>
@@ -7120,7 +7117,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -7129,7 +7126,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51">
         <v>33</v>
       </c>
@@ -7138,7 +7135,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -7147,7 +7144,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51">
         <v>35</v>
       </c>
@@ -7156,7 +7153,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -7165,14 +7162,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="52"/>
       <c r="B44" s="142" t="s">
         <v>231</v>
       </c>
       <c r="C44" s="143"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51">
         <v>37</v>
       </c>
@@ -7181,7 +7178,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51">
         <v>38</v>
       </c>
@@ -7190,7 +7187,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51">
         <v>39</v>
       </c>
@@ -7199,7 +7196,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="51">
         <v>40</v>
       </c>
@@ -7208,7 +7205,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51">
         <v>41</v>
       </c>
@@ -7217,7 +7214,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="51">
         <v>42</v>
       </c>
@@ -7226,7 +7223,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51">
         <v>43</v>
       </c>
@@ -7235,14 +7232,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="129" t="s">
         <v>240</v>
       </c>
       <c r="C52" s="130"/>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44</v>
       </c>
@@ -7251,7 +7248,7 @@
       </c>
       <c r="C53" s="64"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>45</v>
       </c>
@@ -7260,14 +7257,14 @@
       </c>
       <c r="C54" s="64"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="52"/>
       <c r="B55" s="142" t="s">
         <v>355</v>
       </c>
       <c r="C55" s="143"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="51">
         <v>46</v>
       </c>
@@ -7276,7 +7273,7 @@
       </c>
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="51">
         <v>47</v>
       </c>
@@ -7285,7 +7282,7 @@
       </c>
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="51">
         <v>48</v>
       </c>
@@ -7294,7 +7291,7 @@
       </c>
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="51">
         <v>49</v>
       </c>
@@ -7303,7 +7300,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="51">
         <v>50</v>
       </c>
@@ -7312,7 +7309,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="53">
         <v>51</v>
       </c>
@@ -7321,14 +7318,14 @@
       </c>
       <c r="C61" s="18"/>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B55:C55"/>
@@ -7342,7 +7339,7 @@
     <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="100" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="51" max="16383" man="1"/>
   </rowBreaks>
@@ -7353,45 +7350,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="40.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="147"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="148"/>
       <c r="B2" s="149"/>
       <c r="C2" s="150"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="142" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="143"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="52"/>
       <c r="B4" s="129" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="130"/>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51">
         <v>1</v>
       </c>
@@ -7400,7 +7397,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -7409,7 +7406,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51">
         <v>3</v>
       </c>
@@ -7418,7 +7415,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51">
         <v>4</v>
       </c>
@@ -7427,7 +7424,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -7436,7 +7433,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51">
         <v>6</v>
       </c>
@@ -7445,7 +7442,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51">
         <v>7</v>
       </c>
@@ -7454,7 +7451,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51">
         <v>8</v>
       </c>
@@ -7463,7 +7460,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51">
         <v>9</v>
       </c>
@@ -7472,14 +7469,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
       <c r="B14" s="151" t="s">
         <v>209</v>
       </c>
       <c r="C14" s="162"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="51">
         <v>10</v>
       </c>
@@ -7488,7 +7485,7 @@
       </c>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="51">
         <v>11</v>
       </c>
@@ -7497,7 +7494,7 @@
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="51">
         <v>12</v>
       </c>
@@ -7506,14 +7503,14 @@
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
       <c r="B18" s="129" t="s">
         <v>208</v>
       </c>
       <c r="C18" s="130"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -7522,7 +7519,7 @@
       </c>
       <c r="C19" s="64"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -7531,7 +7528,7 @@
       </c>
       <c r="C20" s="64"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -7540,14 +7537,14 @@
       </c>
       <c r="C21" s="64"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C22" s="144"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -7556,7 +7553,7 @@
       </c>
       <c r="C23" s="64"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>17</v>
       </c>
@@ -7565,7 +7562,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -7574,7 +7571,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>19</v>
       </c>
@@ -7583,7 +7580,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -7592,7 +7589,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>21</v>
       </c>
@@ -7601,7 +7598,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -7610,7 +7607,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>23</v>
       </c>
@@ -7619,7 +7616,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -7628,7 +7625,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>25</v>
       </c>
@@ -7637,7 +7634,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -7646,7 +7643,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>27</v>
       </c>
@@ -7655,7 +7652,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -7664,7 +7661,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>29</v>
       </c>
@@ -7673,7 +7670,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -7682,7 +7679,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>31</v>
       </c>
@@ -7691,7 +7688,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -7700,7 +7697,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>33</v>
       </c>
@@ -7709,7 +7706,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -7718,7 +7715,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>35</v>
       </c>
@@ -7727,7 +7724,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -7736,14 +7733,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52"/>
       <c r="B44" s="142" t="s">
         <v>231</v>
       </c>
       <c r="C44" s="143"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51">
         <v>37</v>
       </c>
@@ -7752,7 +7749,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51">
         <v>38</v>
       </c>
@@ -7761,7 +7758,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51">
         <v>39</v>
       </c>
@@ -7770,7 +7767,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="51">
         <v>40</v>
       </c>
@@ -7779,7 +7776,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="51">
         <v>41</v>
       </c>
@@ -7788,7 +7785,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="51">
         <v>42</v>
       </c>
@@ -7797,7 +7794,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51">
         <v>43</v>
       </c>
@@ -7806,14 +7803,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="52"/>
       <c r="B52" s="142" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="143"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="51">
         <v>44</v>
       </c>
@@ -7822,14 +7819,14 @@
       </c>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="129" t="s">
         <v>240</v>
       </c>
       <c r="C54" s="130"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
@@ -7838,7 +7835,7 @@
       </c>
       <c r="C55" s="64"/>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>46</v>
       </c>
@@ -7847,21 +7844,21 @@
       </c>
       <c r="C56" s="64"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="56"/>
       <c r="B57" s="142" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="143"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="56"/>
       <c r="B58" s="142" t="s">
         <v>251</v>
       </c>
       <c r="C58" s="143"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="56">
         <v>47</v>
       </c>
@@ -7870,7 +7867,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="56">
         <v>48</v>
       </c>
@@ -7879,7 +7876,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="56">
         <v>49</v>
       </c>
@@ -7888,14 +7885,14 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="56"/>
       <c r="B62" s="142" t="s">
         <v>255</v>
       </c>
       <c r="C62" s="143"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="57">
         <v>50</v>
       </c>
@@ -7904,7 +7901,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="57">
         <v>51</v>
       </c>
@@ -7913,7 +7910,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="57">
         <v>52</v>
       </c>
@@ -7922,7 +7919,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="57">
         <v>53</v>
       </c>
@@ -7931,7 +7928,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="57">
         <v>54</v>
       </c>
@@ -7940,7 +7937,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="57">
         <v>55</v>
       </c>
@@ -7949,7 +7946,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="57">
         <v>56</v>
       </c>
@@ -7958,7 +7955,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="57">
         <v>57</v>
       </c>
@@ -7967,7 +7964,7 @@
       </c>
       <c r="C70" s="17"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="57">
         <v>58</v>
       </c>
@@ -7976,14 +7973,14 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="56"/>
       <c r="B72" s="142" t="s">
         <v>265</v>
       </c>
       <c r="C72" s="143"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="57">
         <v>59</v>
       </c>
@@ -7992,7 +7989,7 @@
       </c>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="57">
         <v>60</v>
       </c>
@@ -8001,7 +7998,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="57">
         <v>61</v>
       </c>
@@ -8010,7 +8007,7 @@
       </c>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="57">
         <v>62</v>
       </c>
@@ -8019,14 +8016,14 @@
       </c>
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="56"/>
       <c r="B77" s="157" t="s">
         <v>270</v>
       </c>
       <c r="C77" s="158"/>
     </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="57">
         <v>63</v>
       </c>
@@ -8035,7 +8032,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="57">
         <v>64</v>
       </c>
@@ -8044,7 +8041,7 @@
       </c>
       <c r="C79" s="17"/>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="57">
         <v>65</v>
       </c>
@@ -8053,7 +8050,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="57">
         <v>66</v>
       </c>
@@ -8062,7 +8059,7 @@
       </c>
       <c r="C81" s="17"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="57">
         <v>67</v>
       </c>
@@ -8071,7 +8068,7 @@
       </c>
       <c r="C82" s="17"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="57">
         <v>68</v>
       </c>
@@ -8080,7 +8077,7 @@
       </c>
       <c r="C83" s="17"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="57">
         <v>69</v>
       </c>
@@ -8089,14 +8086,14 @@
       </c>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="157" t="s">
         <v>278</v>
       </c>
       <c r="C85" s="158"/>
     </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="57">
         <v>70</v>
       </c>
@@ -8105,7 +8102,7 @@
       </c>
       <c r="C86" s="20"/>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="57">
         <v>71</v>
       </c>
@@ -8114,14 +8111,14 @@
       </c>
       <c r="C87" s="20"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="57"/>
       <c r="B88" s="142" t="s">
         <v>281</v>
       </c>
       <c r="C88" s="143"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="57">
         <v>72</v>
       </c>
@@ -8130,7 +8127,7 @@
       </c>
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="57">
         <v>73</v>
       </c>
@@ -8139,7 +8136,7 @@
       </c>
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="57">
         <v>74</v>
       </c>
@@ -8148,7 +8145,7 @@
       </c>
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="57">
         <v>75</v>
       </c>
@@ -8157,7 +8154,7 @@
       </c>
       <c r="C92" s="22"/>
     </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="57">
         <v>76</v>
       </c>
@@ -8166,14 +8163,14 @@
       </c>
       <c r="C93" s="22"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="56"/>
       <c r="B94" s="157" t="s">
         <v>287</v>
       </c>
       <c r="C94" s="158"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="57">
         <v>77</v>
       </c>
@@ -8182,7 +8179,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="57">
         <v>78</v>
       </c>
@@ -8191,7 +8188,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="57">
         <v>79</v>
       </c>
@@ -8200,7 +8197,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="57">
         <v>80</v>
       </c>
@@ -8209,7 +8206,7 @@
       </c>
       <c r="C98" s="17"/>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="57">
         <v>81</v>
       </c>
@@ -8218,7 +8215,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="57">
         <v>82</v>
       </c>
@@ -8227,14 +8224,14 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="56"/>
       <c r="B101" s="157" t="s">
         <v>294</v>
       </c>
       <c r="C101" s="158"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="57">
         <v>83</v>
       </c>
@@ -8243,7 +8240,7 @@
       </c>
       <c r="C102" s="17"/>
     </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="57">
         <v>84</v>
       </c>
@@ -8252,7 +8249,7 @@
       </c>
       <c r="C103" s="17"/>
     </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="57">
         <v>85</v>
       </c>
@@ -8261,7 +8258,7 @@
       </c>
       <c r="C104" s="17"/>
     </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="57">
         <v>86</v>
       </c>
@@ -8270,14 +8267,14 @@
       </c>
       <c r="C105" s="17"/>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="57"/>
       <c r="B106" s="153" t="s">
         <v>296</v>
       </c>
       <c r="C106" s="161"/>
     </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="57">
         <v>87</v>
       </c>
@@ -8286,7 +8283,7 @@
       </c>
       <c r="C107" s="17"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="57">
         <v>88</v>
       </c>
@@ -8295,7 +8292,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="57">
         <v>89</v>
       </c>
@@ -8304,14 +8301,14 @@
       </c>
       <c r="C109" s="17"/>
     </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="56"/>
       <c r="B110" s="157" t="s">
         <v>299</v>
       </c>
       <c r="C110" s="158"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="57">
         <v>90</v>
       </c>
@@ -8320,7 +8317,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="57">
         <v>91</v>
       </c>
@@ -8329,7 +8326,7 @@
       </c>
       <c r="C112" s="17"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="57">
         <v>92</v>
       </c>
@@ -8338,7 +8335,7 @@
       </c>
       <c r="C113" s="17"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="57">
         <v>93</v>
       </c>
@@ -8347,7 +8344,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="57">
         <v>94</v>
       </c>
@@ -8356,7 +8353,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="57">
         <v>95</v>
       </c>
@@ -8365,14 +8362,14 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="56"/>
       <c r="B117" s="157" t="s">
         <v>301</v>
       </c>
       <c r="C117" s="158"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="57">
         <v>96</v>
       </c>
@@ -8381,7 +8378,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="57">
         <v>97</v>
       </c>
@@ -8390,7 +8387,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="57">
         <v>98</v>
       </c>
@@ -8399,7 +8396,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="57">
         <v>99</v>
       </c>
@@ -8408,7 +8405,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="57">
         <v>100</v>
       </c>
@@ -8417,7 +8414,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="57">
         <v>101</v>
       </c>
@@ -8426,14 +8423,14 @@
       </c>
       <c r="C123" s="17"/>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="56"/>
       <c r="B124" s="157" t="s">
         <v>303</v>
       </c>
       <c r="C124" s="158"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="57">
         <v>102</v>
       </c>
@@ -8442,7 +8439,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="57">
         <v>103</v>
       </c>
@@ -8451,7 +8448,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="57">
         <v>104</v>
       </c>
@@ -8460,7 +8457,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="57">
         <v>105</v>
       </c>
@@ -8469,7 +8466,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="57">
         <v>106</v>
       </c>
@@ -8478,7 +8475,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="57">
         <v>107</v>
       </c>
@@ -8487,14 +8484,14 @@
       </c>
       <c r="C130" s="17"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="56"/>
       <c r="B131" s="157" t="s">
         <v>304</v>
       </c>
       <c r="C131" s="158"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="57">
         <v>108</v>
       </c>
@@ -8503,7 +8500,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="57">
         <v>109</v>
       </c>
@@ -8512,7 +8509,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="57">
         <v>110</v>
       </c>
@@ -8521,7 +8518,7 @@
       </c>
       <c r="C134" s="17"/>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="57">
         <v>111</v>
       </c>
@@ -8530,7 +8527,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="57">
         <v>112</v>
       </c>
@@ -8539,7 +8536,7 @@
       </c>
       <c r="C136" s="17"/>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="57">
         <v>113</v>
       </c>
@@ -8548,14 +8545,14 @@
       </c>
       <c r="C137" s="17"/>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="56"/>
       <c r="B138" s="157" t="s">
         <v>305</v>
       </c>
       <c r="C138" s="158"/>
     </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="57">
         <v>114</v>
       </c>
@@ -8564,7 +8561,7 @@
       </c>
       <c r="C139" s="17"/>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="57">
         <v>115</v>
       </c>
@@ -8573,7 +8570,7 @@
       </c>
       <c r="C140" s="17"/>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="57">
         <v>116</v>
       </c>
@@ -8582,7 +8579,7 @@
       </c>
       <c r="C141" s="17"/>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="57">
         <v>117</v>
       </c>
@@ -8591,7 +8588,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="57">
         <v>118</v>
       </c>
@@ -8600,7 +8597,7 @@
       </c>
       <c r="C143" s="17"/>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="57">
         <v>119</v>
       </c>
@@ -8609,14 +8606,14 @@
       </c>
       <c r="C144" s="17"/>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="57"/>
       <c r="B145" s="153" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="154"/>
     </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="57">
         <v>120</v>
       </c>
@@ -8625,7 +8622,7 @@
       </c>
       <c r="C146" s="17"/>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="57">
         <v>121</v>
       </c>
@@ -8634,7 +8631,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="57">
         <v>122</v>
       </c>
@@ -8643,7 +8640,7 @@
       </c>
       <c r="C148" s="17"/>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="57">
         <v>123</v>
       </c>
@@ -8652,7 +8649,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="57">
         <v>124</v>
       </c>
@@ -8661,7 +8658,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="57">
         <v>125</v>
       </c>
@@ -8670,14 +8667,14 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="57"/>
       <c r="B152" s="155" t="s">
         <v>312</v>
       </c>
       <c r="C152" s="156"/>
     </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="57">
         <v>126</v>
       </c>
@@ -8686,7 +8683,7 @@
       </c>
       <c r="C153" s="17"/>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="57">
         <v>127</v>
       </c>
@@ -8695,7 +8692,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="57">
         <v>128</v>
       </c>
@@ -8704,7 +8701,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="57">
         <v>129</v>
       </c>
@@ -8713,7 +8710,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="57">
         <v>130</v>
       </c>
@@ -8722,7 +8719,7 @@
       </c>
       <c r="C157" s="17"/>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="57">
         <v>131</v>
       </c>
@@ -8731,14 +8728,14 @@
       </c>
       <c r="C158" s="17"/>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="56"/>
       <c r="B159" s="157" t="s">
         <v>319</v>
       </c>
       <c r="C159" s="158"/>
     </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="57">
         <v>132</v>
       </c>
@@ -8747,7 +8744,7 @@
       </c>
       <c r="C160" s="17"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="57">
         <v>133</v>
       </c>
@@ -8756,7 +8753,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="57">
         <v>134</v>
       </c>
@@ -8765,14 +8762,14 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="56"/>
       <c r="B163" s="157" t="s">
         <v>323</v>
       </c>
       <c r="C163" s="158"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="57">
         <v>135</v>
       </c>
@@ -8781,7 +8778,7 @@
       </c>
       <c r="C164" s="20"/>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="57">
         <v>136</v>
       </c>
@@ -8790,7 +8787,7 @@
       </c>
       <c r="C165" s="20"/>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="57">
         <v>137</v>
       </c>
@@ -8799,14 +8796,14 @@
       </c>
       <c r="C166" s="20"/>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="56"/>
       <c r="B167" s="157" t="s">
         <v>327</v>
       </c>
       <c r="C167" s="158"/>
     </row>
-    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="57">
         <v>138</v>
       </c>
@@ -8815,7 +8812,7 @@
       </c>
       <c r="C168" s="17"/>
     </row>
-    <row r="169" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="57">
         <v>139</v>
       </c>
@@ -8824,7 +8821,7 @@
       </c>
       <c r="C169" s="17"/>
     </row>
-    <row r="170" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="57">
         <v>140</v>
       </c>
@@ -8833,7 +8830,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="57">
         <v>141</v>
       </c>
@@ -8842,7 +8839,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A172" s="57">
         <v>142</v>
       </c>
@@ -8851,7 +8848,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="57">
         <v>143</v>
       </c>
@@ -8860,7 +8857,7 @@
       </c>
       <c r="C173" s="17"/>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="57">
         <v>144</v>
       </c>
@@ -8869,7 +8866,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="57">
         <v>145</v>
       </c>
@@ -8878,7 +8875,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="57">
         <v>146</v>
       </c>
@@ -8887,7 +8884,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="57">
         <v>147</v>
       </c>
@@ -8896,7 +8893,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="57">
         <v>148</v>
       </c>
@@ -8905,7 +8902,7 @@
       </c>
       <c r="C178" s="17"/>
     </row>
-    <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A179" s="57">
         <v>149</v>
       </c>
@@ -8914,7 +8911,7 @@
       </c>
       <c r="C179" s="17"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="57">
         <v>150</v>
       </c>
@@ -8923,7 +8920,7 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="57">
         <v>151</v>
       </c>
@@ -8932,7 +8929,7 @@
       </c>
       <c r="C181" s="154"/>
     </row>
-    <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A182" s="57">
         <v>152</v>
       </c>
@@ -8941,7 +8938,7 @@
       </c>
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="57">
         <v>153</v>
       </c>
@@ -8950,7 +8947,7 @@
       </c>
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="57">
         <v>154</v>
       </c>
@@ -8959,7 +8956,7 @@
       </c>
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="57">
         <v>155</v>
       </c>
@@ -8968,7 +8965,7 @@
       </c>
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="57">
         <v>156</v>
       </c>
@@ -8977,7 +8974,7 @@
       </c>
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="57">
         <v>157</v>
       </c>
@@ -8986,7 +8983,7 @@
       </c>
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="57">
         <v>158</v>
       </c>
@@ -8995,7 +8992,7 @@
       </c>
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="57">
         <v>159</v>
       </c>
@@ -9004,7 +9001,7 @@
       </c>
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="57">
         <v>160</v>
       </c>
@@ -9013,7 +9010,7 @@
       </c>
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="57">
         <v>161</v>
       </c>
@@ -9022,14 +9019,14 @@
       </c>
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="58"/>
       <c r="B192" s="159" t="s">
         <v>352</v>
       </c>
       <c r="C192" s="160"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="57">
         <v>162</v>
       </c>
@@ -9038,7 +9035,7 @@
       </c>
       <c r="C193" s="17"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="57">
         <v>163</v>
       </c>
@@ -9047,7 +9044,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="57">
         <v>164</v>
       </c>
@@ -9056,7 +9053,7 @@
       </c>
       <c r="C195" s="62"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="57">
         <v>165</v>
       </c>
@@ -9065,14 +9062,14 @@
       </c>
       <c r="C196" s="62"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="52"/>
       <c r="B197" s="142" t="s">
         <v>355</v>
       </c>
       <c r="C197" s="143"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="51">
         <v>166</v>
       </c>
@@ -9081,7 +9078,7 @@
       </c>
       <c r="C198" s="16"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="51">
         <v>167</v>
       </c>
@@ -9090,7 +9087,7 @@
       </c>
       <c r="C199" s="16"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="51">
         <v>168</v>
       </c>
@@ -9099,7 +9096,7 @@
       </c>
       <c r="C200" s="16"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="51">
         <v>169</v>
       </c>
@@ -9108,7 +9105,7 @@
       </c>
       <c r="C201" s="16"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="51">
         <v>170</v>
       </c>
@@ -9117,7 +9114,7 @@
       </c>
       <c r="C202" s="16"/>
     </row>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="53">
         <v>171</v>
       </c>
@@ -9162,7 +9159,7 @@
     <mergeCell ref="B192:C192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" fitToHeight="100" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="80" fitToHeight="100" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="51" max="16383" man="1"/>
     <brk id="100" max="16383" man="1"/>
